--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormFD.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormFD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvellaichamy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E95194B-B107-474B-9BA3-9CE09D3D3930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBE0BE2-236A-4831-BD31-A8B476886915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <numFmt numFmtId="165" formatCode="0.0&quot; m&quot;"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +440,20 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -467,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1340,12 +1354,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1561,6 +1586,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1699,7 +1733,10 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1983,6 +2020,21 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2440,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:WVS40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="CL12" sqref="CL12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -2851,97 +2903,97 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="78"/>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="78"/>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="78"/>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="78"/>
-      <c r="BL3" s="78"/>
-      <c r="BM3" s="78"/>
-      <c r="BN3" s="78"/>
-      <c r="BO3" s="78"/>
-      <c r="BP3" s="78"/>
-      <c r="BQ3" s="78"/>
-      <c r="BR3" s="78"/>
-      <c r="BS3" s="78"/>
-      <c r="BT3" s="78"/>
-      <c r="BU3" s="78"/>
-      <c r="BV3" s="78"/>
-      <c r="BW3" s="78"/>
-      <c r="BX3" s="78"/>
-      <c r="BY3" s="78"/>
-      <c r="BZ3" s="78"/>
-      <c r="CA3" s="78"/>
-      <c r="CB3" s="78"/>
-      <c r="CC3" s="78"/>
-      <c r="CD3" s="78"/>
-      <c r="CE3" s="78"/>
-      <c r="CF3" s="78"/>
-      <c r="CG3" s="78"/>
-      <c r="CH3" s="78"/>
-      <c r="CI3" s="78"/>
-      <c r="CJ3" s="78"/>
-      <c r="CK3" s="78"/>
-      <c r="CL3" s="78"/>
-      <c r="CM3" s="78"/>
-      <c r="CN3" s="78"/>
-      <c r="CO3" s="78"/>
-      <c r="CP3" s="78"/>
-      <c r="CQ3" s="78"/>
-      <c r="CR3" s="78"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="81"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="81"/>
+      <c r="BG3" s="81"/>
+      <c r="BH3" s="81"/>
+      <c r="BI3" s="81"/>
+      <c r="BJ3" s="81"/>
+      <c r="BK3" s="81"/>
+      <c r="BL3" s="81"/>
+      <c r="BM3" s="81"/>
+      <c r="BN3" s="81"/>
+      <c r="BO3" s="81"/>
+      <c r="BP3" s="81"/>
+      <c r="BQ3" s="81"/>
+      <c r="BR3" s="81"/>
+      <c r="BS3" s="81"/>
+      <c r="BT3" s="81"/>
+      <c r="BU3" s="81"/>
+      <c r="BV3" s="81"/>
+      <c r="BW3" s="81"/>
+      <c r="BX3" s="81"/>
+      <c r="BY3" s="81"/>
+      <c r="BZ3" s="81"/>
+      <c r="CA3" s="81"/>
+      <c r="CB3" s="81"/>
+      <c r="CC3" s="81"/>
+      <c r="CD3" s="81"/>
+      <c r="CE3" s="81"/>
+      <c r="CF3" s="81"/>
+      <c r="CG3" s="81"/>
+      <c r="CH3" s="81"/>
+      <c r="CI3" s="81"/>
+      <c r="CJ3" s="81"/>
+      <c r="CK3" s="81"/>
+      <c r="CL3" s="81"/>
+      <c r="CM3" s="81"/>
+      <c r="CN3" s="81"/>
+      <c r="CO3" s="81"/>
+      <c r="CP3" s="81"/>
+      <c r="CQ3" s="81"/>
+      <c r="CR3" s="81"/>
       <c r="CS3" s="54"/>
       <c r="CT3" s="55" t="s">
         <v>8</v>
@@ -2949,121 +3001,121 @@
       <c r="CU3" s="56"/>
       <c r="CV3" s="56"/>
       <c r="CW3" s="57"/>
-      <c r="CX3" s="79">
+      <c r="CX3" s="82">
         <v>1</v>
       </c>
-      <c r="CY3" s="79"/>
-      <c r="CZ3" s="79"/>
-      <c r="DA3" s="79"/>
-      <c r="DB3" s="79"/>
-      <c r="DC3" s="79" t="s">
+      <c r="CY3" s="82"/>
+      <c r="CZ3" s="82"/>
+      <c r="DA3" s="82"/>
+      <c r="DB3" s="82"/>
+      <c r="DC3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="DD3" s="79"/>
-      <c r="DE3" s="79"/>
-      <c r="DF3" s="80">
+      <c r="DD3" s="82"/>
+      <c r="DE3" s="82"/>
+      <c r="DF3" s="83">
         <v>1</v>
       </c>
-      <c r="DG3" s="80"/>
-      <c r="DH3" s="80"/>
-      <c r="DI3" s="80"/>
-      <c r="DJ3" s="80"/>
-      <c r="DK3" s="81"/>
+      <c r="DG3" s="83"/>
+      <c r="DH3" s="83"/>
+      <c r="DI3" s="83"/>
+      <c r="DJ3" s="83"/>
+      <c r="DK3" s="84"/>
     </row>
     <row r="4" spans="2:116" ht="27.75" customHeight="1">
       <c r="B4" s="7"/>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="83"/>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="83"/>
-      <c r="AN4" s="83"/>
-      <c r="AO4" s="83"/>
-      <c r="AP4" s="83"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="83"/>
-      <c r="AS4" s="83"/>
-      <c r="AT4" s="83"/>
-      <c r="AU4" s="83"/>
-      <c r="AV4" s="83"/>
-      <c r="AW4" s="83"/>
-      <c r="AX4" s="83"/>
-      <c r="AY4" s="83"/>
-      <c r="AZ4" s="83"/>
-      <c r="BA4" s="83"/>
-      <c r="BB4" s="83"/>
-      <c r="BC4" s="83"/>
-      <c r="BD4" s="83"/>
-      <c r="BE4" s="83"/>
-      <c r="BF4" s="83"/>
-      <c r="BG4" s="83"/>
-      <c r="BH4" s="83"/>
-      <c r="BI4" s="83"/>
-      <c r="BJ4" s="83"/>
-      <c r="BK4" s="83"/>
-      <c r="BL4" s="83"/>
-      <c r="BM4" s="83"/>
-      <c r="BN4" s="83"/>
-      <c r="BO4" s="83"/>
-      <c r="BP4" s="83"/>
-      <c r="BQ4" s="83"/>
-      <c r="BR4" s="83"/>
-      <c r="BS4" s="83"/>
-      <c r="BT4" s="83"/>
-      <c r="BU4" s="83"/>
-      <c r="BV4" s="83"/>
-      <c r="BW4" s="83"/>
-      <c r="BX4" s="83"/>
-      <c r="BY4" s="83"/>
-      <c r="BZ4" s="83"/>
-      <c r="CA4" s="83"/>
-      <c r="CB4" s="83"/>
-      <c r="CC4" s="83"/>
-      <c r="CD4" s="83"/>
-      <c r="CE4" s="83"/>
-      <c r="CF4" s="83"/>
-      <c r="CG4" s="83"/>
-      <c r="CH4" s="83"/>
-      <c r="CI4" s="83"/>
-      <c r="CJ4" s="83"/>
-      <c r="CK4" s="83"/>
-      <c r="CL4" s="83"/>
-      <c r="CM4" s="83"/>
-      <c r="CN4" s="83"/>
-      <c r="CO4" s="83"/>
-      <c r="CP4" s="83"/>
-      <c r="CQ4" s="83"/>
-      <c r="CR4" s="83"/>
-      <c r="CS4" s="84"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="86"/>
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="86"/>
+      <c r="BF4" s="86"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="86"/>
+      <c r="BM4" s="86"/>
+      <c r="BN4" s="86"/>
+      <c r="BO4" s="86"/>
+      <c r="BP4" s="86"/>
+      <c r="BQ4" s="86"/>
+      <c r="BR4" s="86"/>
+      <c r="BS4" s="86"/>
+      <c r="BT4" s="86"/>
+      <c r="BU4" s="86"/>
+      <c r="BV4" s="86"/>
+      <c r="BW4" s="86"/>
+      <c r="BX4" s="86"/>
+      <c r="BY4" s="86"/>
+      <c r="BZ4" s="86"/>
+      <c r="CA4" s="86"/>
+      <c r="CB4" s="86"/>
+      <c r="CC4" s="86"/>
+      <c r="CD4" s="86"/>
+      <c r="CE4" s="86"/>
+      <c r="CF4" s="86"/>
+      <c r="CG4" s="86"/>
+      <c r="CH4" s="86"/>
+      <c r="CI4" s="86"/>
+      <c r="CJ4" s="86"/>
+      <c r="CK4" s="86"/>
+      <c r="CL4" s="86"/>
+      <c r="CM4" s="86"/>
+      <c r="CN4" s="86"/>
+      <c r="CO4" s="86"/>
+      <c r="CP4" s="86"/>
+      <c r="CQ4" s="86"/>
+      <c r="CR4" s="86"/>
+      <c r="CS4" s="87"/>
       <c r="CT4" s="58"/>
       <c r="CU4" s="59"/>
       <c r="CV4" s="59"/>
@@ -3086,479 +3138,479 @@
     <row r="5" spans="2:116" ht="15" customHeight="1">
       <c r="B5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="106" t="s">
+      <c r="H5" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="106"/>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="106"/>
-      <c r="BB5" s="106"/>
-      <c r="BC5" s="106"/>
-      <c r="BD5" s="106"/>
-      <c r="BE5" s="106"/>
-      <c r="BF5" s="106"/>
-      <c r="BG5" s="106"/>
-      <c r="BH5" s="106"/>
-      <c r="BI5" s="106"/>
-      <c r="BJ5" s="106"/>
-      <c r="BK5" s="106"/>
-      <c r="BL5" s="106"/>
-      <c r="BM5" s="106"/>
-      <c r="BN5" s="106"/>
-      <c r="BO5" s="106"/>
-      <c r="BP5" s="106"/>
-      <c r="BQ5" s="106"/>
-      <c r="BR5" s="106"/>
-      <c r="BS5" s="106"/>
-      <c r="BT5" s="106"/>
-      <c r="BU5" s="106"/>
-      <c r="BV5" s="106"/>
-      <c r="BW5" s="106"/>
-      <c r="BX5" s="106"/>
-      <c r="BY5" s="106"/>
-      <c r="BZ5" s="106"/>
-      <c r="CA5" s="106"/>
-      <c r="CB5" s="106"/>
-      <c r="CC5" s="106"/>
-      <c r="CD5" s="106"/>
-      <c r="CE5" s="106"/>
-      <c r="CF5" s="106"/>
-      <c r="CG5" s="106"/>
-      <c r="CH5" s="106"/>
-      <c r="CI5" s="106"/>
-      <c r="CJ5" s="106"/>
-      <c r="CK5" s="106"/>
-      <c r="CL5" s="106"/>
-      <c r="CM5" s="106"/>
-      <c r="CN5" s="106"/>
-      <c r="CO5" s="106"/>
-      <c r="CP5" s="106"/>
-      <c r="CQ5" s="106"/>
-      <c r="CR5" s="106"/>
-      <c r="CT5" s="85" t="s">
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="109"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="109"/>
+      <c r="AM5" s="109"/>
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="109"/>
+      <c r="AR5" s="109"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="109"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="109"/>
+      <c r="AW5" s="109"/>
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="109"/>
+      <c r="BB5" s="109"/>
+      <c r="BC5" s="109"/>
+      <c r="BD5" s="109"/>
+      <c r="BE5" s="109"/>
+      <c r="BF5" s="109"/>
+      <c r="BG5" s="109"/>
+      <c r="BH5" s="109"/>
+      <c r="BI5" s="109"/>
+      <c r="BJ5" s="109"/>
+      <c r="BK5" s="109"/>
+      <c r="BL5" s="109"/>
+      <c r="BM5" s="109"/>
+      <c r="BN5" s="109"/>
+      <c r="BO5" s="109"/>
+      <c r="BP5" s="109"/>
+      <c r="BQ5" s="109"/>
+      <c r="BR5" s="109"/>
+      <c r="BS5" s="109"/>
+      <c r="BT5" s="109"/>
+      <c r="BU5" s="109"/>
+      <c r="BV5" s="109"/>
+      <c r="BW5" s="109"/>
+      <c r="BX5" s="109"/>
+      <c r="BY5" s="109"/>
+      <c r="BZ5" s="109"/>
+      <c r="CA5" s="109"/>
+      <c r="CB5" s="109"/>
+      <c r="CC5" s="109"/>
+      <c r="CD5" s="109"/>
+      <c r="CE5" s="109"/>
+      <c r="CF5" s="109"/>
+      <c r="CG5" s="109"/>
+      <c r="CH5" s="109"/>
+      <c r="CI5" s="109"/>
+      <c r="CJ5" s="109"/>
+      <c r="CK5" s="109"/>
+      <c r="CL5" s="109"/>
+      <c r="CM5" s="109"/>
+      <c r="CN5" s="109"/>
+      <c r="CO5" s="109"/>
+      <c r="CP5" s="109"/>
+      <c r="CQ5" s="109"/>
+      <c r="CR5" s="109"/>
+      <c r="CT5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="CU5" s="86"/>
-      <c r="CV5" s="86"/>
-      <c r="CW5" s="86"/>
-      <c r="CX5" s="86"/>
-      <c r="CY5" s="86"/>
-      <c r="CZ5" s="86"/>
-      <c r="DA5" s="86"/>
-      <c r="DB5" s="86"/>
-      <c r="DC5" s="86"/>
-      <c r="DD5" s="86"/>
-      <c r="DE5" s="86"/>
-      <c r="DF5" s="86"/>
-      <c r="DG5" s="86"/>
-      <c r="DH5" s="86"/>
-      <c r="DI5" s="86"/>
-      <c r="DJ5" s="86"/>
-      <c r="DK5" s="87"/>
+      <c r="CU5" s="89"/>
+      <c r="CV5" s="89"/>
+      <c r="CW5" s="89"/>
+      <c r="CX5" s="89"/>
+      <c r="CY5" s="89"/>
+      <c r="CZ5" s="89"/>
+      <c r="DA5" s="89"/>
+      <c r="DB5" s="89"/>
+      <c r="DC5" s="89"/>
+      <c r="DD5" s="89"/>
+      <c r="DE5" s="89"/>
+      <c r="DF5" s="89"/>
+      <c r="DG5" s="89"/>
+      <c r="DH5" s="89"/>
+      <c r="DI5" s="89"/>
+      <c r="DJ5" s="89"/>
+      <c r="DK5" s="90"/>
     </row>
     <row r="6" spans="2:116" ht="15" customHeight="1">
       <c r="B6" s="7"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="106"/>
-      <c r="AI6" s="106"/>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="106"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="106"/>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="106"/>
-      <c r="AX6" s="106"/>
-      <c r="AY6" s="106"/>
-      <c r="AZ6" s="106"/>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="106"/>
-      <c r="BC6" s="106"/>
-      <c r="BD6" s="106"/>
-      <c r="BE6" s="106"/>
-      <c r="BF6" s="106"/>
-      <c r="BG6" s="106"/>
-      <c r="BH6" s="106"/>
-      <c r="BI6" s="106"/>
-      <c r="BJ6" s="106"/>
-      <c r="BK6" s="106"/>
-      <c r="BL6" s="106"/>
-      <c r="BM6" s="106"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="106"/>
-      <c r="BP6" s="106"/>
-      <c r="BQ6" s="106"/>
-      <c r="BR6" s="106"/>
-      <c r="BS6" s="106"/>
-      <c r="BT6" s="106"/>
-      <c r="BU6" s="106"/>
-      <c r="BV6" s="106"/>
-      <c r="BW6" s="106"/>
-      <c r="BX6" s="106"/>
-      <c r="BY6" s="106"/>
-      <c r="BZ6" s="106"/>
-      <c r="CA6" s="106"/>
-      <c r="CB6" s="106"/>
-      <c r="CC6" s="106"/>
-      <c r="CD6" s="106"/>
-      <c r="CE6" s="106"/>
-      <c r="CF6" s="106"/>
-      <c r="CG6" s="106"/>
-      <c r="CH6" s="106"/>
-      <c r="CI6" s="106"/>
-      <c r="CJ6" s="106"/>
-      <c r="CK6" s="106"/>
-      <c r="CL6" s="106"/>
-      <c r="CM6" s="106"/>
-      <c r="CN6" s="106"/>
-      <c r="CO6" s="106"/>
-      <c r="CP6" s="106"/>
-      <c r="CQ6" s="106"/>
-      <c r="CR6" s="106"/>
-      <c r="CT6" s="88" t="s">
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="109"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="109"/>
+      <c r="AF6" s="109"/>
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="109"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="109"/>
+      <c r="AK6" s="109"/>
+      <c r="AL6" s="109"/>
+      <c r="AM6" s="109"/>
+      <c r="AN6" s="109"/>
+      <c r="AO6" s="109"/>
+      <c r="AP6" s="109"/>
+      <c r="AQ6" s="109"/>
+      <c r="AR6" s="109"/>
+      <c r="AS6" s="109"/>
+      <c r="AT6" s="109"/>
+      <c r="AU6" s="109"/>
+      <c r="AV6" s="109"/>
+      <c r="AW6" s="109"/>
+      <c r="AX6" s="109"/>
+      <c r="AY6" s="109"/>
+      <c r="AZ6" s="109"/>
+      <c r="BA6" s="109"/>
+      <c r="BB6" s="109"/>
+      <c r="BC6" s="109"/>
+      <c r="BD6" s="109"/>
+      <c r="BE6" s="109"/>
+      <c r="BF6" s="109"/>
+      <c r="BG6" s="109"/>
+      <c r="BH6" s="109"/>
+      <c r="BI6" s="109"/>
+      <c r="BJ6" s="109"/>
+      <c r="BK6" s="109"/>
+      <c r="BL6" s="109"/>
+      <c r="BM6" s="109"/>
+      <c r="BN6" s="109"/>
+      <c r="BO6" s="109"/>
+      <c r="BP6" s="109"/>
+      <c r="BQ6" s="109"/>
+      <c r="BR6" s="109"/>
+      <c r="BS6" s="109"/>
+      <c r="BT6" s="109"/>
+      <c r="BU6" s="109"/>
+      <c r="BV6" s="109"/>
+      <c r="BW6" s="109"/>
+      <c r="BX6" s="109"/>
+      <c r="BY6" s="109"/>
+      <c r="BZ6" s="109"/>
+      <c r="CA6" s="109"/>
+      <c r="CB6" s="109"/>
+      <c r="CC6" s="109"/>
+      <c r="CD6" s="109"/>
+      <c r="CE6" s="109"/>
+      <c r="CF6" s="109"/>
+      <c r="CG6" s="109"/>
+      <c r="CH6" s="109"/>
+      <c r="CI6" s="109"/>
+      <c r="CJ6" s="109"/>
+      <c r="CK6" s="109"/>
+      <c r="CL6" s="109"/>
+      <c r="CM6" s="109"/>
+      <c r="CN6" s="109"/>
+      <c r="CO6" s="109"/>
+      <c r="CP6" s="109"/>
+      <c r="CQ6" s="109"/>
+      <c r="CR6" s="109"/>
+      <c r="CT6" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="CU6" s="89"/>
-      <c r="CV6" s="89"/>
-      <c r="CW6" s="89"/>
-      <c r="CX6" s="90"/>
-      <c r="CY6" s="90"/>
-      <c r="CZ6" s="90"/>
-      <c r="DA6" s="90"/>
-      <c r="DB6" s="90"/>
-      <c r="DC6" s="90"/>
-      <c r="DD6" s="90"/>
-      <c r="DE6" s="90"/>
-      <c r="DF6" s="90"/>
-      <c r="DG6" s="90"/>
-      <c r="DH6" s="90"/>
-      <c r="DI6" s="90"/>
-      <c r="DJ6" s="90"/>
-      <c r="DK6" s="91"/>
+      <c r="CU6" s="92"/>
+      <c r="CV6" s="92"/>
+      <c r="CW6" s="92"/>
+      <c r="CX6" s="93"/>
+      <c r="CY6" s="93"/>
+      <c r="CZ6" s="93"/>
+      <c r="DA6" s="93"/>
+      <c r="DB6" s="93"/>
+      <c r="DC6" s="93"/>
+      <c r="DD6" s="93"/>
+      <c r="DE6" s="93"/>
+      <c r="DF6" s="93"/>
+      <c r="DG6" s="93"/>
+      <c r="DH6" s="93"/>
+      <c r="DI6" s="93"/>
+      <c r="DJ6" s="93"/>
+      <c r="DK6" s="94"/>
     </row>
     <row r="7" spans="2:116" ht="15" customHeight="1">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="96" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="97" t="s">
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="93"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="93"/>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="93"/>
-      <c r="BG7" s="99"/>
-      <c r="BH7" s="100" t="s">
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="101"/>
+      <c r="AK7" s="101"/>
+      <c r="AL7" s="101"/>
+      <c r="AM7" s="101"/>
+      <c r="AN7" s="101"/>
+      <c r="AO7" s="101"/>
+      <c r="AP7" s="96"/>
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="96"/>
+      <c r="AS7" s="96"/>
+      <c r="AT7" s="96"/>
+      <c r="AU7" s="96"/>
+      <c r="AV7" s="96"/>
+      <c r="AW7" s="96"/>
+      <c r="AX7" s="96"/>
+      <c r="AY7" s="96"/>
+      <c r="AZ7" s="96"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="96"/>
+      <c r="BC7" s="96"/>
+      <c r="BD7" s="96"/>
+      <c r="BE7" s="96"/>
+      <c r="BF7" s="96"/>
+      <c r="BG7" s="102"/>
+      <c r="BH7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="BI7" s="100"/>
-      <c r="BJ7" s="100"/>
-      <c r="BK7" s="100"/>
-      <c r="BL7" s="100"/>
-      <c r="BM7" s="100"/>
-      <c r="BN7" s="100"/>
-      <c r="BO7" s="100"/>
-      <c r="BP7" s="100"/>
-      <c r="BQ7" s="100"/>
-      <c r="BR7" s="100"/>
-      <c r="BS7" s="100"/>
-      <c r="BT7" s="100"/>
-      <c r="BU7" s="100"/>
-      <c r="BV7" s="100"/>
-      <c r="BW7" s="100"/>
-      <c r="BX7" s="100"/>
-      <c r="BY7" s="100"/>
-      <c r="BZ7" s="100"/>
-      <c r="CA7" s="100"/>
-      <c r="CB7" s="100"/>
-      <c r="CC7" s="100"/>
-      <c r="CD7" s="100"/>
-      <c r="CE7" s="100"/>
-      <c r="CF7" s="100"/>
-      <c r="CG7" s="100"/>
-      <c r="CH7" s="100"/>
-      <c r="CI7" s="100"/>
-      <c r="CJ7" s="100"/>
-      <c r="CK7" s="100"/>
-      <c r="CL7" s="100"/>
-      <c r="CM7" s="100"/>
-      <c r="CN7" s="100"/>
-      <c r="CO7" s="100"/>
-      <c r="CP7" s="100"/>
-      <c r="CQ7" s="100"/>
-      <c r="CR7" s="100"/>
-      <c r="CS7" s="101"/>
-      <c r="CT7" s="102" t="s">
+      <c r="BI7" s="103"/>
+      <c r="BJ7" s="103"/>
+      <c r="BK7" s="103"/>
+      <c r="BL7" s="103"/>
+      <c r="BM7" s="103"/>
+      <c r="BN7" s="103"/>
+      <c r="BO7" s="103"/>
+      <c r="BP7" s="103"/>
+      <c r="BQ7" s="103"/>
+      <c r="BR7" s="103"/>
+      <c r="BS7" s="103"/>
+      <c r="BT7" s="103"/>
+      <c r="BU7" s="103"/>
+      <c r="BV7" s="103"/>
+      <c r="BW7" s="103"/>
+      <c r="BX7" s="103"/>
+      <c r="BY7" s="103"/>
+      <c r="BZ7" s="103"/>
+      <c r="CA7" s="103"/>
+      <c r="CB7" s="103"/>
+      <c r="CC7" s="103"/>
+      <c r="CD7" s="103"/>
+      <c r="CE7" s="103"/>
+      <c r="CF7" s="103"/>
+      <c r="CG7" s="103"/>
+      <c r="CH7" s="103"/>
+      <c r="CI7" s="103"/>
+      <c r="CJ7" s="103"/>
+      <c r="CK7" s="103"/>
+      <c r="CL7" s="103"/>
+      <c r="CM7" s="103"/>
+      <c r="CN7" s="103"/>
+      <c r="CO7" s="103"/>
+      <c r="CP7" s="103"/>
+      <c r="CQ7" s="103"/>
+      <c r="CR7" s="103"/>
+      <c r="CS7" s="104"/>
+      <c r="CT7" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="CU7" s="103"/>
-      <c r="CV7" s="103"/>
-      <c r="CW7" s="103"/>
-      <c r="CX7" s="104"/>
-      <c r="CY7" s="104"/>
-      <c r="CZ7" s="104"/>
-      <c r="DA7" s="104"/>
-      <c r="DB7" s="104"/>
-      <c r="DC7" s="104"/>
-      <c r="DD7" s="104"/>
-      <c r="DE7" s="104"/>
-      <c r="DF7" s="104"/>
-      <c r="DG7" s="104"/>
-      <c r="DH7" s="104"/>
-      <c r="DI7" s="104"/>
-      <c r="DJ7" s="104"/>
-      <c r="DK7" s="105"/>
+      <c r="CU7" s="106"/>
+      <c r="CV7" s="106"/>
+      <c r="CW7" s="106"/>
+      <c r="CX7" s="107"/>
+      <c r="CY7" s="107"/>
+      <c r="CZ7" s="107"/>
+      <c r="DA7" s="107"/>
+      <c r="DB7" s="107"/>
+      <c r="DC7" s="107"/>
+      <c r="DD7" s="107"/>
+      <c r="DE7" s="107"/>
+      <c r="DF7" s="107"/>
+      <c r="DG7" s="107"/>
+      <c r="DH7" s="107"/>
+      <c r="DI7" s="107"/>
+      <c r="DJ7" s="107"/>
+      <c r="DK7" s="108"/>
     </row>
     <row r="8" spans="2:116" ht="15" customHeight="1">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="107" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="110"/>
-      <c r="AG8" s="110"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="110"/>
-      <c r="AJ8" s="110"/>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="110"/>
-      <c r="AO8" s="110"/>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="110"/>
-      <c r="AR8" s="110"/>
-      <c r="AS8" s="110"/>
-      <c r="AT8" s="110"/>
-      <c r="AU8" s="110"/>
-      <c r="AV8" s="110"/>
-      <c r="AW8" s="110"/>
-      <c r="AX8" s="110"/>
-      <c r="AY8" s="110"/>
-      <c r="AZ8" s="110"/>
-      <c r="BA8" s="110"/>
-      <c r="BB8" s="110"/>
-      <c r="BC8" s="110"/>
-      <c r="BD8" s="110"/>
-      <c r="BE8" s="110"/>
-      <c r="BF8" s="110"/>
-      <c r="BG8" s="110"/>
-      <c r="BH8" s="110"/>
-      <c r="BI8" s="110"/>
-      <c r="BJ8" s="110"/>
-      <c r="BK8" s="110"/>
-      <c r="BL8" s="110"/>
-      <c r="BM8" s="110"/>
-      <c r="BN8" s="110"/>
-      <c r="BO8" s="110"/>
-      <c r="BP8" s="110"/>
-      <c r="BQ8" s="110"/>
-      <c r="BR8" s="110"/>
-      <c r="BS8" s="110"/>
-      <c r="BT8" s="110"/>
-      <c r="BU8" s="110"/>
-      <c r="BV8" s="110"/>
-      <c r="BW8" s="110"/>
-      <c r="BX8" s="110"/>
-      <c r="BY8" s="110"/>
-      <c r="BZ8" s="110"/>
-      <c r="CA8" s="110"/>
-      <c r="CB8" s="110"/>
-      <c r="CC8" s="110"/>
-      <c r="CD8" s="110"/>
-      <c r="CE8" s="110"/>
-      <c r="CF8" s="110"/>
-      <c r="CG8" s="110"/>
-      <c r="CH8" s="110"/>
-      <c r="CI8" s="110"/>
-      <c r="CJ8" s="110"/>
-      <c r="CK8" s="110"/>
-      <c r="CL8" s="110"/>
-      <c r="CM8" s="110"/>
-      <c r="CN8" s="110"/>
-      <c r="CO8" s="110"/>
-      <c r="CP8" s="110"/>
-      <c r="CQ8" s="110"/>
-      <c r="CR8" s="110"/>
-      <c r="CS8" s="143"/>
-      <c r="CT8" s="107" t="s">
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="113"/>
+      <c r="AJ8" s="113"/>
+      <c r="AK8" s="113"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="113"/>
+      <c r="AO8" s="113"/>
+      <c r="AP8" s="113"/>
+      <c r="AQ8" s="113"/>
+      <c r="AR8" s="113"/>
+      <c r="AS8" s="113"/>
+      <c r="AT8" s="113"/>
+      <c r="AU8" s="113"/>
+      <c r="AV8" s="113"/>
+      <c r="AW8" s="113"/>
+      <c r="AX8" s="113"/>
+      <c r="AY8" s="113"/>
+      <c r="AZ8" s="113"/>
+      <c r="BA8" s="113"/>
+      <c r="BB8" s="113"/>
+      <c r="BC8" s="113"/>
+      <c r="BD8" s="113"/>
+      <c r="BE8" s="113"/>
+      <c r="BF8" s="113"/>
+      <c r="BG8" s="113"/>
+      <c r="BH8" s="113"/>
+      <c r="BI8" s="113"/>
+      <c r="BJ8" s="113"/>
+      <c r="BK8" s="113"/>
+      <c r="BL8" s="113"/>
+      <c r="BM8" s="113"/>
+      <c r="BN8" s="113"/>
+      <c r="BO8" s="113"/>
+      <c r="BP8" s="113"/>
+      <c r="BQ8" s="113"/>
+      <c r="BR8" s="113"/>
+      <c r="BS8" s="113"/>
+      <c r="BT8" s="113"/>
+      <c r="BU8" s="113"/>
+      <c r="BV8" s="113"/>
+      <c r="BW8" s="113"/>
+      <c r="BX8" s="113"/>
+      <c r="BY8" s="113"/>
+      <c r="BZ8" s="113"/>
+      <c r="CA8" s="113"/>
+      <c r="CB8" s="113"/>
+      <c r="CC8" s="113"/>
+      <c r="CD8" s="113"/>
+      <c r="CE8" s="113"/>
+      <c r="CF8" s="113"/>
+      <c r="CG8" s="113"/>
+      <c r="CH8" s="113"/>
+      <c r="CI8" s="113"/>
+      <c r="CJ8" s="113"/>
+      <c r="CK8" s="113"/>
+      <c r="CL8" s="113"/>
+      <c r="CM8" s="113"/>
+      <c r="CN8" s="113"/>
+      <c r="CO8" s="113"/>
+      <c r="CP8" s="113"/>
+      <c r="CQ8" s="113"/>
+      <c r="CR8" s="113"/>
+      <c r="CS8" s="147"/>
+      <c r="CT8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="CU8" s="108"/>
-      <c r="CV8" s="108"/>
-      <c r="CW8" s="108"/>
-      <c r="CX8" s="108"/>
-      <c r="CY8" s="108"/>
-      <c r="CZ8" s="108"/>
-      <c r="DA8" s="109"/>
-      <c r="DB8" s="109"/>
-      <c r="DC8" s="109"/>
-      <c r="DD8" s="109"/>
-      <c r="DE8" s="109"/>
-      <c r="DF8" s="109"/>
-      <c r="DG8" s="109"/>
-      <c r="DH8" s="109"/>
-      <c r="DI8" s="110" t="s">
+      <c r="CU8" s="111"/>
+      <c r="CV8" s="111"/>
+      <c r="CW8" s="111"/>
+      <c r="CX8" s="111"/>
+      <c r="CY8" s="111"/>
+      <c r="CZ8" s="111"/>
+      <c r="DA8" s="112"/>
+      <c r="DB8" s="112"/>
+      <c r="DC8" s="112"/>
+      <c r="DD8" s="112"/>
+      <c r="DE8" s="112"/>
+      <c r="DF8" s="112"/>
+      <c r="DG8" s="112"/>
+      <c r="DH8" s="112"/>
+      <c r="DI8" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="DJ8" s="110"/>
-      <c r="DK8" s="111"/>
+      <c r="DJ8" s="113"/>
+      <c r="DK8" s="114"/>
     </row>
     <row r="9" spans="2:116" ht="7.5" customHeight="1">
       <c r="B9" s="6"/>
@@ -3684,117 +3736,117 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="112" t="s">
+      <c r="J10" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="114" t="s">
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="115"/>
-      <c r="AD10" s="115"/>
-      <c r="AE10" s="115"/>
-      <c r="AF10" s="115"/>
-      <c r="AG10" s="115"/>
-      <c r="AH10" s="115"/>
-      <c r="AI10" s="115"/>
-      <c r="AJ10" s="115"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="115"/>
-      <c r="AM10" s="115"/>
-      <c r="AN10" s="115"/>
-      <c r="AO10" s="115"/>
-      <c r="AP10" s="115"/>
-      <c r="AQ10" s="115"/>
-      <c r="AR10" s="115"/>
-      <c r="AS10" s="115"/>
-      <c r="AT10" s="115"/>
-      <c r="AU10" s="115"/>
-      <c r="AV10" s="115"/>
-      <c r="AW10" s="115"/>
-      <c r="AX10" s="115"/>
-      <c r="AY10" s="115"/>
-      <c r="AZ10" s="115"/>
-      <c r="BA10" s="115"/>
-      <c r="BB10" s="115"/>
-      <c r="BC10" s="115"/>
-      <c r="BD10" s="115"/>
-      <c r="BE10" s="115"/>
-      <c r="BF10" s="115"/>
-      <c r="BG10" s="115"/>
-      <c r="BH10" s="115"/>
-      <c r="BI10" s="115"/>
-      <c r="BJ10" s="115"/>
-      <c r="BK10" s="115"/>
-      <c r="BL10" s="115"/>
-      <c r="BM10" s="115"/>
-      <c r="BN10" s="115"/>
-      <c r="BO10" s="115"/>
-      <c r="BP10" s="115"/>
-      <c r="BQ10" s="115"/>
-      <c r="BR10" s="115"/>
-      <c r="BS10" s="115"/>
-      <c r="BT10" s="115"/>
-      <c r="BU10" s="115"/>
-      <c r="BV10" s="115"/>
-      <c r="BW10" s="115"/>
-      <c r="BX10" s="115"/>
-      <c r="BY10" s="115"/>
-      <c r="BZ10" s="115"/>
-      <c r="CA10" s="115"/>
-      <c r="CB10" s="115"/>
-      <c r="CC10" s="115"/>
-      <c r="CD10" s="115"/>
-      <c r="CE10" s="115"/>
-      <c r="CF10" s="115"/>
-      <c r="CG10" s="115"/>
-      <c r="CH10" s="115"/>
-      <c r="CI10" s="115"/>
-      <c r="CJ10" s="115"/>
-      <c r="CK10" s="115"/>
-      <c r="CL10" s="115"/>
-      <c r="CM10" s="115"/>
-      <c r="CN10" s="115"/>
-      <c r="CO10" s="115"/>
-      <c r="CP10" s="116"/>
-      <c r="CT10" s="117" t="s">
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="118"/>
+      <c r="AE10" s="118"/>
+      <c r="AF10" s="118"/>
+      <c r="AG10" s="118"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="118"/>
+      <c r="AK10" s="118"/>
+      <c r="AL10" s="118"/>
+      <c r="AM10" s="118"/>
+      <c r="AN10" s="118"/>
+      <c r="AO10" s="118"/>
+      <c r="AP10" s="118"/>
+      <c r="AQ10" s="118"/>
+      <c r="AR10" s="118"/>
+      <c r="AS10" s="118"/>
+      <c r="AT10" s="118"/>
+      <c r="AU10" s="118"/>
+      <c r="AV10" s="118"/>
+      <c r="AW10" s="118"/>
+      <c r="AX10" s="118"/>
+      <c r="AY10" s="118"/>
+      <c r="AZ10" s="118"/>
+      <c r="BA10" s="118"/>
+      <c r="BB10" s="118"/>
+      <c r="BC10" s="118"/>
+      <c r="BD10" s="118"/>
+      <c r="BE10" s="118"/>
+      <c r="BF10" s="118"/>
+      <c r="BG10" s="118"/>
+      <c r="BH10" s="118"/>
+      <c r="BI10" s="118"/>
+      <c r="BJ10" s="118"/>
+      <c r="BK10" s="118"/>
+      <c r="BL10" s="118"/>
+      <c r="BM10" s="118"/>
+      <c r="BN10" s="118"/>
+      <c r="BO10" s="118"/>
+      <c r="BP10" s="118"/>
+      <c r="BQ10" s="118"/>
+      <c r="BR10" s="118"/>
+      <c r="BS10" s="118"/>
+      <c r="BT10" s="118"/>
+      <c r="BU10" s="118"/>
+      <c r="BV10" s="118"/>
+      <c r="BW10" s="118"/>
+      <c r="BX10" s="118"/>
+      <c r="BY10" s="118"/>
+      <c r="BZ10" s="118"/>
+      <c r="CA10" s="118"/>
+      <c r="CB10" s="118"/>
+      <c r="CC10" s="118"/>
+      <c r="CD10" s="118"/>
+      <c r="CE10" s="118"/>
+      <c r="CF10" s="118"/>
+      <c r="CG10" s="118"/>
+      <c r="CH10" s="118"/>
+      <c r="CI10" s="118"/>
+      <c r="CJ10" s="118"/>
+      <c r="CK10" s="118"/>
+      <c r="CL10" s="118"/>
+      <c r="CM10" s="118"/>
+      <c r="CN10" s="118"/>
+      <c r="CO10" s="118"/>
+      <c r="CP10" s="119"/>
+      <c r="CT10" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="CU10" s="118"/>
-      <c r="CV10" s="118"/>
-      <c r="CW10" s="118"/>
-      <c r="CX10" s="118"/>
-      <c r="CY10" s="118"/>
-      <c r="CZ10" s="118"/>
-      <c r="DA10" s="118"/>
-      <c r="DB10" s="118"/>
-      <c r="DC10" s="118"/>
-      <c r="DD10" s="118"/>
-      <c r="DE10" s="119"/>
+      <c r="CU10" s="121"/>
+      <c r="CV10" s="121"/>
+      <c r="CW10" s="121"/>
+      <c r="CX10" s="121"/>
+      <c r="CY10" s="121"/>
+      <c r="CZ10" s="121"/>
+      <c r="DA10" s="121"/>
+      <c r="DB10" s="121"/>
+      <c r="DC10" s="121"/>
+      <c r="DD10" s="121"/>
+      <c r="DE10" s="122"/>
       <c r="DF10" s="65"/>
-      <c r="DG10" s="120" t="s">
+      <c r="DG10" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="DH10" s="121"/>
-      <c r="DI10" s="121"/>
-      <c r="DJ10" s="121"/>
-      <c r="DK10" s="122"/>
+      <c r="DH10" s="124"/>
+      <c r="DI10" s="124"/>
+      <c r="DJ10" s="124"/>
+      <c r="DK10" s="125"/>
     </row>
     <row r="11" spans="2:116" ht="15" customHeight="1">
       <c r="B11" s="2" t="s">
@@ -3808,123 +3860,123 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="217"/>
-      <c r="L11" s="217"/>
-      <c r="M11" s="217"/>
-      <c r="N11" s="217"/>
-      <c r="O11" s="217"/>
-      <c r="P11" s="217"/>
-      <c r="Q11" s="217"/>
-      <c r="R11" s="217"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="217"/>
-      <c r="AE11" s="217"/>
-      <c r="AF11" s="217"/>
-      <c r="AG11" s="217"/>
-      <c r="AH11" s="217"/>
-      <c r="AI11" s="217"/>
-      <c r="AJ11" s="217"/>
-      <c r="AK11" s="217"/>
-      <c r="AL11" s="217"/>
-      <c r="AM11" s="217"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="123"/>
-      <c r="AY11" s="123"/>
-      <c r="AZ11" s="123"/>
-      <c r="BA11" s="123"/>
-      <c r="BB11" s="123"/>
-      <c r="BC11" s="123"/>
-      <c r="BD11" s="123"/>
-      <c r="BE11" s="123"/>
-      <c r="BF11" s="123"/>
-      <c r="BG11" s="123"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="44"/>
-      <c r="BN11" s="44"/>
-      <c r="BO11" s="44"/>
-      <c r="BP11" s="44"/>
-      <c r="BQ11" s="44"/>
-      <c r="BR11" s="217"/>
-      <c r="BS11" s="217"/>
-      <c r="BT11" s="217"/>
-      <c r="BU11" s="217"/>
-      <c r="BV11" s="217"/>
-      <c r="BW11" s="217"/>
-      <c r="BX11" s="217"/>
-      <c r="BY11" s="217"/>
-      <c r="BZ11" s="217"/>
-      <c r="CA11" s="217"/>
-      <c r="CB11" s="45"/>
-      <c r="CC11" s="45"/>
-      <c r="CD11" s="49"/>
-      <c r="CE11" s="49"/>
-      <c r="CF11" s="49"/>
-      <c r="CG11" s="49"/>
-      <c r="CH11" s="49"/>
-      <c r="CI11" s="49"/>
-      <c r="CJ11" s="49"/>
-      <c r="CK11" s="49"/>
-      <c r="CL11" s="217"/>
-      <c r="CM11" s="217"/>
-      <c r="CN11" s="217"/>
-      <c r="CO11" s="217"/>
-      <c r="CP11" s="217"/>
-      <c r="CQ11" s="217"/>
-      <c r="CR11" s="217"/>
-      <c r="CS11" s="217"/>
-      <c r="CT11" s="125">
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="126"/>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="126"/>
+      <c r="AJ11" s="126"/>
+      <c r="AK11" s="126"/>
+      <c r="AL11" s="126"/>
+      <c r="AM11" s="126"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="77"/>
+      <c r="AX11" s="127"/>
+      <c r="AY11" s="127"/>
+      <c r="AZ11" s="127"/>
+      <c r="BA11" s="127"/>
+      <c r="BB11" s="127"/>
+      <c r="BC11" s="127"/>
+      <c r="BD11" s="127"/>
+      <c r="BE11" s="127"/>
+      <c r="BF11" s="127"/>
+      <c r="BG11" s="127"/>
+      <c r="BH11" s="78"/>
+      <c r="BI11" s="78"/>
+      <c r="BJ11" s="77"/>
+      <c r="BK11" s="77"/>
+      <c r="BL11" s="77"/>
+      <c r="BM11" s="77"/>
+      <c r="BN11" s="77"/>
+      <c r="BO11" s="77"/>
+      <c r="BP11" s="77"/>
+      <c r="BQ11" s="77"/>
+      <c r="BR11" s="126"/>
+      <c r="BS11" s="126"/>
+      <c r="BT11" s="126"/>
+      <c r="BU11" s="126"/>
+      <c r="BV11" s="126"/>
+      <c r="BW11" s="126"/>
+      <c r="BX11" s="126"/>
+      <c r="BY11" s="126"/>
+      <c r="BZ11" s="126"/>
+      <c r="CA11" s="126"/>
+      <c r="CB11" s="78"/>
+      <c r="CC11" s="78"/>
+      <c r="CD11" s="79"/>
+      <c r="CE11" s="79"/>
+      <c r="CF11" s="79"/>
+      <c r="CG11" s="79"/>
+      <c r="CH11" s="79"/>
+      <c r="CI11" s="79"/>
+      <c r="CJ11" s="79"/>
+      <c r="CK11" s="79"/>
+      <c r="CL11" s="126"/>
+      <c r="CM11" s="126"/>
+      <c r="CN11" s="126"/>
+      <c r="CO11" s="126"/>
+      <c r="CP11" s="126"/>
+      <c r="CQ11" s="126"/>
+      <c r="CR11" s="126"/>
+      <c r="CS11" s="126"/>
+      <c r="CT11" s="129">
         <v>1</v>
       </c>
-      <c r="CU11" s="126"/>
-      <c r="CV11" s="126"/>
-      <c r="CW11" s="129">
+      <c r="CU11" s="130"/>
+      <c r="CV11" s="130"/>
+      <c r="CW11" s="133">
         <v>2</v>
       </c>
-      <c r="CX11" s="130"/>
-      <c r="CY11" s="131"/>
-      <c r="CZ11" s="126">
+      <c r="CX11" s="134"/>
+      <c r="CY11" s="135"/>
+      <c r="CZ11" s="130">
         <v>3</v>
       </c>
-      <c r="DA11" s="126"/>
-      <c r="DB11" s="134"/>
-      <c r="DC11" s="136" t="s">
+      <c r="DA11" s="130"/>
+      <c r="DB11" s="138"/>
+      <c r="DC11" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="DD11" s="126"/>
-      <c r="DE11" s="134"/>
+      <c r="DD11" s="130"/>
+      <c r="DE11" s="138"/>
       <c r="DF11" s="66"/>
-      <c r="DG11" s="124" t="s">
+      <c r="DG11" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="DH11" s="124"/>
-      <c r="DI11" s="124" t="s">
+      <c r="DH11" s="128"/>
+      <c r="DI11" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="DJ11" s="124"/>
-      <c r="DK11" s="124"/>
+      <c r="DJ11" s="128"/>
+      <c r="DK11" s="128"/>
     </row>
     <row r="12" spans="2:116" ht="4.5" customHeight="1">
       <c r="B12" s="10"/>
@@ -3936,9 +3988,9 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
       <c r="P12" s="23"/>
@@ -4023,1228 +4075,1264 @@
       <c r="CQ12" s="50"/>
       <c r="CR12" s="51"/>
       <c r="CS12" s="51"/>
-      <c r="CT12" s="127"/>
-      <c r="CU12" s="128"/>
-      <c r="CV12" s="128"/>
-      <c r="CW12" s="132"/>
-      <c r="CX12" s="128"/>
-      <c r="CY12" s="133"/>
-      <c r="CZ12" s="128"/>
-      <c r="DA12" s="128"/>
-      <c r="DB12" s="135"/>
-      <c r="DC12" s="127"/>
-      <c r="DD12" s="128"/>
-      <c r="DE12" s="135"/>
+      <c r="CT12" s="131"/>
+      <c r="CU12" s="132"/>
+      <c r="CV12" s="132"/>
+      <c r="CW12" s="136"/>
+      <c r="CX12" s="132"/>
+      <c r="CY12" s="137"/>
+      <c r="CZ12" s="132"/>
+      <c r="DA12" s="132"/>
+      <c r="DB12" s="139"/>
+      <c r="DC12" s="131"/>
+      <c r="DD12" s="132"/>
+      <c r="DE12" s="139"/>
       <c r="DF12" s="66"/>
     </row>
     <row r="13" spans="2:116" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="214" t="s">
+      <c r="B13" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="145" t="s">
+      <c r="C13" s="215"/>
+      <c r="D13" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146" t="s">
+      <c r="E13" s="149"/>
+      <c r="F13" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
       <c r="J13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
       <c r="N13" s="25"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="138"/>
-      <c r="AG13" s="138"/>
-      <c r="AH13" s="148"/>
-      <c r="AI13" s="149"/>
-      <c r="AJ13" s="138"/>
-      <c r="AK13" s="138"/>
-      <c r="AL13" s="139"/>
-      <c r="AM13" s="137"/>
-      <c r="AN13" s="138"/>
-      <c r="AO13" s="138"/>
-      <c r="AP13" s="139"/>
-      <c r="AQ13" s="137"/>
-      <c r="AR13" s="138"/>
-      <c r="AS13" s="138"/>
-      <c r="AT13" s="139"/>
-      <c r="AU13" s="137"/>
-      <c r="AV13" s="138"/>
-      <c r="AW13" s="138"/>
-      <c r="AX13" s="139"/>
-      <c r="AY13" s="137"/>
-      <c r="AZ13" s="138"/>
-      <c r="BA13" s="138"/>
-      <c r="BB13" s="140"/>
-      <c r="BC13" s="141"/>
-      <c r="BD13" s="138"/>
-      <c r="BE13" s="138"/>
-      <c r="BF13" s="139"/>
-      <c r="BG13" s="137"/>
-      <c r="BH13" s="138"/>
-      <c r="BI13" s="138"/>
-      <c r="BJ13" s="139"/>
-      <c r="BK13" s="137"/>
-      <c r="BL13" s="138"/>
-      <c r="BM13" s="138"/>
-      <c r="BN13" s="139"/>
-      <c r="BO13" s="137"/>
-      <c r="BP13" s="138"/>
-      <c r="BQ13" s="138"/>
-      <c r="BR13" s="139"/>
-      <c r="BS13" s="137"/>
-      <c r="BT13" s="138"/>
-      <c r="BU13" s="138"/>
-      <c r="BV13" s="148"/>
-      <c r="BW13" s="149"/>
-      <c r="BX13" s="138"/>
-      <c r="BY13" s="138"/>
-      <c r="BZ13" s="139"/>
-      <c r="CA13" s="137"/>
-      <c r="CB13" s="138"/>
-      <c r="CC13" s="138"/>
-      <c r="CD13" s="139"/>
-      <c r="CE13" s="137"/>
-      <c r="CF13" s="138"/>
-      <c r="CG13" s="138"/>
-      <c r="CH13" s="139"/>
-      <c r="CI13" s="137"/>
-      <c r="CJ13" s="138"/>
-      <c r="CK13" s="138"/>
-      <c r="CL13" s="139"/>
-      <c r="CM13" s="137"/>
-      <c r="CN13" s="138"/>
-      <c r="CO13" s="138"/>
-      <c r="CP13" s="163"/>
-      <c r="CQ13" s="164" t="s">
+      <c r="O13" s="145"/>
+      <c r="P13" s="142"/>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="142"/>
+      <c r="U13" s="142"/>
+      <c r="V13" s="143"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="142"/>
+      <c r="Y13" s="142"/>
+      <c r="Z13" s="143"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="142"/>
+      <c r="AD13" s="143"/>
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="142"/>
+      <c r="AG13" s="142"/>
+      <c r="AH13" s="152"/>
+      <c r="AI13" s="153"/>
+      <c r="AJ13" s="142"/>
+      <c r="AK13" s="142"/>
+      <c r="AL13" s="143"/>
+      <c r="AM13" s="141"/>
+      <c r="AN13" s="142"/>
+      <c r="AO13" s="142"/>
+      <c r="AP13" s="143"/>
+      <c r="AQ13" s="141"/>
+      <c r="AR13" s="142"/>
+      <c r="AS13" s="142"/>
+      <c r="AT13" s="143"/>
+      <c r="AU13" s="141"/>
+      <c r="AV13" s="142"/>
+      <c r="AW13" s="142"/>
+      <c r="AX13" s="143"/>
+      <c r="AY13" s="141"/>
+      <c r="AZ13" s="142"/>
+      <c r="BA13" s="142"/>
+      <c r="BB13" s="144"/>
+      <c r="BC13" s="145"/>
+      <c r="BD13" s="142"/>
+      <c r="BE13" s="142"/>
+      <c r="BF13" s="143"/>
+      <c r="BG13" s="141"/>
+      <c r="BH13" s="142"/>
+      <c r="BI13" s="142"/>
+      <c r="BJ13" s="143"/>
+      <c r="BK13" s="141"/>
+      <c r="BL13" s="142"/>
+      <c r="BM13" s="142"/>
+      <c r="BN13" s="143"/>
+      <c r="BO13" s="141"/>
+      <c r="BP13" s="142"/>
+      <c r="BQ13" s="142"/>
+      <c r="BR13" s="143"/>
+      <c r="BS13" s="141"/>
+      <c r="BT13" s="142"/>
+      <c r="BU13" s="142"/>
+      <c r="BV13" s="152"/>
+      <c r="BW13" s="153"/>
+      <c r="BX13" s="142"/>
+      <c r="BY13" s="142"/>
+      <c r="BZ13" s="143"/>
+      <c r="CA13" s="141"/>
+      <c r="CB13" s="142"/>
+      <c r="CC13" s="142"/>
+      <c r="CD13" s="143"/>
+      <c r="CE13" s="141"/>
+      <c r="CF13" s="142"/>
+      <c r="CG13" s="142"/>
+      <c r="CH13" s="143"/>
+      <c r="CI13" s="141"/>
+      <c r="CJ13" s="142"/>
+      <c r="CK13" s="142"/>
+      <c r="CL13" s="143"/>
+      <c r="CM13" s="141"/>
+      <c r="CN13" s="142"/>
+      <c r="CO13" s="142"/>
+      <c r="CP13" s="167"/>
+      <c r="CQ13" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR13" s="165"/>
-      <c r="CS13" s="166"/>
-      <c r="CT13" s="167" t="str">
+      <c r="CR13" s="169"/>
+      <c r="CS13" s="170"/>
+      <c r="CT13" s="171" t="str">
         <f t="shared" ref="CT13:CT21" si="0">IF(AND(COUNTIF(O13:CP13,"1")=0,COUNTIF(O13:CP13,"2")=0,COUNTIF(O13:CP13,"3")=0),"",COUNTIF(O13:CP13,"1")/10+IF(DG13=1,DI13/1000,0))</f>
         <v/>
       </c>
-      <c r="CU13" s="118"/>
-      <c r="CV13" s="151"/>
-      <c r="CW13" s="150" t="str">
+      <c r="CU13" s="121"/>
+      <c r="CV13" s="155"/>
+      <c r="CW13" s="154" t="str">
         <f t="shared" ref="CW13:CW21" si="1">IF(AND(COUNTIF(O13:CP13,"1")=0,COUNTIF(O13:CP13,"2")=0,COUNTIF(O13:CP13,"3")=0),"",COUNTIF(O13:CP13,"2")/10+IF(DG13=2,DI13/1000,0))</f>
         <v/>
       </c>
-      <c r="CX13" s="118"/>
-      <c r="CY13" s="151"/>
-      <c r="CZ13" s="150" t="str">
+      <c r="CX13" s="121"/>
+      <c r="CY13" s="155"/>
+      <c r="CZ13" s="154" t="str">
         <f t="shared" ref="CZ13:CZ21" si="2">IF(AND(COUNTIF(O13:CP13,"1")=0,COUNTIF(O13:CP13,"2")=0,COUNTIF(O13:CP13,"3")=0),"",COUNTIF(O13:CP13,"3")/10+IF(DG13=3,DI13/1000,0))</f>
         <v/>
       </c>
-      <c r="DA13" s="118"/>
-      <c r="DB13" s="119"/>
-      <c r="DC13" s="150" t="str">
+      <c r="DA13" s="121"/>
+      <c r="DB13" s="122"/>
+      <c r="DC13" s="154" t="str">
         <f t="shared" ref="DC13:DC21" si="3">IF(AND(CT13="",CW13="",CZ13=""),"",SUM(CT13:DB13))</f>
         <v/>
       </c>
-      <c r="DD13" s="118"/>
-      <c r="DE13" s="119"/>
+      <c r="DD13" s="121"/>
+      <c r="DE13" s="122"/>
       <c r="DF13" s="52"/>
-      <c r="DG13" s="152"/>
-      <c r="DH13" s="153"/>
-      <c r="DI13" s="152"/>
-      <c r="DJ13" s="153"/>
+      <c r="DG13" s="156"/>
+      <c r="DH13" s="157"/>
+      <c r="DI13" s="156"/>
+      <c r="DJ13" s="157"/>
       <c r="DK13" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:116" ht="15" customHeight="1">
-      <c r="B14" s="215"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="211" t="s">
+      <c r="B14" s="219"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="211"/>
-      <c r="F14" s="154" t="s">
+      <c r="E14" s="215"/>
+      <c r="F14" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
       <c r="J14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
       <c r="N14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="156"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="157"/>
-      <c r="U14" s="157"/>
-      <c r="V14" s="158"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="157"/>
-      <c r="Y14" s="157"/>
-      <c r="Z14" s="158"/>
-      <c r="AA14" s="159"/>
-      <c r="AB14" s="157"/>
-      <c r="AC14" s="157"/>
-      <c r="AD14" s="158"/>
-      <c r="AE14" s="159"/>
-      <c r="AF14" s="157"/>
-      <c r="AG14" s="157"/>
-      <c r="AH14" s="160"/>
-      <c r="AI14" s="161"/>
-      <c r="AJ14" s="157"/>
-      <c r="AK14" s="157"/>
-      <c r="AL14" s="158"/>
-      <c r="AM14" s="159"/>
-      <c r="AN14" s="157"/>
-      <c r="AO14" s="157"/>
-      <c r="AP14" s="158"/>
-      <c r="AQ14" s="159"/>
-      <c r="AR14" s="157"/>
-      <c r="AS14" s="157"/>
-      <c r="AT14" s="158"/>
-      <c r="AU14" s="159"/>
-      <c r="AV14" s="157"/>
-      <c r="AW14" s="157"/>
-      <c r="AX14" s="158"/>
-      <c r="AY14" s="159"/>
-      <c r="AZ14" s="157"/>
-      <c r="BA14" s="157"/>
-      <c r="BB14" s="162"/>
-      <c r="BC14" s="156"/>
-      <c r="BD14" s="157"/>
-      <c r="BE14" s="157"/>
-      <c r="BF14" s="158"/>
-      <c r="BG14" s="159"/>
-      <c r="BH14" s="157"/>
-      <c r="BI14" s="157"/>
-      <c r="BJ14" s="158"/>
-      <c r="BK14" s="159"/>
-      <c r="BL14" s="157"/>
-      <c r="BM14" s="157"/>
-      <c r="BN14" s="158"/>
-      <c r="BO14" s="159"/>
-      <c r="BP14" s="157"/>
-      <c r="BQ14" s="157"/>
-      <c r="BR14" s="158"/>
-      <c r="BS14" s="159"/>
-      <c r="BT14" s="157"/>
-      <c r="BU14" s="157"/>
-      <c r="BV14" s="160"/>
-      <c r="BW14" s="161"/>
-      <c r="BX14" s="157"/>
-      <c r="BY14" s="157"/>
-      <c r="BZ14" s="158"/>
-      <c r="CA14" s="159"/>
-      <c r="CB14" s="157"/>
-      <c r="CC14" s="157"/>
-      <c r="CD14" s="158"/>
-      <c r="CE14" s="159"/>
-      <c r="CF14" s="157"/>
-      <c r="CG14" s="157"/>
-      <c r="CH14" s="158"/>
-      <c r="CI14" s="159"/>
-      <c r="CJ14" s="157"/>
-      <c r="CK14" s="157"/>
-      <c r="CL14" s="158"/>
-      <c r="CM14" s="159"/>
-      <c r="CN14" s="157"/>
-      <c r="CO14" s="157"/>
-      <c r="CP14" s="179"/>
-      <c r="CQ14" s="164" t="s">
+      <c r="O14" s="160"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="161"/>
+      <c r="V14" s="162"/>
+      <c r="W14" s="163"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="162"/>
+      <c r="AA14" s="163"/>
+      <c r="AB14" s="161"/>
+      <c r="AC14" s="161"/>
+      <c r="AD14" s="162"/>
+      <c r="AE14" s="163"/>
+      <c r="AF14" s="161"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="164"/>
+      <c r="AI14" s="165"/>
+      <c r="AJ14" s="161"/>
+      <c r="AK14" s="161"/>
+      <c r="AL14" s="162"/>
+      <c r="AM14" s="163"/>
+      <c r="AN14" s="161"/>
+      <c r="AO14" s="161"/>
+      <c r="AP14" s="162"/>
+      <c r="AQ14" s="163"/>
+      <c r="AR14" s="161"/>
+      <c r="AS14" s="161"/>
+      <c r="AT14" s="162"/>
+      <c r="AU14" s="163"/>
+      <c r="AV14" s="161"/>
+      <c r="AW14" s="161"/>
+      <c r="AX14" s="162"/>
+      <c r="AY14" s="163"/>
+      <c r="AZ14" s="161"/>
+      <c r="BA14" s="161"/>
+      <c r="BB14" s="166"/>
+      <c r="BC14" s="160"/>
+      <c r="BD14" s="161"/>
+      <c r="BE14" s="161"/>
+      <c r="BF14" s="162"/>
+      <c r="BG14" s="163"/>
+      <c r="BH14" s="161"/>
+      <c r="BI14" s="161"/>
+      <c r="BJ14" s="162"/>
+      <c r="BK14" s="163"/>
+      <c r="BL14" s="161"/>
+      <c r="BM14" s="161"/>
+      <c r="BN14" s="162"/>
+      <c r="BO14" s="163"/>
+      <c r="BP14" s="161"/>
+      <c r="BQ14" s="161"/>
+      <c r="BR14" s="162"/>
+      <c r="BS14" s="163"/>
+      <c r="BT14" s="161"/>
+      <c r="BU14" s="161"/>
+      <c r="BV14" s="164"/>
+      <c r="BW14" s="165"/>
+      <c r="BX14" s="161"/>
+      <c r="BY14" s="161"/>
+      <c r="BZ14" s="162"/>
+      <c r="CA14" s="163"/>
+      <c r="CB14" s="161"/>
+      <c r="CC14" s="161"/>
+      <c r="CD14" s="162"/>
+      <c r="CE14" s="163"/>
+      <c r="CF14" s="161"/>
+      <c r="CG14" s="161"/>
+      <c r="CH14" s="162"/>
+      <c r="CI14" s="163"/>
+      <c r="CJ14" s="161"/>
+      <c r="CK14" s="161"/>
+      <c r="CL14" s="162"/>
+      <c r="CM14" s="163"/>
+      <c r="CN14" s="161"/>
+      <c r="CO14" s="161"/>
+      <c r="CP14" s="183"/>
+      <c r="CQ14" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR14" s="165"/>
-      <c r="CS14" s="166"/>
-      <c r="CT14" s="180" t="str">
+      <c r="CR14" s="169"/>
+      <c r="CS14" s="170"/>
+      <c r="CT14" s="184" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="CU14" s="181"/>
-      <c r="CV14" s="182"/>
-      <c r="CW14" s="183" t="str">
+      <c r="CU14" s="185"/>
+      <c r="CV14" s="186"/>
+      <c r="CW14" s="187" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CX14" s="181"/>
-      <c r="CY14" s="182"/>
-      <c r="CZ14" s="183" t="str">
+      <c r="CX14" s="185"/>
+      <c r="CY14" s="186"/>
+      <c r="CZ14" s="187" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="DA14" s="181"/>
-      <c r="DB14" s="184"/>
-      <c r="DC14" s="183" t="str">
+      <c r="DA14" s="185"/>
+      <c r="DB14" s="188"/>
+      <c r="DC14" s="187" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="DD14" s="181"/>
-      <c r="DE14" s="184"/>
+      <c r="DD14" s="185"/>
+      <c r="DE14" s="188"/>
       <c r="DF14" s="52"/>
-      <c r="DG14" s="168"/>
-      <c r="DH14" s="169"/>
-      <c r="DI14" s="168"/>
-      <c r="DJ14" s="169"/>
+      <c r="DG14" s="172"/>
+      <c r="DH14" s="173"/>
+      <c r="DI14" s="172"/>
+      <c r="DJ14" s="173"/>
       <c r="DK14" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:116" ht="15" customHeight="1">
-      <c r="B15" s="215"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="170" t="s">
+      <c r="B15" s="219"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
       <c r="J15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
       <c r="N15" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="172"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="175"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="174"/>
-      <c r="W15" s="175"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="174"/>
-      <c r="AA15" s="175"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="173"/>
-      <c r="AD15" s="174"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="173"/>
-      <c r="AH15" s="176"/>
-      <c r="AI15" s="177"/>
-      <c r="AJ15" s="173"/>
-      <c r="AK15" s="173"/>
-      <c r="AL15" s="174"/>
-      <c r="AM15" s="175"/>
-      <c r="AN15" s="173"/>
-      <c r="AO15" s="173"/>
-      <c r="AP15" s="174"/>
-      <c r="AQ15" s="175"/>
-      <c r="AR15" s="173"/>
-      <c r="AS15" s="173"/>
-      <c r="AT15" s="174"/>
-      <c r="AU15" s="175"/>
-      <c r="AV15" s="173"/>
-      <c r="AW15" s="173"/>
-      <c r="AX15" s="174"/>
-      <c r="AY15" s="175"/>
-      <c r="AZ15" s="173"/>
-      <c r="BA15" s="173"/>
-      <c r="BB15" s="178"/>
-      <c r="BC15" s="172"/>
-      <c r="BD15" s="173"/>
-      <c r="BE15" s="173"/>
-      <c r="BF15" s="174"/>
-      <c r="BG15" s="175"/>
-      <c r="BH15" s="173"/>
-      <c r="BI15" s="173"/>
-      <c r="BJ15" s="174"/>
-      <c r="BK15" s="175"/>
-      <c r="BL15" s="173"/>
-      <c r="BM15" s="173"/>
-      <c r="BN15" s="174"/>
-      <c r="BO15" s="175"/>
-      <c r="BP15" s="173"/>
-      <c r="BQ15" s="173"/>
-      <c r="BR15" s="174"/>
-      <c r="BS15" s="175"/>
-      <c r="BT15" s="173"/>
-      <c r="BU15" s="173"/>
-      <c r="BV15" s="176"/>
-      <c r="BW15" s="177"/>
-      <c r="BX15" s="173"/>
-      <c r="BY15" s="173"/>
-      <c r="BZ15" s="174"/>
-      <c r="CA15" s="175"/>
-      <c r="CB15" s="173"/>
-      <c r="CC15" s="173"/>
-      <c r="CD15" s="174"/>
-      <c r="CE15" s="175"/>
-      <c r="CF15" s="173"/>
-      <c r="CG15" s="173"/>
-      <c r="CH15" s="174"/>
-      <c r="CI15" s="175"/>
-      <c r="CJ15" s="173"/>
-      <c r="CK15" s="173"/>
-      <c r="CL15" s="174"/>
-      <c r="CM15" s="175"/>
-      <c r="CN15" s="173"/>
-      <c r="CO15" s="173"/>
-      <c r="CP15" s="197"/>
-      <c r="CQ15" s="164" t="s">
+      <c r="O15" s="176"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="178"/>
+      <c r="S15" s="179"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
+      <c r="V15" s="178"/>
+      <c r="W15" s="179"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="178"/>
+      <c r="AA15" s="179"/>
+      <c r="AB15" s="177"/>
+      <c r="AC15" s="177"/>
+      <c r="AD15" s="178"/>
+      <c r="AE15" s="179"/>
+      <c r="AF15" s="177"/>
+      <c r="AG15" s="177"/>
+      <c r="AH15" s="180"/>
+      <c r="AI15" s="181"/>
+      <c r="AJ15" s="177"/>
+      <c r="AK15" s="177"/>
+      <c r="AL15" s="178"/>
+      <c r="AM15" s="179"/>
+      <c r="AN15" s="177"/>
+      <c r="AO15" s="177"/>
+      <c r="AP15" s="178"/>
+      <c r="AQ15" s="179"/>
+      <c r="AR15" s="177"/>
+      <c r="AS15" s="177"/>
+      <c r="AT15" s="178"/>
+      <c r="AU15" s="179"/>
+      <c r="AV15" s="177"/>
+      <c r="AW15" s="177"/>
+      <c r="AX15" s="178"/>
+      <c r="AY15" s="179"/>
+      <c r="AZ15" s="177"/>
+      <c r="BA15" s="177"/>
+      <c r="BB15" s="182"/>
+      <c r="BC15" s="176"/>
+      <c r="BD15" s="177"/>
+      <c r="BE15" s="177"/>
+      <c r="BF15" s="178"/>
+      <c r="BG15" s="179"/>
+      <c r="BH15" s="177"/>
+      <c r="BI15" s="177"/>
+      <c r="BJ15" s="178"/>
+      <c r="BK15" s="179"/>
+      <c r="BL15" s="177"/>
+      <c r="BM15" s="177"/>
+      <c r="BN15" s="178"/>
+      <c r="BO15" s="179"/>
+      <c r="BP15" s="177"/>
+      <c r="BQ15" s="177"/>
+      <c r="BR15" s="178"/>
+      <c r="BS15" s="179"/>
+      <c r="BT15" s="177"/>
+      <c r="BU15" s="177"/>
+      <c r="BV15" s="180"/>
+      <c r="BW15" s="181"/>
+      <c r="BX15" s="177"/>
+      <c r="BY15" s="177"/>
+      <c r="BZ15" s="178"/>
+      <c r="CA15" s="179"/>
+      <c r="CB15" s="177"/>
+      <c r="CC15" s="177"/>
+      <c r="CD15" s="178"/>
+      <c r="CE15" s="179"/>
+      <c r="CF15" s="177"/>
+      <c r="CG15" s="177"/>
+      <c r="CH15" s="178"/>
+      <c r="CI15" s="179"/>
+      <c r="CJ15" s="177"/>
+      <c r="CK15" s="177"/>
+      <c r="CL15" s="178"/>
+      <c r="CM15" s="179"/>
+      <c r="CN15" s="177"/>
+      <c r="CO15" s="177"/>
+      <c r="CP15" s="201"/>
+      <c r="CQ15" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR15" s="165"/>
-      <c r="CS15" s="166"/>
-      <c r="CT15" s="198" t="str">
+      <c r="CR15" s="169"/>
+      <c r="CS15" s="170"/>
+      <c r="CT15" s="202" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="CU15" s="199"/>
-      <c r="CV15" s="200"/>
-      <c r="CW15" s="201" t="str">
+      <c r="CU15" s="203"/>
+      <c r="CV15" s="204"/>
+      <c r="CW15" s="205" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="CX15" s="199"/>
-      <c r="CY15" s="200"/>
-      <c r="CZ15" s="201" t="str">
+      <c r="CX15" s="203"/>
+      <c r="CY15" s="204"/>
+      <c r="CZ15" s="205" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="DA15" s="199"/>
-      <c r="DB15" s="202"/>
-      <c r="DC15" s="201" t="str">
+      <c r="DA15" s="203"/>
+      <c r="DB15" s="206"/>
+      <c r="DC15" s="202" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="DD15" s="199"/>
-      <c r="DE15" s="202"/>
+      <c r="DD15" s="203"/>
+      <c r="DE15" s="206"/>
       <c r="DF15" s="52"/>
-      <c r="DG15" s="185"/>
-      <c r="DH15" s="186"/>
-      <c r="DI15" s="185"/>
-      <c r="DJ15" s="186"/>
+      <c r="DG15" s="189"/>
+      <c r="DH15" s="190"/>
+      <c r="DI15" s="189"/>
+      <c r="DJ15" s="190"/>
       <c r="DK15" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:116" ht="15" customHeight="1">
-      <c r="B16" s="215"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="187" t="s">
+      <c r="B16" s="219"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
       <c r="J16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="188"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="188"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="192"/>
       <c r="N16" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="O16" s="189"/>
-      <c r="P16" s="190"/>
-      <c r="Q16" s="190"/>
-      <c r="R16" s="191"/>
-      <c r="S16" s="192"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="190"/>
-      <c r="V16" s="191"/>
-      <c r="W16" s="192"/>
-      <c r="X16" s="190"/>
-      <c r="Y16" s="190"/>
-      <c r="Z16" s="191"/>
-      <c r="AA16" s="192"/>
-      <c r="AB16" s="190"/>
-      <c r="AC16" s="190"/>
-      <c r="AD16" s="191"/>
-      <c r="AE16" s="192"/>
-      <c r="AF16" s="190"/>
-      <c r="AG16" s="190"/>
-      <c r="AH16" s="193"/>
-      <c r="AI16" s="194"/>
-      <c r="AJ16" s="190"/>
-      <c r="AK16" s="190"/>
-      <c r="AL16" s="191"/>
-      <c r="AM16" s="192"/>
-      <c r="AN16" s="190"/>
-      <c r="AO16" s="190"/>
-      <c r="AP16" s="191"/>
-      <c r="AQ16" s="192"/>
-      <c r="AR16" s="190"/>
-      <c r="AS16" s="190"/>
-      <c r="AT16" s="191"/>
-      <c r="AU16" s="192"/>
-      <c r="AV16" s="190"/>
-      <c r="AW16" s="190"/>
-      <c r="AX16" s="191"/>
-      <c r="AY16" s="192"/>
-      <c r="AZ16" s="190"/>
-      <c r="BA16" s="190"/>
-      <c r="BB16" s="195"/>
-      <c r="BC16" s="189"/>
-      <c r="BD16" s="190"/>
-      <c r="BE16" s="190"/>
-      <c r="BF16" s="191"/>
-      <c r="BG16" s="192"/>
-      <c r="BH16" s="190"/>
-      <c r="BI16" s="190"/>
-      <c r="BJ16" s="191"/>
-      <c r="BK16" s="192"/>
-      <c r="BL16" s="190"/>
-      <c r="BM16" s="190"/>
-      <c r="BN16" s="191"/>
-      <c r="BO16" s="192"/>
-      <c r="BP16" s="190"/>
-      <c r="BQ16" s="190"/>
-      <c r="BR16" s="191"/>
-      <c r="BS16" s="192"/>
-      <c r="BT16" s="190"/>
-      <c r="BU16" s="190"/>
-      <c r="BV16" s="193"/>
-      <c r="BW16" s="194"/>
-      <c r="BX16" s="190"/>
-      <c r="BY16" s="190"/>
-      <c r="BZ16" s="191"/>
-      <c r="CA16" s="192"/>
-      <c r="CB16" s="190"/>
-      <c r="CC16" s="190"/>
-      <c r="CD16" s="191"/>
-      <c r="CE16" s="192"/>
-      <c r="CF16" s="190"/>
-      <c r="CG16" s="190"/>
-      <c r="CH16" s="191"/>
-      <c r="CI16" s="192"/>
-      <c r="CJ16" s="190"/>
-      <c r="CK16" s="190"/>
-      <c r="CL16" s="191"/>
-      <c r="CM16" s="192"/>
-      <c r="CN16" s="190"/>
-      <c r="CO16" s="190"/>
-      <c r="CP16" s="196"/>
-      <c r="CQ16" s="164" t="s">
+      <c r="O16" s="193"/>
+      <c r="P16" s="194"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="196"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="195"/>
+      <c r="W16" s="196"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="195"/>
+      <c r="AA16" s="196"/>
+      <c r="AB16" s="194"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="195"/>
+      <c r="AE16" s="196"/>
+      <c r="AF16" s="194"/>
+      <c r="AG16" s="194"/>
+      <c r="AH16" s="197"/>
+      <c r="AI16" s="198"/>
+      <c r="AJ16" s="194"/>
+      <c r="AK16" s="194"/>
+      <c r="AL16" s="195"/>
+      <c r="AM16" s="196"/>
+      <c r="AN16" s="194"/>
+      <c r="AO16" s="194"/>
+      <c r="AP16" s="195"/>
+      <c r="AQ16" s="196"/>
+      <c r="AR16" s="194"/>
+      <c r="AS16" s="194"/>
+      <c r="AT16" s="195"/>
+      <c r="AU16" s="196"/>
+      <c r="AV16" s="194"/>
+      <c r="AW16" s="194"/>
+      <c r="AX16" s="195"/>
+      <c r="AY16" s="196"/>
+      <c r="AZ16" s="194"/>
+      <c r="BA16" s="194"/>
+      <c r="BB16" s="199"/>
+      <c r="BC16" s="193"/>
+      <c r="BD16" s="194"/>
+      <c r="BE16" s="194"/>
+      <c r="BF16" s="195"/>
+      <c r="BG16" s="196"/>
+      <c r="BH16" s="194"/>
+      <c r="BI16" s="194"/>
+      <c r="BJ16" s="195"/>
+      <c r="BK16" s="196"/>
+      <c r="BL16" s="194"/>
+      <c r="BM16" s="194"/>
+      <c r="BN16" s="195"/>
+      <c r="BO16" s="196"/>
+      <c r="BP16" s="194"/>
+      <c r="BQ16" s="194"/>
+      <c r="BR16" s="195"/>
+      <c r="BS16" s="196"/>
+      <c r="BT16" s="194"/>
+      <c r="BU16" s="194"/>
+      <c r="BV16" s="197"/>
+      <c r="BW16" s="198"/>
+      <c r="BX16" s="194"/>
+      <c r="BY16" s="194"/>
+      <c r="BZ16" s="195"/>
+      <c r="CA16" s="196"/>
+      <c r="CB16" s="194"/>
+      <c r="CC16" s="194"/>
+      <c r="CD16" s="195"/>
+      <c r="CE16" s="196"/>
+      <c r="CF16" s="194"/>
+      <c r="CG16" s="194"/>
+      <c r="CH16" s="195"/>
+      <c r="CI16" s="196"/>
+      <c r="CJ16" s="194"/>
+      <c r="CK16" s="194"/>
+      <c r="CL16" s="195"/>
+      <c r="CM16" s="196"/>
+      <c r="CN16" s="194"/>
+      <c r="CO16" s="194"/>
+      <c r="CP16" s="200"/>
+      <c r="CQ16" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR16" s="165"/>
-      <c r="CS16" s="166"/>
-      <c r="CT16" s="203"/>
-      <c r="CU16" s="204"/>
-      <c r="CV16" s="205"/>
-      <c r="CW16" s="206"/>
-      <c r="CX16" s="204"/>
-      <c r="CY16" s="205"/>
-      <c r="CZ16" s="206"/>
-      <c r="DA16" s="204"/>
-      <c r="DB16" s="207"/>
-      <c r="DC16" s="206"/>
-      <c r="DD16" s="204"/>
-      <c r="DE16" s="207"/>
+      <c r="CR16" s="169"/>
+      <c r="CS16" s="170"/>
+      <c r="CT16" s="207" t="str">
+        <f t="shared" ref="CT16:CT21" si="4">IF(AND(COUNTIF(O16:CP16,"1")=0,COUNTIF(O16:CP16,"2")=0,COUNTIF(O16:CP16,"3")=0),"",COUNTIF(O16:CP16,"1")/10+IF(DG16=1,DI16/1000,0))</f>
+        <v/>
+      </c>
+      <c r="CU16" s="208"/>
+      <c r="CV16" s="209"/>
+      <c r="CW16" s="210" t="str">
+        <f t="shared" ref="CW16:CW21" si="5">IF(AND(COUNTIF(O16:CP16,"1")=0,COUNTIF(O16:CP16,"2")=0,COUNTIF(O16:CP16,"3")=0),"",COUNTIF(O16:CP16,"2")/10+IF(DG16=2,DI16/1000,0))</f>
+        <v/>
+      </c>
+      <c r="CX16" s="208"/>
+      <c r="CY16" s="209"/>
+      <c r="CZ16" s="210" t="str">
+        <f t="shared" ref="CZ16:CZ21" si="6">IF(AND(COUNTIF(O16:CP16,"1")=0,COUNTIF(O16:CP16,"2")=0,COUNTIF(O16:CP16,"3")=0),"",COUNTIF(O16:CP16,"3")/10+IF(DG16=3,DI16/1000,0))</f>
+        <v/>
+      </c>
+      <c r="DA16" s="208"/>
+      <c r="DB16" s="211"/>
+      <c r="DC16" s="207" t="str">
+        <f t="shared" ref="DC16:DC21" si="7">IF(AND(CT16="",CW16="",CZ16=""),"",SUM(CT16:DB16))</f>
+        <v/>
+      </c>
+      <c r="DD16" s="208"/>
+      <c r="DE16" s="211"/>
       <c r="DF16" s="52"/>
-      <c r="DG16" s="152"/>
-      <c r="DH16" s="153"/>
-      <c r="DI16" s="152"/>
-      <c r="DJ16" s="153"/>
+      <c r="DG16" s="156"/>
+      <c r="DH16" s="157"/>
+      <c r="DI16" s="156"/>
+      <c r="DJ16" s="157"/>
       <c r="DK16" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:115" ht="15" customHeight="1">
-      <c r="B17" s="215"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="211" t="s">
+      <c r="B17" s="219"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="211"/>
-      <c r="F17" s="154" t="s">
+      <c r="E17" s="215"/>
+      <c r="F17" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
       <c r="J17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
       <c r="N17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="156"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="158"/>
-      <c r="S17" s="159"/>
-      <c r="T17" s="157"/>
-      <c r="U17" s="157"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="159"/>
-      <c r="X17" s="157"/>
-      <c r="Y17" s="157"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="159"/>
-      <c r="AB17" s="157"/>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="158"/>
-      <c r="AE17" s="159"/>
-      <c r="AF17" s="157"/>
-      <c r="AG17" s="157"/>
-      <c r="AH17" s="160"/>
-      <c r="AI17" s="161"/>
-      <c r="AJ17" s="157"/>
-      <c r="AK17" s="157"/>
-      <c r="AL17" s="158"/>
-      <c r="AM17" s="159"/>
-      <c r="AN17" s="157"/>
-      <c r="AO17" s="157"/>
-      <c r="AP17" s="158"/>
-      <c r="AQ17" s="159"/>
-      <c r="AR17" s="157"/>
-      <c r="AS17" s="157"/>
-      <c r="AT17" s="158"/>
-      <c r="AU17" s="159"/>
-      <c r="AV17" s="157"/>
-      <c r="AW17" s="157"/>
-      <c r="AX17" s="158"/>
-      <c r="AY17" s="159"/>
-      <c r="AZ17" s="157"/>
-      <c r="BA17" s="157"/>
-      <c r="BB17" s="162"/>
-      <c r="BC17" s="156"/>
-      <c r="BD17" s="157"/>
-      <c r="BE17" s="157"/>
-      <c r="BF17" s="158"/>
-      <c r="BG17" s="159"/>
-      <c r="BH17" s="157"/>
-      <c r="BI17" s="157"/>
-      <c r="BJ17" s="158"/>
-      <c r="BK17" s="159"/>
-      <c r="BL17" s="157"/>
-      <c r="BM17" s="157"/>
-      <c r="BN17" s="158"/>
-      <c r="BO17" s="159"/>
-      <c r="BP17" s="157"/>
-      <c r="BQ17" s="157"/>
-      <c r="BR17" s="158"/>
-      <c r="BS17" s="159"/>
-      <c r="BT17" s="157"/>
-      <c r="BU17" s="157"/>
-      <c r="BV17" s="160"/>
-      <c r="BW17" s="161"/>
-      <c r="BX17" s="157"/>
-      <c r="BY17" s="157"/>
-      <c r="BZ17" s="158"/>
-      <c r="CA17" s="159"/>
-      <c r="CB17" s="157"/>
-      <c r="CC17" s="157"/>
-      <c r="CD17" s="158"/>
-      <c r="CE17" s="159"/>
-      <c r="CF17" s="157"/>
-      <c r="CG17" s="157"/>
-      <c r="CH17" s="158"/>
-      <c r="CI17" s="159"/>
-      <c r="CJ17" s="157"/>
-      <c r="CK17" s="157"/>
-      <c r="CL17" s="158"/>
-      <c r="CM17" s="159"/>
-      <c r="CN17" s="157"/>
-      <c r="CO17" s="157"/>
-      <c r="CP17" s="179"/>
-      <c r="CQ17" s="164" t="s">
+      <c r="O17" s="160"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="162"/>
+      <c r="S17" s="163"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="161"/>
+      <c r="V17" s="162"/>
+      <c r="W17" s="163"/>
+      <c r="X17" s="161"/>
+      <c r="Y17" s="161"/>
+      <c r="Z17" s="162"/>
+      <c r="AA17" s="163"/>
+      <c r="AB17" s="161"/>
+      <c r="AC17" s="161"/>
+      <c r="AD17" s="162"/>
+      <c r="AE17" s="163"/>
+      <c r="AF17" s="161"/>
+      <c r="AG17" s="161"/>
+      <c r="AH17" s="164"/>
+      <c r="AI17" s="165"/>
+      <c r="AJ17" s="161"/>
+      <c r="AK17" s="161"/>
+      <c r="AL17" s="162"/>
+      <c r="AM17" s="163"/>
+      <c r="AN17" s="161"/>
+      <c r="AO17" s="161"/>
+      <c r="AP17" s="162"/>
+      <c r="AQ17" s="163"/>
+      <c r="AR17" s="161"/>
+      <c r="AS17" s="161"/>
+      <c r="AT17" s="162"/>
+      <c r="AU17" s="163"/>
+      <c r="AV17" s="161"/>
+      <c r="AW17" s="161"/>
+      <c r="AX17" s="162"/>
+      <c r="AY17" s="163"/>
+      <c r="AZ17" s="161"/>
+      <c r="BA17" s="161"/>
+      <c r="BB17" s="166"/>
+      <c r="BC17" s="160"/>
+      <c r="BD17" s="161"/>
+      <c r="BE17" s="161"/>
+      <c r="BF17" s="162"/>
+      <c r="BG17" s="163"/>
+      <c r="BH17" s="161"/>
+      <c r="BI17" s="161"/>
+      <c r="BJ17" s="162"/>
+      <c r="BK17" s="163"/>
+      <c r="BL17" s="161"/>
+      <c r="BM17" s="161"/>
+      <c r="BN17" s="162"/>
+      <c r="BO17" s="163"/>
+      <c r="BP17" s="161"/>
+      <c r="BQ17" s="161"/>
+      <c r="BR17" s="162"/>
+      <c r="BS17" s="163"/>
+      <c r="BT17" s="161"/>
+      <c r="BU17" s="161"/>
+      <c r="BV17" s="164"/>
+      <c r="BW17" s="165"/>
+      <c r="BX17" s="161"/>
+      <c r="BY17" s="161"/>
+      <c r="BZ17" s="162"/>
+      <c r="CA17" s="163"/>
+      <c r="CB17" s="161"/>
+      <c r="CC17" s="161"/>
+      <c r="CD17" s="162"/>
+      <c r="CE17" s="163"/>
+      <c r="CF17" s="161"/>
+      <c r="CG17" s="161"/>
+      <c r="CH17" s="162"/>
+      <c r="CI17" s="163"/>
+      <c r="CJ17" s="161"/>
+      <c r="CK17" s="161"/>
+      <c r="CL17" s="162"/>
+      <c r="CM17" s="163"/>
+      <c r="CN17" s="161"/>
+      <c r="CO17" s="161"/>
+      <c r="CP17" s="183"/>
+      <c r="CQ17" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR17" s="165"/>
-      <c r="CS17" s="166"/>
-      <c r="CT17" s="180"/>
-      <c r="CU17" s="181"/>
-      <c r="CV17" s="182"/>
-      <c r="CW17" s="183"/>
-      <c r="CX17" s="181"/>
-      <c r="CY17" s="182"/>
-      <c r="CZ17" s="183"/>
-      <c r="DA17" s="181"/>
-      <c r="DB17" s="184"/>
-      <c r="DC17" s="183"/>
-      <c r="DD17" s="181"/>
-      <c r="DE17" s="184"/>
+      <c r="CR17" s="169"/>
+      <c r="CS17" s="170"/>
+      <c r="CT17" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CU17" s="223"/>
+      <c r="CV17" s="224"/>
+      <c r="CW17" s="225" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="CX17" s="223"/>
+      <c r="CY17" s="224"/>
+      <c r="CZ17" s="225" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="DA17" s="223"/>
+      <c r="DB17" s="226"/>
+      <c r="DC17" s="222" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DD17" s="223"/>
+      <c r="DE17" s="226"/>
       <c r="DF17" s="52"/>
-      <c r="DG17" s="168"/>
-      <c r="DH17" s="169"/>
-      <c r="DI17" s="168"/>
-      <c r="DJ17" s="169"/>
+      <c r="DG17" s="172"/>
+      <c r="DH17" s="173"/>
+      <c r="DI17" s="172"/>
+      <c r="DJ17" s="173"/>
       <c r="DK17" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:115" ht="15" customHeight="1">
-      <c r="B18" s="215"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="170" t="s">
+      <c r="B18" s="219"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
       <c r="J18" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
       <c r="N18" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="172"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="175"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="175"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="175"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="173"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="175"/>
-      <c r="AF18" s="173"/>
-      <c r="AG18" s="173"/>
-      <c r="AH18" s="176"/>
-      <c r="AI18" s="177"/>
-      <c r="AJ18" s="173"/>
-      <c r="AK18" s="173"/>
-      <c r="AL18" s="174"/>
-      <c r="AM18" s="175"/>
-      <c r="AN18" s="173"/>
-      <c r="AO18" s="173"/>
-      <c r="AP18" s="174"/>
-      <c r="AQ18" s="175"/>
-      <c r="AR18" s="173"/>
-      <c r="AS18" s="173"/>
-      <c r="AT18" s="174"/>
-      <c r="AU18" s="175"/>
-      <c r="AV18" s="173"/>
-      <c r="AW18" s="173"/>
-      <c r="AX18" s="174"/>
-      <c r="AY18" s="175"/>
-      <c r="AZ18" s="173"/>
-      <c r="BA18" s="173"/>
-      <c r="BB18" s="178"/>
-      <c r="BC18" s="172"/>
-      <c r="BD18" s="173"/>
-      <c r="BE18" s="173"/>
-      <c r="BF18" s="174"/>
-      <c r="BG18" s="175"/>
-      <c r="BH18" s="173"/>
-      <c r="BI18" s="173"/>
-      <c r="BJ18" s="174"/>
-      <c r="BK18" s="175"/>
-      <c r="BL18" s="173"/>
-      <c r="BM18" s="173"/>
-      <c r="BN18" s="174"/>
-      <c r="BO18" s="175"/>
-      <c r="BP18" s="173"/>
-      <c r="BQ18" s="173"/>
-      <c r="BR18" s="174"/>
-      <c r="BS18" s="175"/>
-      <c r="BT18" s="173"/>
-      <c r="BU18" s="173"/>
-      <c r="BV18" s="176"/>
-      <c r="BW18" s="177"/>
-      <c r="BX18" s="173"/>
-      <c r="BY18" s="173"/>
-      <c r="BZ18" s="174"/>
-      <c r="CA18" s="175"/>
-      <c r="CB18" s="173"/>
-      <c r="CC18" s="173"/>
-      <c r="CD18" s="174"/>
-      <c r="CE18" s="175"/>
-      <c r="CF18" s="173"/>
-      <c r="CG18" s="173"/>
-      <c r="CH18" s="174"/>
-      <c r="CI18" s="175"/>
-      <c r="CJ18" s="173"/>
-      <c r="CK18" s="173"/>
-      <c r="CL18" s="174"/>
-      <c r="CM18" s="175"/>
-      <c r="CN18" s="173"/>
-      <c r="CO18" s="173"/>
-      <c r="CP18" s="197"/>
-      <c r="CQ18" s="164" t="s">
+      <c r="O18" s="176"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="178"/>
+      <c r="S18" s="179"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="178"/>
+      <c r="W18" s="179"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="178"/>
+      <c r="AA18" s="179"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="178"/>
+      <c r="AE18" s="179"/>
+      <c r="AF18" s="177"/>
+      <c r="AG18" s="177"/>
+      <c r="AH18" s="180"/>
+      <c r="AI18" s="181"/>
+      <c r="AJ18" s="177"/>
+      <c r="AK18" s="177"/>
+      <c r="AL18" s="178"/>
+      <c r="AM18" s="179"/>
+      <c r="AN18" s="177"/>
+      <c r="AO18" s="177"/>
+      <c r="AP18" s="178"/>
+      <c r="AQ18" s="179"/>
+      <c r="AR18" s="177"/>
+      <c r="AS18" s="177"/>
+      <c r="AT18" s="178"/>
+      <c r="AU18" s="179"/>
+      <c r="AV18" s="177"/>
+      <c r="AW18" s="177"/>
+      <c r="AX18" s="178"/>
+      <c r="AY18" s="179"/>
+      <c r="AZ18" s="177"/>
+      <c r="BA18" s="177"/>
+      <c r="BB18" s="182"/>
+      <c r="BC18" s="176"/>
+      <c r="BD18" s="177"/>
+      <c r="BE18" s="177"/>
+      <c r="BF18" s="178"/>
+      <c r="BG18" s="179"/>
+      <c r="BH18" s="177"/>
+      <c r="BI18" s="177"/>
+      <c r="BJ18" s="178"/>
+      <c r="BK18" s="179"/>
+      <c r="BL18" s="177"/>
+      <c r="BM18" s="177"/>
+      <c r="BN18" s="178"/>
+      <c r="BO18" s="179"/>
+      <c r="BP18" s="177"/>
+      <c r="BQ18" s="177"/>
+      <c r="BR18" s="178"/>
+      <c r="BS18" s="179"/>
+      <c r="BT18" s="177"/>
+      <c r="BU18" s="177"/>
+      <c r="BV18" s="180"/>
+      <c r="BW18" s="181"/>
+      <c r="BX18" s="177"/>
+      <c r="BY18" s="177"/>
+      <c r="BZ18" s="178"/>
+      <c r="CA18" s="179"/>
+      <c r="CB18" s="177"/>
+      <c r="CC18" s="177"/>
+      <c r="CD18" s="178"/>
+      <c r="CE18" s="179"/>
+      <c r="CF18" s="177"/>
+      <c r="CG18" s="177"/>
+      <c r="CH18" s="178"/>
+      <c r="CI18" s="179"/>
+      <c r="CJ18" s="177"/>
+      <c r="CK18" s="177"/>
+      <c r="CL18" s="178"/>
+      <c r="CM18" s="179"/>
+      <c r="CN18" s="177"/>
+      <c r="CO18" s="177"/>
+      <c r="CP18" s="201"/>
+      <c r="CQ18" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR18" s="165"/>
-      <c r="CS18" s="166"/>
-      <c r="CT18" s="198"/>
-      <c r="CU18" s="199"/>
-      <c r="CV18" s="200"/>
-      <c r="CW18" s="201"/>
-      <c r="CX18" s="199"/>
-      <c r="CY18" s="200"/>
-      <c r="CZ18" s="201"/>
-      <c r="DA18" s="199"/>
-      <c r="DB18" s="202"/>
-      <c r="DC18" s="201"/>
-      <c r="DD18" s="199"/>
-      <c r="DE18" s="202"/>
+      <c r="CR18" s="169"/>
+      <c r="CS18" s="170"/>
+      <c r="CT18" s="202" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="CU18" s="203"/>
+      <c r="CV18" s="204"/>
+      <c r="CW18" s="205" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="CX18" s="203"/>
+      <c r="CY18" s="204"/>
+      <c r="CZ18" s="205" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="DA18" s="203"/>
+      <c r="DB18" s="206"/>
+      <c r="DC18" s="202" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="DD18" s="203"/>
+      <c r="DE18" s="206"/>
       <c r="DF18" s="52"/>
-      <c r="DG18" s="185"/>
-      <c r="DH18" s="186"/>
-      <c r="DI18" s="185"/>
-      <c r="DJ18" s="186"/>
+      <c r="DG18" s="189"/>
+      <c r="DH18" s="190"/>
+      <c r="DI18" s="189"/>
+      <c r="DJ18" s="190"/>
       <c r="DK18" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:115" ht="15" customHeight="1">
-      <c r="B19" s="215"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="170" t="s">
+      <c r="B19" s="219"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
       <c r="J19" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
       <c r="N19" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="172"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="175"/>
-      <c r="T19" s="173"/>
-      <c r="U19" s="173"/>
-      <c r="V19" s="174"/>
-      <c r="W19" s="175"/>
-      <c r="X19" s="173"/>
-      <c r="Y19" s="173"/>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="175"/>
-      <c r="AB19" s="173"/>
-      <c r="AC19" s="173"/>
-      <c r="AD19" s="174"/>
-      <c r="AE19" s="175"/>
-      <c r="AF19" s="173"/>
-      <c r="AG19" s="173"/>
-      <c r="AH19" s="176"/>
-      <c r="AI19" s="177"/>
-      <c r="AJ19" s="173"/>
-      <c r="AK19" s="173"/>
-      <c r="AL19" s="174"/>
-      <c r="AM19" s="175"/>
-      <c r="AN19" s="173"/>
-      <c r="AO19" s="173"/>
-      <c r="AP19" s="174"/>
-      <c r="AQ19" s="175"/>
-      <c r="AR19" s="173"/>
-      <c r="AS19" s="173"/>
-      <c r="AT19" s="174"/>
-      <c r="AU19" s="175"/>
-      <c r="AV19" s="173"/>
-      <c r="AW19" s="173"/>
-      <c r="AX19" s="174"/>
-      <c r="AY19" s="175"/>
-      <c r="AZ19" s="173"/>
-      <c r="BA19" s="173"/>
-      <c r="BB19" s="178"/>
-      <c r="BC19" s="172"/>
-      <c r="BD19" s="173"/>
-      <c r="BE19" s="173"/>
-      <c r="BF19" s="174"/>
-      <c r="BG19" s="175"/>
-      <c r="BH19" s="173"/>
-      <c r="BI19" s="173"/>
-      <c r="BJ19" s="174"/>
-      <c r="BK19" s="175"/>
-      <c r="BL19" s="173"/>
-      <c r="BM19" s="173"/>
-      <c r="BN19" s="174"/>
-      <c r="BO19" s="175"/>
-      <c r="BP19" s="173"/>
-      <c r="BQ19" s="173"/>
-      <c r="BR19" s="174"/>
-      <c r="BS19" s="175"/>
-      <c r="BT19" s="173"/>
-      <c r="BU19" s="173"/>
-      <c r="BV19" s="176"/>
-      <c r="BW19" s="177"/>
-      <c r="BX19" s="173"/>
-      <c r="BY19" s="173"/>
-      <c r="BZ19" s="174"/>
-      <c r="CA19" s="175"/>
-      <c r="CB19" s="173"/>
-      <c r="CC19" s="173"/>
-      <c r="CD19" s="174"/>
-      <c r="CE19" s="175"/>
-      <c r="CF19" s="173"/>
-      <c r="CG19" s="173"/>
-      <c r="CH19" s="174"/>
-      <c r="CI19" s="175"/>
-      <c r="CJ19" s="173"/>
-      <c r="CK19" s="173"/>
-      <c r="CL19" s="174"/>
-      <c r="CM19" s="175"/>
-      <c r="CN19" s="173"/>
-      <c r="CO19" s="173"/>
-      <c r="CP19" s="197"/>
-      <c r="CQ19" s="164" t="s">
+      <c r="O19" s="176"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="178"/>
+      <c r="S19" s="179"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="177"/>
+      <c r="V19" s="178"/>
+      <c r="W19" s="179"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="178"/>
+      <c r="AA19" s="179"/>
+      <c r="AB19" s="177"/>
+      <c r="AC19" s="177"/>
+      <c r="AD19" s="178"/>
+      <c r="AE19" s="179"/>
+      <c r="AF19" s="177"/>
+      <c r="AG19" s="177"/>
+      <c r="AH19" s="180"/>
+      <c r="AI19" s="181"/>
+      <c r="AJ19" s="177"/>
+      <c r="AK19" s="177"/>
+      <c r="AL19" s="178"/>
+      <c r="AM19" s="179"/>
+      <c r="AN19" s="177"/>
+      <c r="AO19" s="177"/>
+      <c r="AP19" s="178"/>
+      <c r="AQ19" s="179"/>
+      <c r="AR19" s="177"/>
+      <c r="AS19" s="177"/>
+      <c r="AT19" s="178"/>
+      <c r="AU19" s="179"/>
+      <c r="AV19" s="177"/>
+      <c r="AW19" s="177"/>
+      <c r="AX19" s="178"/>
+      <c r="AY19" s="179"/>
+      <c r="AZ19" s="177"/>
+      <c r="BA19" s="177"/>
+      <c r="BB19" s="182"/>
+      <c r="BC19" s="176"/>
+      <c r="BD19" s="177"/>
+      <c r="BE19" s="177"/>
+      <c r="BF19" s="178"/>
+      <c r="BG19" s="179"/>
+      <c r="BH19" s="177"/>
+      <c r="BI19" s="177"/>
+      <c r="BJ19" s="178"/>
+      <c r="BK19" s="179"/>
+      <c r="BL19" s="177"/>
+      <c r="BM19" s="177"/>
+      <c r="BN19" s="178"/>
+      <c r="BO19" s="179"/>
+      <c r="BP19" s="177"/>
+      <c r="BQ19" s="177"/>
+      <c r="BR19" s="178"/>
+      <c r="BS19" s="179"/>
+      <c r="BT19" s="177"/>
+      <c r="BU19" s="177"/>
+      <c r="BV19" s="180"/>
+      <c r="BW19" s="181"/>
+      <c r="BX19" s="177"/>
+      <c r="BY19" s="177"/>
+      <c r="BZ19" s="178"/>
+      <c r="CA19" s="179"/>
+      <c r="CB19" s="177"/>
+      <c r="CC19" s="177"/>
+      <c r="CD19" s="178"/>
+      <c r="CE19" s="179"/>
+      <c r="CF19" s="177"/>
+      <c r="CG19" s="177"/>
+      <c r="CH19" s="178"/>
+      <c r="CI19" s="179"/>
+      <c r="CJ19" s="177"/>
+      <c r="CK19" s="177"/>
+      <c r="CL19" s="178"/>
+      <c r="CM19" s="179"/>
+      <c r="CN19" s="177"/>
+      <c r="CO19" s="177"/>
+      <c r="CP19" s="201"/>
+      <c r="CQ19" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR19" s="165"/>
-      <c r="CS19" s="166"/>
-      <c r="CT19" s="198" t="str">
-        <f t="shared" si="0"/>
+      <c r="CR19" s="169"/>
+      <c r="CS19" s="170"/>
+      <c r="CT19" s="202" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="CU19" s="199"/>
-      <c r="CV19" s="200"/>
-      <c r="CW19" s="201" t="str">
-        <f t="shared" si="1"/>
+      <c r="CU19" s="203"/>
+      <c r="CV19" s="204"/>
+      <c r="CW19" s="205" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="CX19" s="199"/>
-      <c r="CY19" s="200"/>
-      <c r="CZ19" s="201" t="str">
-        <f t="shared" si="2"/>
+      <c r="CX19" s="203"/>
+      <c r="CY19" s="204"/>
+      <c r="CZ19" s="205" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DA19" s="199"/>
-      <c r="DB19" s="202"/>
-      <c r="DC19" s="201" t="str">
-        <f t="shared" si="3"/>
+      <c r="DA19" s="203"/>
+      <c r="DB19" s="206"/>
+      <c r="DC19" s="202" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="DD19" s="199"/>
-      <c r="DE19" s="202"/>
+      <c r="DD19" s="203"/>
+      <c r="DE19" s="206"/>
       <c r="DF19" s="52"/>
-      <c r="DG19" s="185"/>
-      <c r="DH19" s="186"/>
-      <c r="DI19" s="185"/>
-      <c r="DJ19" s="186"/>
+      <c r="DG19" s="189"/>
+      <c r="DH19" s="190"/>
+      <c r="DI19" s="189"/>
+      <c r="DJ19" s="190"/>
       <c r="DK19" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:115" ht="15" customHeight="1">
-      <c r="B20" s="215"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="170" t="s">
+      <c r="B20" s="219"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="216"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
       <c r="J20" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
       <c r="N20" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="172"/>
-      <c r="P20" s="173"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="175"/>
-      <c r="T20" s="173"/>
-      <c r="U20" s="173"/>
-      <c r="V20" s="174"/>
-      <c r="W20" s="175"/>
-      <c r="X20" s="173"/>
-      <c r="Y20" s="173"/>
-      <c r="Z20" s="174"/>
-      <c r="AA20" s="175"/>
-      <c r="AB20" s="173"/>
-      <c r="AC20" s="173"/>
-      <c r="AD20" s="174"/>
-      <c r="AE20" s="175"/>
-      <c r="AF20" s="173"/>
-      <c r="AG20" s="173"/>
-      <c r="AH20" s="176"/>
-      <c r="AI20" s="177"/>
-      <c r="AJ20" s="173"/>
-      <c r="AK20" s="173"/>
-      <c r="AL20" s="174"/>
-      <c r="AM20" s="175"/>
-      <c r="AN20" s="173"/>
-      <c r="AO20" s="173"/>
-      <c r="AP20" s="174"/>
-      <c r="AQ20" s="175"/>
-      <c r="AR20" s="173"/>
-      <c r="AS20" s="173"/>
-      <c r="AT20" s="174"/>
-      <c r="AU20" s="175"/>
-      <c r="AV20" s="173"/>
-      <c r="AW20" s="173"/>
-      <c r="AX20" s="174"/>
-      <c r="AY20" s="175"/>
-      <c r="AZ20" s="173"/>
-      <c r="BA20" s="173"/>
-      <c r="BB20" s="178"/>
-      <c r="BC20" s="172"/>
-      <c r="BD20" s="173"/>
-      <c r="BE20" s="173"/>
-      <c r="BF20" s="174"/>
-      <c r="BG20" s="175"/>
-      <c r="BH20" s="173"/>
-      <c r="BI20" s="173"/>
-      <c r="BJ20" s="174"/>
-      <c r="BK20" s="175"/>
-      <c r="BL20" s="173"/>
-      <c r="BM20" s="173"/>
-      <c r="BN20" s="174"/>
-      <c r="BO20" s="175"/>
-      <c r="BP20" s="173"/>
-      <c r="BQ20" s="173"/>
-      <c r="BR20" s="174"/>
-      <c r="BS20" s="175"/>
-      <c r="BT20" s="173"/>
-      <c r="BU20" s="173"/>
-      <c r="BV20" s="176"/>
-      <c r="BW20" s="177"/>
-      <c r="BX20" s="173"/>
-      <c r="BY20" s="173"/>
-      <c r="BZ20" s="174"/>
-      <c r="CA20" s="175"/>
-      <c r="CB20" s="173"/>
-      <c r="CC20" s="173"/>
-      <c r="CD20" s="174"/>
-      <c r="CE20" s="175"/>
-      <c r="CF20" s="173"/>
-      <c r="CG20" s="173"/>
-      <c r="CH20" s="174"/>
-      <c r="CI20" s="175"/>
-      <c r="CJ20" s="173"/>
-      <c r="CK20" s="173"/>
-      <c r="CL20" s="174"/>
-      <c r="CM20" s="175"/>
-      <c r="CN20" s="173"/>
-      <c r="CO20" s="173"/>
-      <c r="CP20" s="197"/>
-      <c r="CQ20" s="164" t="s">
+      <c r="O20" s="176"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="178"/>
+      <c r="S20" s="179"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="178"/>
+      <c r="W20" s="179"/>
+      <c r="X20" s="177"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="178"/>
+      <c r="AA20" s="179"/>
+      <c r="AB20" s="177"/>
+      <c r="AC20" s="177"/>
+      <c r="AD20" s="178"/>
+      <c r="AE20" s="179"/>
+      <c r="AF20" s="177"/>
+      <c r="AG20" s="177"/>
+      <c r="AH20" s="180"/>
+      <c r="AI20" s="181"/>
+      <c r="AJ20" s="177"/>
+      <c r="AK20" s="177"/>
+      <c r="AL20" s="178"/>
+      <c r="AM20" s="179"/>
+      <c r="AN20" s="177"/>
+      <c r="AO20" s="177"/>
+      <c r="AP20" s="178"/>
+      <c r="AQ20" s="179"/>
+      <c r="AR20" s="177"/>
+      <c r="AS20" s="177"/>
+      <c r="AT20" s="178"/>
+      <c r="AU20" s="179"/>
+      <c r="AV20" s="177"/>
+      <c r="AW20" s="177"/>
+      <c r="AX20" s="178"/>
+      <c r="AY20" s="179"/>
+      <c r="AZ20" s="177"/>
+      <c r="BA20" s="177"/>
+      <c r="BB20" s="182"/>
+      <c r="BC20" s="176"/>
+      <c r="BD20" s="177"/>
+      <c r="BE20" s="177"/>
+      <c r="BF20" s="178"/>
+      <c r="BG20" s="179"/>
+      <c r="BH20" s="177"/>
+      <c r="BI20" s="177"/>
+      <c r="BJ20" s="178"/>
+      <c r="BK20" s="179"/>
+      <c r="BL20" s="177"/>
+      <c r="BM20" s="177"/>
+      <c r="BN20" s="178"/>
+      <c r="BO20" s="179"/>
+      <c r="BP20" s="177"/>
+      <c r="BQ20" s="177"/>
+      <c r="BR20" s="178"/>
+      <c r="BS20" s="179"/>
+      <c r="BT20" s="177"/>
+      <c r="BU20" s="177"/>
+      <c r="BV20" s="180"/>
+      <c r="BW20" s="181"/>
+      <c r="BX20" s="177"/>
+      <c r="BY20" s="177"/>
+      <c r="BZ20" s="178"/>
+      <c r="CA20" s="179"/>
+      <c r="CB20" s="177"/>
+      <c r="CC20" s="177"/>
+      <c r="CD20" s="178"/>
+      <c r="CE20" s="179"/>
+      <c r="CF20" s="177"/>
+      <c r="CG20" s="177"/>
+      <c r="CH20" s="178"/>
+      <c r="CI20" s="179"/>
+      <c r="CJ20" s="177"/>
+      <c r="CK20" s="177"/>
+      <c r="CL20" s="178"/>
+      <c r="CM20" s="179"/>
+      <c r="CN20" s="177"/>
+      <c r="CO20" s="177"/>
+      <c r="CP20" s="201"/>
+      <c r="CQ20" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR20" s="165"/>
-      <c r="CS20" s="166"/>
-      <c r="CT20" s="198" t="str">
-        <f t="shared" si="0"/>
+      <c r="CR20" s="169"/>
+      <c r="CS20" s="170"/>
+      <c r="CT20" s="202" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="CU20" s="199"/>
-      <c r="CV20" s="200"/>
-      <c r="CW20" s="201" t="str">
-        <f t="shared" si="1"/>
+      <c r="CU20" s="203"/>
+      <c r="CV20" s="204"/>
+      <c r="CW20" s="205" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="CX20" s="199"/>
-      <c r="CY20" s="200"/>
-      <c r="CZ20" s="201" t="str">
-        <f t="shared" si="2"/>
+      <c r="CX20" s="203"/>
+      <c r="CY20" s="204"/>
+      <c r="CZ20" s="205" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DA20" s="199"/>
-      <c r="DB20" s="202"/>
-      <c r="DC20" s="201" t="str">
-        <f t="shared" si="3"/>
+      <c r="DA20" s="203"/>
+      <c r="DB20" s="206"/>
+      <c r="DC20" s="202" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="DD20" s="199"/>
-      <c r="DE20" s="202"/>
+      <c r="DD20" s="203"/>
+      <c r="DE20" s="206"/>
       <c r="DF20" s="52"/>
-      <c r="DG20" s="185"/>
-      <c r="DH20" s="186"/>
-      <c r="DI20" s="185"/>
-      <c r="DJ20" s="186"/>
+      <c r="DG20" s="189"/>
+      <c r="DH20" s="190"/>
+      <c r="DI20" s="189"/>
+      <c r="DJ20" s="190"/>
       <c r="DK20" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:115" ht="15" customHeight="1">
-      <c r="B21" s="216"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="187" t="s">
+      <c r="B21" s="220"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
       <c r="J21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="188"/>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="192"/>
       <c r="N21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="189"/>
-      <c r="P21" s="190"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="191"/>
-      <c r="S21" s="192"/>
-      <c r="T21" s="190"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="191"/>
-      <c r="W21" s="192"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="190"/>
-      <c r="Z21" s="191"/>
-      <c r="AA21" s="192"/>
-      <c r="AB21" s="190"/>
-      <c r="AC21" s="190"/>
-      <c r="AD21" s="191"/>
-      <c r="AE21" s="192"/>
-      <c r="AF21" s="190"/>
-      <c r="AG21" s="190"/>
-      <c r="AH21" s="193"/>
-      <c r="AI21" s="194"/>
-      <c r="AJ21" s="190"/>
-      <c r="AK21" s="190"/>
-      <c r="AL21" s="191"/>
-      <c r="AM21" s="192"/>
-      <c r="AN21" s="190"/>
-      <c r="AO21" s="190"/>
-      <c r="AP21" s="191"/>
-      <c r="AQ21" s="192"/>
-      <c r="AR21" s="190"/>
-      <c r="AS21" s="190"/>
-      <c r="AT21" s="191"/>
-      <c r="AU21" s="192"/>
-      <c r="AV21" s="190"/>
-      <c r="AW21" s="190"/>
-      <c r="AX21" s="191"/>
-      <c r="AY21" s="192"/>
-      <c r="AZ21" s="190"/>
-      <c r="BA21" s="190"/>
-      <c r="BB21" s="195"/>
-      <c r="BC21" s="189"/>
-      <c r="BD21" s="190"/>
-      <c r="BE21" s="190"/>
-      <c r="BF21" s="191"/>
-      <c r="BG21" s="192"/>
-      <c r="BH21" s="190"/>
-      <c r="BI21" s="190"/>
-      <c r="BJ21" s="191"/>
-      <c r="BK21" s="192"/>
-      <c r="BL21" s="190"/>
-      <c r="BM21" s="190"/>
-      <c r="BN21" s="191"/>
-      <c r="BO21" s="192"/>
-      <c r="BP21" s="190"/>
-      <c r="BQ21" s="190"/>
-      <c r="BR21" s="191"/>
-      <c r="BS21" s="192"/>
-      <c r="BT21" s="190"/>
-      <c r="BU21" s="190"/>
-      <c r="BV21" s="193"/>
-      <c r="BW21" s="194"/>
-      <c r="BX21" s="190"/>
-      <c r="BY21" s="190"/>
-      <c r="BZ21" s="191"/>
-      <c r="CA21" s="192"/>
-      <c r="CB21" s="190"/>
-      <c r="CC21" s="190"/>
-      <c r="CD21" s="191"/>
-      <c r="CE21" s="192"/>
-      <c r="CF21" s="190"/>
-      <c r="CG21" s="190"/>
-      <c r="CH21" s="191"/>
-      <c r="CI21" s="192"/>
-      <c r="CJ21" s="190"/>
-      <c r="CK21" s="190"/>
-      <c r="CL21" s="191"/>
-      <c r="CM21" s="192"/>
-      <c r="CN21" s="190"/>
-      <c r="CO21" s="190"/>
-      <c r="CP21" s="196"/>
-      <c r="CQ21" s="164" t="s">
+      <c r="O21" s="193"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="195"/>
+      <c r="S21" s="196"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="195"/>
+      <c r="W21" s="196"/>
+      <c r="X21" s="194"/>
+      <c r="Y21" s="194"/>
+      <c r="Z21" s="195"/>
+      <c r="AA21" s="196"/>
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="194"/>
+      <c r="AD21" s="195"/>
+      <c r="AE21" s="196"/>
+      <c r="AF21" s="194"/>
+      <c r="AG21" s="194"/>
+      <c r="AH21" s="197"/>
+      <c r="AI21" s="198"/>
+      <c r="AJ21" s="194"/>
+      <c r="AK21" s="194"/>
+      <c r="AL21" s="195"/>
+      <c r="AM21" s="196"/>
+      <c r="AN21" s="194"/>
+      <c r="AO21" s="194"/>
+      <c r="AP21" s="195"/>
+      <c r="AQ21" s="196"/>
+      <c r="AR21" s="194"/>
+      <c r="AS21" s="194"/>
+      <c r="AT21" s="195"/>
+      <c r="AU21" s="196"/>
+      <c r="AV21" s="194"/>
+      <c r="AW21" s="194"/>
+      <c r="AX21" s="195"/>
+      <c r="AY21" s="196"/>
+      <c r="AZ21" s="194"/>
+      <c r="BA21" s="194"/>
+      <c r="BB21" s="199"/>
+      <c r="BC21" s="193"/>
+      <c r="BD21" s="194"/>
+      <c r="BE21" s="194"/>
+      <c r="BF21" s="195"/>
+      <c r="BG21" s="196"/>
+      <c r="BH21" s="194"/>
+      <c r="BI21" s="194"/>
+      <c r="BJ21" s="195"/>
+      <c r="BK21" s="196"/>
+      <c r="BL21" s="194"/>
+      <c r="BM21" s="194"/>
+      <c r="BN21" s="195"/>
+      <c r="BO21" s="196"/>
+      <c r="BP21" s="194"/>
+      <c r="BQ21" s="194"/>
+      <c r="BR21" s="195"/>
+      <c r="BS21" s="196"/>
+      <c r="BT21" s="194"/>
+      <c r="BU21" s="194"/>
+      <c r="BV21" s="197"/>
+      <c r="BW21" s="198"/>
+      <c r="BX21" s="194"/>
+      <c r="BY21" s="194"/>
+      <c r="BZ21" s="195"/>
+      <c r="CA21" s="196"/>
+      <c r="CB21" s="194"/>
+      <c r="CC21" s="194"/>
+      <c r="CD21" s="195"/>
+      <c r="CE21" s="196"/>
+      <c r="CF21" s="194"/>
+      <c r="CG21" s="194"/>
+      <c r="CH21" s="195"/>
+      <c r="CI21" s="196"/>
+      <c r="CJ21" s="194"/>
+      <c r="CK21" s="194"/>
+      <c r="CL21" s="195"/>
+      <c r="CM21" s="196"/>
+      <c r="CN21" s="194"/>
+      <c r="CO21" s="194"/>
+      <c r="CP21" s="200"/>
+      <c r="CQ21" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR21" s="165"/>
-      <c r="CS21" s="166"/>
-      <c r="CT21" s="203" t="str">
-        <f t="shared" si="0"/>
+      <c r="CR21" s="169"/>
+      <c r="CS21" s="170"/>
+      <c r="CT21" s="207" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="CU21" s="204"/>
-      <c r="CV21" s="205"/>
-      <c r="CW21" s="206" t="str">
-        <f t="shared" si="1"/>
+      <c r="CU21" s="208"/>
+      <c r="CV21" s="209"/>
+      <c r="CW21" s="210" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="CX21" s="204"/>
-      <c r="CY21" s="205"/>
-      <c r="CZ21" s="206" t="str">
-        <f t="shared" si="2"/>
+      <c r="CX21" s="208"/>
+      <c r="CY21" s="209"/>
+      <c r="CZ21" s="210" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="DA21" s="204"/>
-      <c r="DB21" s="207"/>
-      <c r="DC21" s="206" t="str">
-        <f t="shared" si="3"/>
+      <c r="DA21" s="208"/>
+      <c r="DB21" s="211"/>
+      <c r="DC21" s="207" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="DD21" s="204"/>
-      <c r="DE21" s="207"/>
+      <c r="DD21" s="208"/>
+      <c r="DE21" s="211"/>
       <c r="DF21" s="52"/>
-      <c r="DG21" s="185"/>
-      <c r="DH21" s="186"/>
-      <c r="DI21" s="185"/>
-      <c r="DJ21" s="186"/>
+      <c r="DG21" s="189"/>
+      <c r="DH21" s="190"/>
+      <c r="DI21" s="189"/>
+      <c r="DJ21" s="190"/>
       <c r="DK21" s="72" t="s">
         <v>4</v>
       </c>
@@ -5373,117 +5461,117 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="112" t="s">
+      <c r="J23" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="114" t="s">
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="115"/>
-      <c r="S23" s="115"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="115"/>
-      <c r="W23" s="115"/>
-      <c r="X23" s="115"/>
-      <c r="Y23" s="115"/>
-      <c r="Z23" s="115"/>
-      <c r="AA23" s="115"/>
-      <c r="AB23" s="115"/>
-      <c r="AC23" s="115"/>
-      <c r="AD23" s="115"/>
-      <c r="AE23" s="115"/>
-      <c r="AF23" s="115"/>
-      <c r="AG23" s="115"/>
-      <c r="AH23" s="115"/>
-      <c r="AI23" s="115"/>
-      <c r="AJ23" s="115"/>
-      <c r="AK23" s="115"/>
-      <c r="AL23" s="115"/>
-      <c r="AM23" s="115"/>
-      <c r="AN23" s="115"/>
-      <c r="AO23" s="115"/>
-      <c r="AP23" s="115"/>
-      <c r="AQ23" s="115"/>
-      <c r="AR23" s="115"/>
-      <c r="AS23" s="115"/>
-      <c r="AT23" s="115"/>
-      <c r="AU23" s="115"/>
-      <c r="AV23" s="115"/>
-      <c r="AW23" s="115"/>
-      <c r="AX23" s="115"/>
-      <c r="AY23" s="115"/>
-      <c r="AZ23" s="115"/>
-      <c r="BA23" s="115"/>
-      <c r="BB23" s="115"/>
-      <c r="BC23" s="115"/>
-      <c r="BD23" s="115"/>
-      <c r="BE23" s="115"/>
-      <c r="BF23" s="115"/>
-      <c r="BG23" s="115"/>
-      <c r="BH23" s="115"/>
-      <c r="BI23" s="115"/>
-      <c r="BJ23" s="115"/>
-      <c r="BK23" s="115"/>
-      <c r="BL23" s="115"/>
-      <c r="BM23" s="115"/>
-      <c r="BN23" s="115"/>
-      <c r="BO23" s="115"/>
-      <c r="BP23" s="115"/>
-      <c r="BQ23" s="115"/>
-      <c r="BR23" s="115"/>
-      <c r="BS23" s="115"/>
-      <c r="BT23" s="115"/>
-      <c r="BU23" s="115"/>
-      <c r="BV23" s="115"/>
-      <c r="BW23" s="115"/>
-      <c r="BX23" s="115"/>
-      <c r="BY23" s="115"/>
-      <c r="BZ23" s="115"/>
-      <c r="CA23" s="115"/>
-      <c r="CB23" s="115"/>
-      <c r="CC23" s="115"/>
-      <c r="CD23" s="115"/>
-      <c r="CE23" s="115"/>
-      <c r="CF23" s="115"/>
-      <c r="CG23" s="115"/>
-      <c r="CH23" s="115"/>
-      <c r="CI23" s="115"/>
-      <c r="CJ23" s="115"/>
-      <c r="CK23" s="115"/>
-      <c r="CL23" s="115"/>
-      <c r="CM23" s="115"/>
-      <c r="CN23" s="115"/>
-      <c r="CO23" s="115"/>
-      <c r="CP23" s="116"/>
-      <c r="CT23" s="117" t="s">
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="118"/>
+      <c r="AF23" s="118"/>
+      <c r="AG23" s="118"/>
+      <c r="AH23" s="118"/>
+      <c r="AI23" s="118"/>
+      <c r="AJ23" s="118"/>
+      <c r="AK23" s="118"/>
+      <c r="AL23" s="118"/>
+      <c r="AM23" s="118"/>
+      <c r="AN23" s="118"/>
+      <c r="AO23" s="118"/>
+      <c r="AP23" s="118"/>
+      <c r="AQ23" s="118"/>
+      <c r="AR23" s="118"/>
+      <c r="AS23" s="118"/>
+      <c r="AT23" s="118"/>
+      <c r="AU23" s="118"/>
+      <c r="AV23" s="118"/>
+      <c r="AW23" s="118"/>
+      <c r="AX23" s="118"/>
+      <c r="AY23" s="118"/>
+      <c r="AZ23" s="118"/>
+      <c r="BA23" s="118"/>
+      <c r="BB23" s="118"/>
+      <c r="BC23" s="118"/>
+      <c r="BD23" s="118"/>
+      <c r="BE23" s="118"/>
+      <c r="BF23" s="118"/>
+      <c r="BG23" s="118"/>
+      <c r="BH23" s="118"/>
+      <c r="BI23" s="118"/>
+      <c r="BJ23" s="118"/>
+      <c r="BK23" s="118"/>
+      <c r="BL23" s="118"/>
+      <c r="BM23" s="118"/>
+      <c r="BN23" s="118"/>
+      <c r="BO23" s="118"/>
+      <c r="BP23" s="118"/>
+      <c r="BQ23" s="118"/>
+      <c r="BR23" s="118"/>
+      <c r="BS23" s="118"/>
+      <c r="BT23" s="118"/>
+      <c r="BU23" s="118"/>
+      <c r="BV23" s="118"/>
+      <c r="BW23" s="118"/>
+      <c r="BX23" s="118"/>
+      <c r="BY23" s="118"/>
+      <c r="BZ23" s="118"/>
+      <c r="CA23" s="118"/>
+      <c r="CB23" s="118"/>
+      <c r="CC23" s="118"/>
+      <c r="CD23" s="118"/>
+      <c r="CE23" s="118"/>
+      <c r="CF23" s="118"/>
+      <c r="CG23" s="118"/>
+      <c r="CH23" s="118"/>
+      <c r="CI23" s="118"/>
+      <c r="CJ23" s="118"/>
+      <c r="CK23" s="118"/>
+      <c r="CL23" s="118"/>
+      <c r="CM23" s="118"/>
+      <c r="CN23" s="118"/>
+      <c r="CO23" s="118"/>
+      <c r="CP23" s="119"/>
+      <c r="CT23" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="CU23" s="118"/>
-      <c r="CV23" s="118"/>
-      <c r="CW23" s="118"/>
-      <c r="CX23" s="118"/>
-      <c r="CY23" s="118"/>
-      <c r="CZ23" s="118"/>
-      <c r="DA23" s="118"/>
-      <c r="DB23" s="118"/>
-      <c r="DC23" s="118"/>
-      <c r="DD23" s="118"/>
-      <c r="DE23" s="119"/>
+      <c r="CU23" s="121"/>
+      <c r="CV23" s="121"/>
+      <c r="CW23" s="121"/>
+      <c r="CX23" s="121"/>
+      <c r="CY23" s="121"/>
+      <c r="CZ23" s="121"/>
+      <c r="DA23" s="121"/>
+      <c r="DB23" s="121"/>
+      <c r="DC23" s="121"/>
+      <c r="DD23" s="121"/>
+      <c r="DE23" s="122"/>
       <c r="DF23" s="65"/>
-      <c r="DG23" s="120" t="s">
+      <c r="DG23" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="DH23" s="121"/>
-      <c r="DI23" s="121"/>
-      <c r="DJ23" s="121"/>
-      <c r="DK23" s="122"/>
+      <c r="DH23" s="124"/>
+      <c r="DI23" s="124"/>
+      <c r="DJ23" s="124"/>
+      <c r="DK23" s="125"/>
     </row>
     <row r="24" spans="2:115" ht="15" customHeight="1">
       <c r="B24" s="2" t="s">
@@ -5497,14 +5585,14 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="217"/>
-      <c r="L24" s="217"/>
-      <c r="M24" s="217"/>
-      <c r="N24" s="217"/>
-      <c r="O24" s="217"/>
-      <c r="P24" s="217"/>
-      <c r="Q24" s="217"/>
-      <c r="R24" s="217"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
       <c r="U24" s="44"/>
@@ -5516,16 +5604,16 @@
       <c r="AA24" s="44"/>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
-      <c r="AD24" s="217"/>
-      <c r="AE24" s="217"/>
-      <c r="AF24" s="217"/>
-      <c r="AG24" s="217"/>
-      <c r="AH24" s="217"/>
-      <c r="AI24" s="217"/>
-      <c r="AJ24" s="217"/>
-      <c r="AK24" s="217"/>
-      <c r="AL24" s="217"/>
-      <c r="AM24" s="217"/>
+      <c r="AD24" s="126"/>
+      <c r="AE24" s="126"/>
+      <c r="AF24" s="126"/>
+      <c r="AG24" s="126"/>
+      <c r="AH24" s="126"/>
+      <c r="AI24" s="126"/>
+      <c r="AJ24" s="126"/>
+      <c r="AK24" s="126"/>
+      <c r="AL24" s="221"/>
+      <c r="AM24" s="221"/>
       <c r="AN24" s="45"/>
       <c r="AO24" s="45"/>
       <c r="AP24" s="44"/>
@@ -5536,16 +5624,16 @@
       <c r="AU24" s="44"/>
       <c r="AV24" s="44"/>
       <c r="AW24" s="44"/>
-      <c r="AX24" s="217"/>
-      <c r="AY24" s="217"/>
-      <c r="AZ24" s="217"/>
-      <c r="BA24" s="217"/>
-      <c r="BB24" s="217"/>
-      <c r="BC24" s="217"/>
-      <c r="BD24" s="217"/>
-      <c r="BE24" s="217"/>
-      <c r="BF24" s="217"/>
-      <c r="BG24" s="217"/>
+      <c r="AX24" s="126"/>
+      <c r="AY24" s="126"/>
+      <c r="AZ24" s="126"/>
+      <c r="BA24" s="126"/>
+      <c r="BB24" s="126"/>
+      <c r="BC24" s="126"/>
+      <c r="BD24" s="126"/>
+      <c r="BE24" s="126"/>
+      <c r="BF24" s="221"/>
+      <c r="BG24" s="221"/>
       <c r="BH24" s="45"/>
       <c r="BI24" s="45"/>
       <c r="BJ24" s="44"/>
@@ -5556,16 +5644,16 @@
       <c r="BO24" s="44"/>
       <c r="BP24" s="44"/>
       <c r="BQ24" s="44"/>
-      <c r="BR24" s="217"/>
-      <c r="BS24" s="217"/>
-      <c r="BT24" s="217"/>
-      <c r="BU24" s="217"/>
-      <c r="BV24" s="217"/>
-      <c r="BW24" s="217"/>
-      <c r="BX24" s="217"/>
-      <c r="BY24" s="217"/>
-      <c r="BZ24" s="217"/>
-      <c r="CA24" s="217"/>
+      <c r="BR24" s="126"/>
+      <c r="BS24" s="126"/>
+      <c r="BT24" s="126"/>
+      <c r="BU24" s="126"/>
+      <c r="BV24" s="126"/>
+      <c r="BW24" s="126"/>
+      <c r="BX24" s="126"/>
+      <c r="BY24" s="126"/>
+      <c r="BZ24" s="221"/>
+      <c r="CA24" s="221"/>
       <c r="CB24" s="45"/>
       <c r="CC24" s="45"/>
       <c r="CD24" s="49"/>
@@ -5576,44 +5664,44 @@
       <c r="CI24" s="49"/>
       <c r="CJ24" s="49"/>
       <c r="CK24" s="49"/>
-      <c r="CL24" s="217"/>
-      <c r="CM24" s="217"/>
-      <c r="CN24" s="217"/>
-      <c r="CO24" s="217"/>
-      <c r="CP24" s="217"/>
-      <c r="CQ24" s="217"/>
-      <c r="CR24" s="217"/>
-      <c r="CS24" s="217"/>
-      <c r="CT24" s="125">
+      <c r="CL24" s="126"/>
+      <c r="CM24" s="126"/>
+      <c r="CN24" s="126"/>
+      <c r="CO24" s="126"/>
+      <c r="CP24" s="126"/>
+      <c r="CQ24" s="126"/>
+      <c r="CR24" s="126"/>
+      <c r="CS24" s="126"/>
+      <c r="CT24" s="129">
         <v>1</v>
       </c>
-      <c r="CU24" s="126"/>
-      <c r="CV24" s="126"/>
-      <c r="CW24" s="129">
+      <c r="CU24" s="130"/>
+      <c r="CV24" s="130"/>
+      <c r="CW24" s="133">
         <v>2</v>
       </c>
-      <c r="CX24" s="130"/>
-      <c r="CY24" s="131"/>
-      <c r="CZ24" s="126">
+      <c r="CX24" s="134"/>
+      <c r="CY24" s="135"/>
+      <c r="CZ24" s="130">
         <v>3</v>
       </c>
-      <c r="DA24" s="126"/>
-      <c r="DB24" s="134"/>
-      <c r="DC24" s="136" t="s">
+      <c r="DA24" s="130"/>
+      <c r="DB24" s="138"/>
+      <c r="DC24" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="DD24" s="126"/>
-      <c r="DE24" s="134"/>
+      <c r="DD24" s="130"/>
+      <c r="DE24" s="138"/>
       <c r="DF24" s="66"/>
-      <c r="DG24" s="124" t="s">
+      <c r="DG24" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="DH24" s="124"/>
-      <c r="DI24" s="124" t="s">
+      <c r="DH24" s="128"/>
+      <c r="DI24" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="DJ24" s="124"/>
-      <c r="DK24" s="124"/>
+      <c r="DJ24" s="128"/>
+      <c r="DK24" s="128"/>
     </row>
     <row r="25" spans="2:115" ht="4.2" customHeight="1">
       <c r="B25" s="10"/>
@@ -5625,9 +5713,9 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
       <c r="N25" s="23"/>
       <c r="O25" s="24"/>
       <c r="P25" s="23"/>
@@ -5712,1264 +5800,1264 @@
       <c r="CQ25" s="50"/>
       <c r="CR25" s="51"/>
       <c r="CS25" s="51"/>
-      <c r="CT25" s="127"/>
-      <c r="CU25" s="128"/>
-      <c r="CV25" s="128"/>
-      <c r="CW25" s="132"/>
-      <c r="CX25" s="128"/>
-      <c r="CY25" s="133"/>
-      <c r="CZ25" s="128"/>
-      <c r="DA25" s="128"/>
-      <c r="DB25" s="135"/>
-      <c r="DC25" s="127"/>
-      <c r="DD25" s="128"/>
-      <c r="DE25" s="135"/>
+      <c r="CT25" s="131"/>
+      <c r="CU25" s="132"/>
+      <c r="CV25" s="132"/>
+      <c r="CW25" s="136"/>
+      <c r="CX25" s="132"/>
+      <c r="CY25" s="137"/>
+      <c r="CZ25" s="132"/>
+      <c r="DA25" s="132"/>
+      <c r="DB25" s="139"/>
+      <c r="DC25" s="131"/>
+      <c r="DD25" s="132"/>
+      <c r="DE25" s="139"/>
       <c r="DF25" s="66"/>
     </row>
     <row r="26" spans="2:115" ht="18" customHeight="1">
-      <c r="B26" s="214" t="s">
+      <c r="B26" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="145" t="s">
+      <c r="C26" s="215"/>
+      <c r="D26" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="145"/>
-      <c r="F26" s="146" t="s">
+      <c r="E26" s="149"/>
+      <c r="F26" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
       <c r="J26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="208"/>
-      <c r="L26" s="208"/>
-      <c r="M26" s="208"/>
+      <c r="K26" s="212"/>
+      <c r="L26" s="212"/>
+      <c r="M26" s="212"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="139"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="138"/>
-      <c r="Y26" s="138"/>
-      <c r="Z26" s="139"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="139"/>
-      <c r="AE26" s="137"/>
-      <c r="AF26" s="138"/>
-      <c r="AG26" s="138"/>
-      <c r="AH26" s="148"/>
-      <c r="AI26" s="149"/>
-      <c r="AJ26" s="138"/>
-      <c r="AK26" s="138"/>
-      <c r="AL26" s="139"/>
-      <c r="AM26" s="137"/>
-      <c r="AN26" s="138"/>
-      <c r="AO26" s="138"/>
-      <c r="AP26" s="139"/>
-      <c r="AQ26" s="137"/>
-      <c r="AR26" s="138"/>
-      <c r="AS26" s="138"/>
-      <c r="AT26" s="139"/>
-      <c r="AU26" s="137"/>
-      <c r="AV26" s="138"/>
-      <c r="AW26" s="138"/>
-      <c r="AX26" s="139"/>
-      <c r="AY26" s="137"/>
-      <c r="AZ26" s="138"/>
-      <c r="BA26" s="138"/>
-      <c r="BB26" s="140"/>
-      <c r="BC26" s="141"/>
-      <c r="BD26" s="138"/>
-      <c r="BE26" s="138"/>
-      <c r="BF26" s="139"/>
-      <c r="BG26" s="137"/>
-      <c r="BH26" s="138"/>
-      <c r="BI26" s="138"/>
-      <c r="BJ26" s="139"/>
-      <c r="BK26" s="137"/>
-      <c r="BL26" s="138"/>
-      <c r="BM26" s="138"/>
-      <c r="BN26" s="139"/>
-      <c r="BO26" s="137"/>
-      <c r="BP26" s="138"/>
-      <c r="BQ26" s="138"/>
-      <c r="BR26" s="139"/>
-      <c r="BS26" s="137"/>
-      <c r="BT26" s="138"/>
-      <c r="BU26" s="138"/>
-      <c r="BV26" s="148"/>
-      <c r="BW26" s="149"/>
-      <c r="BX26" s="138"/>
-      <c r="BY26" s="138"/>
-      <c r="BZ26" s="139"/>
-      <c r="CA26" s="137"/>
-      <c r="CB26" s="138"/>
-      <c r="CC26" s="138"/>
-      <c r="CD26" s="139"/>
-      <c r="CE26" s="137"/>
-      <c r="CF26" s="138"/>
-      <c r="CG26" s="138"/>
-      <c r="CH26" s="139"/>
-      <c r="CI26" s="137"/>
-      <c r="CJ26" s="138"/>
-      <c r="CK26" s="138"/>
-      <c r="CL26" s="139"/>
-      <c r="CM26" s="137"/>
-      <c r="CN26" s="138"/>
-      <c r="CO26" s="138"/>
-      <c r="CP26" s="163"/>
-      <c r="CQ26" s="164" t="s">
+      <c r="O26" s="145"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="142"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="142"/>
+      <c r="U26" s="142"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="141"/>
+      <c r="X26" s="142"/>
+      <c r="Y26" s="142"/>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="141"/>
+      <c r="AB26" s="142"/>
+      <c r="AC26" s="142"/>
+      <c r="AD26" s="143"/>
+      <c r="AE26" s="141"/>
+      <c r="AF26" s="142"/>
+      <c r="AG26" s="142"/>
+      <c r="AH26" s="152"/>
+      <c r="AI26" s="153"/>
+      <c r="AJ26" s="142"/>
+      <c r="AK26" s="142"/>
+      <c r="AL26" s="143"/>
+      <c r="AM26" s="141"/>
+      <c r="AN26" s="142"/>
+      <c r="AO26" s="142"/>
+      <c r="AP26" s="143"/>
+      <c r="AQ26" s="141"/>
+      <c r="AR26" s="142"/>
+      <c r="AS26" s="142"/>
+      <c r="AT26" s="143"/>
+      <c r="AU26" s="141"/>
+      <c r="AV26" s="142"/>
+      <c r="AW26" s="142"/>
+      <c r="AX26" s="143"/>
+      <c r="AY26" s="141"/>
+      <c r="AZ26" s="142"/>
+      <c r="BA26" s="142"/>
+      <c r="BB26" s="144"/>
+      <c r="BC26" s="145"/>
+      <c r="BD26" s="142"/>
+      <c r="BE26" s="142"/>
+      <c r="BF26" s="143"/>
+      <c r="BG26" s="141"/>
+      <c r="BH26" s="142"/>
+      <c r="BI26" s="142"/>
+      <c r="BJ26" s="143"/>
+      <c r="BK26" s="141"/>
+      <c r="BL26" s="142"/>
+      <c r="BM26" s="142"/>
+      <c r="BN26" s="143"/>
+      <c r="BO26" s="141"/>
+      <c r="BP26" s="142"/>
+      <c r="BQ26" s="142"/>
+      <c r="BR26" s="143"/>
+      <c r="BS26" s="141"/>
+      <c r="BT26" s="142"/>
+      <c r="BU26" s="142"/>
+      <c r="BV26" s="152"/>
+      <c r="BW26" s="153"/>
+      <c r="BX26" s="142"/>
+      <c r="BY26" s="142"/>
+      <c r="BZ26" s="143"/>
+      <c r="CA26" s="141"/>
+      <c r="CB26" s="142"/>
+      <c r="CC26" s="142"/>
+      <c r="CD26" s="143"/>
+      <c r="CE26" s="141"/>
+      <c r="CF26" s="142"/>
+      <c r="CG26" s="142"/>
+      <c r="CH26" s="143"/>
+      <c r="CI26" s="141"/>
+      <c r="CJ26" s="142"/>
+      <c r="CK26" s="142"/>
+      <c r="CL26" s="143"/>
+      <c r="CM26" s="141"/>
+      <c r="CN26" s="142"/>
+      <c r="CO26" s="142"/>
+      <c r="CP26" s="167"/>
+      <c r="CQ26" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR26" s="165"/>
-      <c r="CS26" s="166"/>
-      <c r="CT26" s="167" t="str">
-        <f t="shared" ref="CT26:CT34" si="4">IF(AND(COUNTIF(O26:CP26,"1")=0,COUNTIF(O26:CP26,"2")=0,COUNTIF(O26:CP26,"3")=0),"",COUNTIF(O26:CP26,"1")/10+IF(DG26=1,DI26/1000,0))</f>
+      <c r="CR26" s="169"/>
+      <c r="CS26" s="170"/>
+      <c r="CT26" s="171" t="str">
+        <f t="shared" ref="CT26:CT34" si="8">IF(AND(COUNTIF(O26:CP26,"1")=0,COUNTIF(O26:CP26,"2")=0,COUNTIF(O26:CP26,"3")=0),"",COUNTIF(O26:CP26,"1")/10+IF(DG26=1,DI26/1000,0))</f>
         <v/>
       </c>
-      <c r="CU26" s="118"/>
-      <c r="CV26" s="151"/>
-      <c r="CW26" s="150" t="str">
-        <f t="shared" ref="CW26:CW34" si="5">IF(AND(COUNTIF(O26:CP26,"1")=0,COUNTIF(O26:CP26,"2")=0,COUNTIF(O26:CP26,"3")=0),"",COUNTIF(O26:CP26,"2")/10+IF(DG26=2,DI26/1000,0))</f>
+      <c r="CU26" s="121"/>
+      <c r="CV26" s="155"/>
+      <c r="CW26" s="154" t="str">
+        <f t="shared" ref="CW26:CW34" si="9">IF(AND(COUNTIF(O26:CP26,"1")=0,COUNTIF(O26:CP26,"2")=0,COUNTIF(O26:CP26,"3")=0),"",COUNTIF(O26:CP26,"2")/10+IF(DG26=2,DI26/1000,0))</f>
         <v/>
       </c>
-      <c r="CX26" s="118"/>
-      <c r="CY26" s="151"/>
-      <c r="CZ26" s="150" t="str">
-        <f t="shared" ref="CZ26:CZ34" si="6">IF(AND(COUNTIF(O26:CP26,"1")=0,COUNTIF(O26:CP26,"2")=0,COUNTIF(O26:CP26,"3")=0),"",COUNTIF(O26:CP26,"3")/10+IF(DG26=3,DI26/1000,0))</f>
+      <c r="CX26" s="121"/>
+      <c r="CY26" s="155"/>
+      <c r="CZ26" s="154" t="str">
+        <f t="shared" ref="CZ26:CZ34" si="10">IF(AND(COUNTIF(O26:CP26,"1")=0,COUNTIF(O26:CP26,"2")=0,COUNTIF(O26:CP26,"3")=0),"",COUNTIF(O26:CP26,"3")/10+IF(DG26=3,DI26/1000,0))</f>
         <v/>
       </c>
-      <c r="DA26" s="118"/>
-      <c r="DB26" s="119"/>
-      <c r="DC26" s="150" t="str">
-        <f t="shared" ref="DC26:DC34" si="7">IF(AND(CT26="",CW26="",CZ26=""),"",SUM(CT26:DB26))</f>
+      <c r="DA26" s="121"/>
+      <c r="DB26" s="122"/>
+      <c r="DC26" s="154" t="str">
+        <f t="shared" ref="DC26:DC34" si="11">IF(AND(CT26="",CW26="",CZ26=""),"",SUM(CT26:DB26))</f>
         <v/>
       </c>
-      <c r="DD26" s="118"/>
-      <c r="DE26" s="119"/>
+      <c r="DD26" s="121"/>
+      <c r="DE26" s="122"/>
       <c r="DF26" s="52"/>
-      <c r="DG26" s="152"/>
-      <c r="DH26" s="153"/>
-      <c r="DI26" s="152"/>
-      <c r="DJ26" s="153"/>
+      <c r="DG26" s="156"/>
+      <c r="DH26" s="157"/>
+      <c r="DI26" s="156"/>
+      <c r="DJ26" s="157"/>
       <c r="DK26" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:115" ht="15" customHeight="1">
-      <c r="B27" s="215"/>
-      <c r="C27" s="212"/>
-      <c r="D27" s="211" t="s">
+      <c r="B27" s="219"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="211"/>
-      <c r="F27" s="154" t="s">
+      <c r="E27" s="215"/>
+      <c r="F27" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
       <c r="J27" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="159"/>
       <c r="N27" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="156"/>
-      <c r="P27" s="157"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="159"/>
-      <c r="T27" s="157"/>
-      <c r="U27" s="157"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="159"/>
-      <c r="X27" s="157"/>
-      <c r="Y27" s="157"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="159"/>
-      <c r="AB27" s="157"/>
-      <c r="AC27" s="157"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="159"/>
-      <c r="AF27" s="157"/>
-      <c r="AG27" s="157"/>
-      <c r="AH27" s="160"/>
-      <c r="AI27" s="161"/>
-      <c r="AJ27" s="157"/>
-      <c r="AK27" s="157"/>
-      <c r="AL27" s="158"/>
-      <c r="AM27" s="159"/>
-      <c r="AN27" s="157"/>
-      <c r="AO27" s="157"/>
-      <c r="AP27" s="158"/>
-      <c r="AQ27" s="159"/>
-      <c r="AR27" s="157"/>
-      <c r="AS27" s="157"/>
-      <c r="AT27" s="158"/>
-      <c r="AU27" s="159"/>
-      <c r="AV27" s="157"/>
-      <c r="AW27" s="157"/>
-      <c r="AX27" s="158"/>
-      <c r="AY27" s="159"/>
-      <c r="AZ27" s="157"/>
-      <c r="BA27" s="157"/>
-      <c r="BB27" s="162"/>
-      <c r="BC27" s="156"/>
-      <c r="BD27" s="157"/>
-      <c r="BE27" s="157"/>
-      <c r="BF27" s="158"/>
-      <c r="BG27" s="159"/>
-      <c r="BH27" s="157"/>
-      <c r="BI27" s="157"/>
-      <c r="BJ27" s="158"/>
-      <c r="BK27" s="159"/>
-      <c r="BL27" s="157"/>
-      <c r="BM27" s="157"/>
-      <c r="BN27" s="158"/>
-      <c r="BO27" s="159"/>
-      <c r="BP27" s="157"/>
-      <c r="BQ27" s="157"/>
-      <c r="BR27" s="158"/>
-      <c r="BS27" s="159"/>
-      <c r="BT27" s="157"/>
-      <c r="BU27" s="157"/>
-      <c r="BV27" s="160"/>
-      <c r="BW27" s="161"/>
-      <c r="BX27" s="157"/>
-      <c r="BY27" s="157"/>
-      <c r="BZ27" s="158"/>
-      <c r="CA27" s="159"/>
-      <c r="CB27" s="157"/>
-      <c r="CC27" s="157"/>
-      <c r="CD27" s="158"/>
-      <c r="CE27" s="159"/>
-      <c r="CF27" s="157"/>
-      <c r="CG27" s="157"/>
-      <c r="CH27" s="158"/>
-      <c r="CI27" s="159"/>
-      <c r="CJ27" s="157"/>
-      <c r="CK27" s="157"/>
-      <c r="CL27" s="158"/>
-      <c r="CM27" s="159"/>
-      <c r="CN27" s="157"/>
-      <c r="CO27" s="157"/>
-      <c r="CP27" s="179"/>
-      <c r="CQ27" s="164" t="s">
+      <c r="O27" s="160"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="163"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="163"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="163"/>
+      <c r="AB27" s="161"/>
+      <c r="AC27" s="161"/>
+      <c r="AD27" s="162"/>
+      <c r="AE27" s="163"/>
+      <c r="AF27" s="161"/>
+      <c r="AG27" s="161"/>
+      <c r="AH27" s="164"/>
+      <c r="AI27" s="165"/>
+      <c r="AJ27" s="161"/>
+      <c r="AK27" s="161"/>
+      <c r="AL27" s="162"/>
+      <c r="AM27" s="163"/>
+      <c r="AN27" s="161"/>
+      <c r="AO27" s="161"/>
+      <c r="AP27" s="162"/>
+      <c r="AQ27" s="163"/>
+      <c r="AR27" s="161"/>
+      <c r="AS27" s="161"/>
+      <c r="AT27" s="162"/>
+      <c r="AU27" s="163"/>
+      <c r="AV27" s="161"/>
+      <c r="AW27" s="161"/>
+      <c r="AX27" s="162"/>
+      <c r="AY27" s="163"/>
+      <c r="AZ27" s="161"/>
+      <c r="BA27" s="161"/>
+      <c r="BB27" s="166"/>
+      <c r="BC27" s="160"/>
+      <c r="BD27" s="161"/>
+      <c r="BE27" s="161"/>
+      <c r="BF27" s="162"/>
+      <c r="BG27" s="163"/>
+      <c r="BH27" s="161"/>
+      <c r="BI27" s="161"/>
+      <c r="BJ27" s="162"/>
+      <c r="BK27" s="163"/>
+      <c r="BL27" s="161"/>
+      <c r="BM27" s="161"/>
+      <c r="BN27" s="162"/>
+      <c r="BO27" s="163"/>
+      <c r="BP27" s="161"/>
+      <c r="BQ27" s="161"/>
+      <c r="BR27" s="162"/>
+      <c r="BS27" s="163"/>
+      <c r="BT27" s="161"/>
+      <c r="BU27" s="161"/>
+      <c r="BV27" s="164"/>
+      <c r="BW27" s="165"/>
+      <c r="BX27" s="161"/>
+      <c r="BY27" s="161"/>
+      <c r="BZ27" s="162"/>
+      <c r="CA27" s="163"/>
+      <c r="CB27" s="161"/>
+      <c r="CC27" s="161"/>
+      <c r="CD27" s="162"/>
+      <c r="CE27" s="163"/>
+      <c r="CF27" s="161"/>
+      <c r="CG27" s="161"/>
+      <c r="CH27" s="162"/>
+      <c r="CI27" s="163"/>
+      <c r="CJ27" s="161"/>
+      <c r="CK27" s="161"/>
+      <c r="CL27" s="162"/>
+      <c r="CM27" s="163"/>
+      <c r="CN27" s="161"/>
+      <c r="CO27" s="161"/>
+      <c r="CP27" s="183"/>
+      <c r="CQ27" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR27" s="165"/>
-      <c r="CS27" s="166"/>
-      <c r="CT27" s="180" t="str">
-        <f t="shared" si="4"/>
+      <c r="CR27" s="169"/>
+      <c r="CS27" s="170"/>
+      <c r="CT27" s="184" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CU27" s="181"/>
-      <c r="CV27" s="182"/>
-      <c r="CW27" s="183" t="str">
-        <f t="shared" si="5"/>
+      <c r="CU27" s="185"/>
+      <c r="CV27" s="186"/>
+      <c r="CW27" s="187" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="CX27" s="181"/>
-      <c r="CY27" s="182"/>
-      <c r="CZ27" s="183" t="str">
-        <f t="shared" si="6"/>
+      <c r="CX27" s="185"/>
+      <c r="CY27" s="186"/>
+      <c r="CZ27" s="187" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="DA27" s="181"/>
-      <c r="DB27" s="184"/>
-      <c r="DC27" s="183" t="str">
-        <f t="shared" si="7"/>
+      <c r="DA27" s="185"/>
+      <c r="DB27" s="188"/>
+      <c r="DC27" s="187" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="DD27" s="181"/>
-      <c r="DE27" s="184"/>
+      <c r="DD27" s="185"/>
+      <c r="DE27" s="188"/>
       <c r="DF27" s="52"/>
-      <c r="DG27" s="168"/>
-      <c r="DH27" s="169"/>
-      <c r="DI27" s="168"/>
-      <c r="DJ27" s="169"/>
+      <c r="DG27" s="172"/>
+      <c r="DH27" s="173"/>
+      <c r="DI27" s="172"/>
+      <c r="DJ27" s="173"/>
       <c r="DK27" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:115" ht="15" customHeight="1">
-      <c r="B28" s="215"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="170" t="s">
+      <c r="B28" s="219"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
       <c r="J28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
       <c r="N28" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O28" s="172"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="174"/>
-      <c r="W28" s="175"/>
-      <c r="X28" s="173"/>
-      <c r="Y28" s="173"/>
-      <c r="Z28" s="174"/>
-      <c r="AA28" s="175"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="174"/>
-      <c r="AE28" s="175"/>
-      <c r="AF28" s="173"/>
-      <c r="AG28" s="173"/>
-      <c r="AH28" s="176"/>
-      <c r="AI28" s="177"/>
-      <c r="AJ28" s="173"/>
-      <c r="AK28" s="173"/>
-      <c r="AL28" s="174"/>
-      <c r="AM28" s="175"/>
-      <c r="AN28" s="173"/>
-      <c r="AO28" s="173"/>
-      <c r="AP28" s="174"/>
-      <c r="AQ28" s="175"/>
-      <c r="AR28" s="173"/>
-      <c r="AS28" s="173"/>
-      <c r="AT28" s="174"/>
-      <c r="AU28" s="175"/>
-      <c r="AV28" s="173"/>
-      <c r="AW28" s="173"/>
-      <c r="AX28" s="174"/>
-      <c r="AY28" s="175"/>
-      <c r="AZ28" s="173"/>
-      <c r="BA28" s="173"/>
-      <c r="BB28" s="178"/>
-      <c r="BC28" s="172"/>
-      <c r="BD28" s="173"/>
-      <c r="BE28" s="173"/>
-      <c r="BF28" s="174"/>
-      <c r="BG28" s="175"/>
-      <c r="BH28" s="173"/>
-      <c r="BI28" s="173"/>
-      <c r="BJ28" s="174"/>
-      <c r="BK28" s="175"/>
-      <c r="BL28" s="173"/>
-      <c r="BM28" s="173"/>
-      <c r="BN28" s="174"/>
-      <c r="BO28" s="175"/>
-      <c r="BP28" s="173"/>
-      <c r="BQ28" s="173"/>
-      <c r="BR28" s="174"/>
-      <c r="BS28" s="175"/>
-      <c r="BT28" s="173"/>
-      <c r="BU28" s="173"/>
-      <c r="BV28" s="176"/>
-      <c r="BW28" s="177"/>
-      <c r="BX28" s="173"/>
-      <c r="BY28" s="173"/>
-      <c r="BZ28" s="174"/>
-      <c r="CA28" s="175"/>
-      <c r="CB28" s="173"/>
-      <c r="CC28" s="173"/>
-      <c r="CD28" s="174"/>
-      <c r="CE28" s="175"/>
-      <c r="CF28" s="173"/>
-      <c r="CG28" s="173"/>
-      <c r="CH28" s="174"/>
-      <c r="CI28" s="175"/>
-      <c r="CJ28" s="173"/>
-      <c r="CK28" s="173"/>
-      <c r="CL28" s="174"/>
-      <c r="CM28" s="175"/>
-      <c r="CN28" s="173"/>
-      <c r="CO28" s="173"/>
-      <c r="CP28" s="197"/>
-      <c r="CQ28" s="164" t="s">
+      <c r="O28" s="176"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="179"/>
+      <c r="T28" s="177"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="178"/>
+      <c r="W28" s="179"/>
+      <c r="X28" s="177"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="178"/>
+      <c r="AA28" s="179"/>
+      <c r="AB28" s="177"/>
+      <c r="AC28" s="177"/>
+      <c r="AD28" s="178"/>
+      <c r="AE28" s="179"/>
+      <c r="AF28" s="177"/>
+      <c r="AG28" s="177"/>
+      <c r="AH28" s="180"/>
+      <c r="AI28" s="181"/>
+      <c r="AJ28" s="177"/>
+      <c r="AK28" s="177"/>
+      <c r="AL28" s="178"/>
+      <c r="AM28" s="179"/>
+      <c r="AN28" s="177"/>
+      <c r="AO28" s="177"/>
+      <c r="AP28" s="178"/>
+      <c r="AQ28" s="179"/>
+      <c r="AR28" s="177"/>
+      <c r="AS28" s="177"/>
+      <c r="AT28" s="178"/>
+      <c r="AU28" s="179"/>
+      <c r="AV28" s="177"/>
+      <c r="AW28" s="177"/>
+      <c r="AX28" s="178"/>
+      <c r="AY28" s="179"/>
+      <c r="AZ28" s="177"/>
+      <c r="BA28" s="177"/>
+      <c r="BB28" s="182"/>
+      <c r="BC28" s="176"/>
+      <c r="BD28" s="177"/>
+      <c r="BE28" s="177"/>
+      <c r="BF28" s="178"/>
+      <c r="BG28" s="179"/>
+      <c r="BH28" s="177"/>
+      <c r="BI28" s="177"/>
+      <c r="BJ28" s="178"/>
+      <c r="BK28" s="179"/>
+      <c r="BL28" s="177"/>
+      <c r="BM28" s="177"/>
+      <c r="BN28" s="178"/>
+      <c r="BO28" s="179"/>
+      <c r="BP28" s="177"/>
+      <c r="BQ28" s="177"/>
+      <c r="BR28" s="178"/>
+      <c r="BS28" s="179"/>
+      <c r="BT28" s="177"/>
+      <c r="BU28" s="177"/>
+      <c r="BV28" s="180"/>
+      <c r="BW28" s="181"/>
+      <c r="BX28" s="177"/>
+      <c r="BY28" s="177"/>
+      <c r="BZ28" s="178"/>
+      <c r="CA28" s="179"/>
+      <c r="CB28" s="177"/>
+      <c r="CC28" s="177"/>
+      <c r="CD28" s="178"/>
+      <c r="CE28" s="179"/>
+      <c r="CF28" s="177"/>
+      <c r="CG28" s="177"/>
+      <c r="CH28" s="178"/>
+      <c r="CI28" s="179"/>
+      <c r="CJ28" s="177"/>
+      <c r="CK28" s="177"/>
+      <c r="CL28" s="178"/>
+      <c r="CM28" s="179"/>
+      <c r="CN28" s="177"/>
+      <c r="CO28" s="177"/>
+      <c r="CP28" s="201"/>
+      <c r="CQ28" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR28" s="165"/>
-      <c r="CS28" s="166"/>
-      <c r="CT28" s="198" t="str">
-        <f t="shared" si="4"/>
+      <c r="CR28" s="169"/>
+      <c r="CS28" s="170"/>
+      <c r="CT28" s="202" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CU28" s="199"/>
-      <c r="CV28" s="200"/>
-      <c r="CW28" s="201" t="str">
-        <f t="shared" si="5"/>
+      <c r="CU28" s="203"/>
+      <c r="CV28" s="204"/>
+      <c r="CW28" s="205" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="CX28" s="199"/>
-      <c r="CY28" s="200"/>
-      <c r="CZ28" s="201" t="str">
-        <f t="shared" si="6"/>
+      <c r="CX28" s="203"/>
+      <c r="CY28" s="204"/>
+      <c r="CZ28" s="205" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="DA28" s="199"/>
-      <c r="DB28" s="202"/>
-      <c r="DC28" s="201" t="str">
-        <f t="shared" si="7"/>
+      <c r="DA28" s="203"/>
+      <c r="DB28" s="206"/>
+      <c r="DC28" s="205" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="DD28" s="199"/>
-      <c r="DE28" s="202"/>
+      <c r="DD28" s="203"/>
+      <c r="DE28" s="206"/>
       <c r="DF28" s="52"/>
-      <c r="DG28" s="185"/>
-      <c r="DH28" s="186"/>
-      <c r="DI28" s="185"/>
-      <c r="DJ28" s="186"/>
+      <c r="DG28" s="189"/>
+      <c r="DH28" s="190"/>
+      <c r="DI28" s="189"/>
+      <c r="DJ28" s="190"/>
       <c r="DK28" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:115" ht="15" customHeight="1">
-      <c r="B29" s="215"/>
-      <c r="C29" s="212"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="187" t="s">
+      <c r="B29" s="219"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="191"/>
       <c r="J29" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="188"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="188"/>
+      <c r="K29" s="192"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="192"/>
       <c r="N29" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="189"/>
-      <c r="P29" s="190"/>
-      <c r="Q29" s="190"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="192"/>
-      <c r="T29" s="190"/>
-      <c r="U29" s="190"/>
-      <c r="V29" s="191"/>
-      <c r="W29" s="192"/>
-      <c r="X29" s="190"/>
-      <c r="Y29" s="190"/>
-      <c r="Z29" s="191"/>
-      <c r="AA29" s="192"/>
-      <c r="AB29" s="190"/>
-      <c r="AC29" s="190"/>
-      <c r="AD29" s="191"/>
-      <c r="AE29" s="192"/>
-      <c r="AF29" s="190"/>
-      <c r="AG29" s="190"/>
-      <c r="AH29" s="193"/>
-      <c r="AI29" s="194"/>
-      <c r="AJ29" s="190"/>
-      <c r="AK29" s="190"/>
-      <c r="AL29" s="191"/>
-      <c r="AM29" s="192"/>
-      <c r="AN29" s="190"/>
-      <c r="AO29" s="190"/>
-      <c r="AP29" s="191"/>
-      <c r="AQ29" s="192"/>
-      <c r="AR29" s="190"/>
-      <c r="AS29" s="190"/>
-      <c r="AT29" s="191"/>
-      <c r="AU29" s="192"/>
-      <c r="AV29" s="190"/>
-      <c r="AW29" s="190"/>
-      <c r="AX29" s="191"/>
-      <c r="AY29" s="192"/>
-      <c r="AZ29" s="190"/>
-      <c r="BA29" s="190"/>
-      <c r="BB29" s="195"/>
-      <c r="BC29" s="189"/>
-      <c r="BD29" s="190"/>
-      <c r="BE29" s="190"/>
-      <c r="BF29" s="191"/>
-      <c r="BG29" s="192"/>
-      <c r="BH29" s="190"/>
-      <c r="BI29" s="190"/>
-      <c r="BJ29" s="191"/>
-      <c r="BK29" s="192"/>
-      <c r="BL29" s="190"/>
-      <c r="BM29" s="190"/>
-      <c r="BN29" s="191"/>
-      <c r="BO29" s="192"/>
-      <c r="BP29" s="190"/>
-      <c r="BQ29" s="190"/>
-      <c r="BR29" s="191"/>
-      <c r="BS29" s="192"/>
-      <c r="BT29" s="190"/>
-      <c r="BU29" s="190"/>
-      <c r="BV29" s="193"/>
-      <c r="BW29" s="194"/>
-      <c r="BX29" s="190"/>
-      <c r="BY29" s="190"/>
-      <c r="BZ29" s="191"/>
-      <c r="CA29" s="192"/>
-      <c r="CB29" s="190"/>
-      <c r="CC29" s="190"/>
-      <c r="CD29" s="191"/>
-      <c r="CE29" s="192"/>
-      <c r="CF29" s="190"/>
-      <c r="CG29" s="190"/>
-      <c r="CH29" s="191"/>
-      <c r="CI29" s="192"/>
-      <c r="CJ29" s="190"/>
-      <c r="CK29" s="190"/>
-      <c r="CL29" s="191"/>
-      <c r="CM29" s="192"/>
-      <c r="CN29" s="190"/>
-      <c r="CO29" s="190"/>
-      <c r="CP29" s="196"/>
-      <c r="CQ29" s="164" t="s">
+      <c r="O29" s="193"/>
+      <c r="P29" s="194"/>
+      <c r="Q29" s="194"/>
+      <c r="R29" s="195"/>
+      <c r="S29" s="196"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="195"/>
+      <c r="W29" s="196"/>
+      <c r="X29" s="194"/>
+      <c r="Y29" s="194"/>
+      <c r="Z29" s="195"/>
+      <c r="AA29" s="196"/>
+      <c r="AB29" s="194"/>
+      <c r="AC29" s="194"/>
+      <c r="AD29" s="195"/>
+      <c r="AE29" s="196"/>
+      <c r="AF29" s="194"/>
+      <c r="AG29" s="194"/>
+      <c r="AH29" s="197"/>
+      <c r="AI29" s="198"/>
+      <c r="AJ29" s="194"/>
+      <c r="AK29" s="194"/>
+      <c r="AL29" s="195"/>
+      <c r="AM29" s="196"/>
+      <c r="AN29" s="194"/>
+      <c r="AO29" s="194"/>
+      <c r="AP29" s="195"/>
+      <c r="AQ29" s="196"/>
+      <c r="AR29" s="194"/>
+      <c r="AS29" s="194"/>
+      <c r="AT29" s="195"/>
+      <c r="AU29" s="196"/>
+      <c r="AV29" s="194"/>
+      <c r="AW29" s="194"/>
+      <c r="AX29" s="195"/>
+      <c r="AY29" s="196"/>
+      <c r="AZ29" s="194"/>
+      <c r="BA29" s="194"/>
+      <c r="BB29" s="199"/>
+      <c r="BC29" s="193"/>
+      <c r="BD29" s="194"/>
+      <c r="BE29" s="194"/>
+      <c r="BF29" s="195"/>
+      <c r="BG29" s="196"/>
+      <c r="BH29" s="194"/>
+      <c r="BI29" s="194"/>
+      <c r="BJ29" s="195"/>
+      <c r="BK29" s="196"/>
+      <c r="BL29" s="194"/>
+      <c r="BM29" s="194"/>
+      <c r="BN29" s="195"/>
+      <c r="BO29" s="196"/>
+      <c r="BP29" s="194"/>
+      <c r="BQ29" s="194"/>
+      <c r="BR29" s="195"/>
+      <c r="BS29" s="196"/>
+      <c r="BT29" s="194"/>
+      <c r="BU29" s="194"/>
+      <c r="BV29" s="197"/>
+      <c r="BW29" s="198"/>
+      <c r="BX29" s="194"/>
+      <c r="BY29" s="194"/>
+      <c r="BZ29" s="195"/>
+      <c r="CA29" s="196"/>
+      <c r="CB29" s="194"/>
+      <c r="CC29" s="194"/>
+      <c r="CD29" s="195"/>
+      <c r="CE29" s="196"/>
+      <c r="CF29" s="194"/>
+      <c r="CG29" s="194"/>
+      <c r="CH29" s="195"/>
+      <c r="CI29" s="196"/>
+      <c r="CJ29" s="194"/>
+      <c r="CK29" s="194"/>
+      <c r="CL29" s="195"/>
+      <c r="CM29" s="196"/>
+      <c r="CN29" s="194"/>
+      <c r="CO29" s="194"/>
+      <c r="CP29" s="200"/>
+      <c r="CQ29" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR29" s="165"/>
-      <c r="CS29" s="166"/>
-      <c r="CT29" s="203" t="str">
-        <f t="shared" si="4"/>
+      <c r="CR29" s="169"/>
+      <c r="CS29" s="170"/>
+      <c r="CT29" s="207" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CU29" s="204"/>
-      <c r="CV29" s="205"/>
-      <c r="CW29" s="206" t="str">
-        <f t="shared" si="5"/>
+      <c r="CU29" s="208"/>
+      <c r="CV29" s="209"/>
+      <c r="CW29" s="210" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="CX29" s="204"/>
-      <c r="CY29" s="205"/>
-      <c r="CZ29" s="206" t="str">
-        <f t="shared" si="6"/>
+      <c r="CX29" s="208"/>
+      <c r="CY29" s="209"/>
+      <c r="CZ29" s="210" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="DA29" s="204"/>
-      <c r="DB29" s="207"/>
-      <c r="DC29" s="206" t="str">
-        <f t="shared" si="7"/>
+      <c r="DA29" s="208"/>
+      <c r="DB29" s="211"/>
+      <c r="DC29" s="210" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="DD29" s="204"/>
-      <c r="DE29" s="207"/>
+      <c r="DD29" s="208"/>
+      <c r="DE29" s="211"/>
       <c r="DF29" s="52"/>
-      <c r="DG29" s="152"/>
-      <c r="DH29" s="153"/>
-      <c r="DI29" s="152"/>
-      <c r="DJ29" s="153"/>
+      <c r="DG29" s="156"/>
+      <c r="DH29" s="157"/>
+      <c r="DI29" s="156"/>
+      <c r="DJ29" s="157"/>
       <c r="DK29" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:115" ht="15" customHeight="1">
-      <c r="B30" s="215"/>
-      <c r="C30" s="212"/>
-      <c r="D30" s="211" t="s">
+      <c r="B30" s="219"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="211"/>
-      <c r="F30" s="154" t="s">
+      <c r="E30" s="215"/>
+      <c r="F30" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
       <c r="J30" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="159"/>
       <c r="N30" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="159"/>
-      <c r="T30" s="157"/>
-      <c r="U30" s="157"/>
-      <c r="V30" s="158"/>
-      <c r="W30" s="159"/>
-      <c r="X30" s="157"/>
-      <c r="Y30" s="157"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="159"/>
-      <c r="AB30" s="157"/>
-      <c r="AC30" s="157"/>
-      <c r="AD30" s="158"/>
-      <c r="AE30" s="159"/>
-      <c r="AF30" s="157"/>
-      <c r="AG30" s="157"/>
-      <c r="AH30" s="160"/>
-      <c r="AI30" s="161"/>
-      <c r="AJ30" s="157"/>
-      <c r="AK30" s="157"/>
-      <c r="AL30" s="158"/>
-      <c r="AM30" s="159"/>
-      <c r="AN30" s="157"/>
-      <c r="AO30" s="157"/>
-      <c r="AP30" s="158"/>
-      <c r="AQ30" s="159"/>
-      <c r="AR30" s="157"/>
-      <c r="AS30" s="157"/>
-      <c r="AT30" s="158"/>
-      <c r="AU30" s="159"/>
-      <c r="AV30" s="157"/>
-      <c r="AW30" s="157"/>
-      <c r="AX30" s="158"/>
-      <c r="AY30" s="159"/>
-      <c r="AZ30" s="157"/>
-      <c r="BA30" s="157"/>
-      <c r="BB30" s="162"/>
-      <c r="BC30" s="156"/>
-      <c r="BD30" s="157"/>
-      <c r="BE30" s="157"/>
-      <c r="BF30" s="158"/>
-      <c r="BG30" s="159"/>
-      <c r="BH30" s="157"/>
-      <c r="BI30" s="157"/>
-      <c r="BJ30" s="158"/>
-      <c r="BK30" s="159"/>
-      <c r="BL30" s="157"/>
-      <c r="BM30" s="157"/>
-      <c r="BN30" s="158"/>
-      <c r="BO30" s="159"/>
-      <c r="BP30" s="157"/>
-      <c r="BQ30" s="157"/>
-      <c r="BR30" s="158"/>
-      <c r="BS30" s="159"/>
-      <c r="BT30" s="157"/>
-      <c r="BU30" s="157"/>
-      <c r="BV30" s="160"/>
-      <c r="BW30" s="161"/>
-      <c r="BX30" s="157"/>
-      <c r="BY30" s="157"/>
-      <c r="BZ30" s="158"/>
-      <c r="CA30" s="159"/>
-      <c r="CB30" s="157"/>
-      <c r="CC30" s="157"/>
-      <c r="CD30" s="158"/>
-      <c r="CE30" s="159"/>
-      <c r="CF30" s="157"/>
-      <c r="CG30" s="157"/>
-      <c r="CH30" s="158"/>
-      <c r="CI30" s="159"/>
-      <c r="CJ30" s="157"/>
-      <c r="CK30" s="157"/>
-      <c r="CL30" s="158"/>
-      <c r="CM30" s="159"/>
-      <c r="CN30" s="157"/>
-      <c r="CO30" s="157"/>
-      <c r="CP30" s="179"/>
-      <c r="CQ30" s="164" t="s">
+      <c r="O30" s="160"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="162"/>
+      <c r="S30" s="163"/>
+      <c r="T30" s="161"/>
+      <c r="U30" s="161"/>
+      <c r="V30" s="162"/>
+      <c r="W30" s="163"/>
+      <c r="X30" s="161"/>
+      <c r="Y30" s="161"/>
+      <c r="Z30" s="162"/>
+      <c r="AA30" s="163"/>
+      <c r="AB30" s="161"/>
+      <c r="AC30" s="161"/>
+      <c r="AD30" s="162"/>
+      <c r="AE30" s="163"/>
+      <c r="AF30" s="161"/>
+      <c r="AG30" s="161"/>
+      <c r="AH30" s="164"/>
+      <c r="AI30" s="165"/>
+      <c r="AJ30" s="161"/>
+      <c r="AK30" s="161"/>
+      <c r="AL30" s="162"/>
+      <c r="AM30" s="163"/>
+      <c r="AN30" s="161"/>
+      <c r="AO30" s="161"/>
+      <c r="AP30" s="162"/>
+      <c r="AQ30" s="163"/>
+      <c r="AR30" s="161"/>
+      <c r="AS30" s="161"/>
+      <c r="AT30" s="162"/>
+      <c r="AU30" s="163"/>
+      <c r="AV30" s="161"/>
+      <c r="AW30" s="161"/>
+      <c r="AX30" s="162"/>
+      <c r="AY30" s="163"/>
+      <c r="AZ30" s="161"/>
+      <c r="BA30" s="161"/>
+      <c r="BB30" s="166"/>
+      <c r="BC30" s="160"/>
+      <c r="BD30" s="161"/>
+      <c r="BE30" s="161"/>
+      <c r="BF30" s="162"/>
+      <c r="BG30" s="163"/>
+      <c r="BH30" s="161"/>
+      <c r="BI30" s="161"/>
+      <c r="BJ30" s="162"/>
+      <c r="BK30" s="163"/>
+      <c r="BL30" s="161"/>
+      <c r="BM30" s="161"/>
+      <c r="BN30" s="162"/>
+      <c r="BO30" s="163"/>
+      <c r="BP30" s="161"/>
+      <c r="BQ30" s="161"/>
+      <c r="BR30" s="162"/>
+      <c r="BS30" s="163"/>
+      <c r="BT30" s="161"/>
+      <c r="BU30" s="161"/>
+      <c r="BV30" s="164"/>
+      <c r="BW30" s="165"/>
+      <c r="BX30" s="161"/>
+      <c r="BY30" s="161"/>
+      <c r="BZ30" s="162"/>
+      <c r="CA30" s="163"/>
+      <c r="CB30" s="161"/>
+      <c r="CC30" s="161"/>
+      <c r="CD30" s="162"/>
+      <c r="CE30" s="163"/>
+      <c r="CF30" s="161"/>
+      <c r="CG30" s="161"/>
+      <c r="CH30" s="162"/>
+      <c r="CI30" s="163"/>
+      <c r="CJ30" s="161"/>
+      <c r="CK30" s="161"/>
+      <c r="CL30" s="162"/>
+      <c r="CM30" s="163"/>
+      <c r="CN30" s="161"/>
+      <c r="CO30" s="161"/>
+      <c r="CP30" s="183"/>
+      <c r="CQ30" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR30" s="165"/>
-      <c r="CS30" s="166"/>
-      <c r="CT30" s="180" t="str">
-        <f t="shared" si="4"/>
+      <c r="CR30" s="169"/>
+      <c r="CS30" s="170"/>
+      <c r="CT30" s="184" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CU30" s="181"/>
-      <c r="CV30" s="182"/>
-      <c r="CW30" s="183" t="str">
-        <f t="shared" si="5"/>
+      <c r="CU30" s="185"/>
+      <c r="CV30" s="186"/>
+      <c r="CW30" s="187" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="CX30" s="181"/>
-      <c r="CY30" s="182"/>
-      <c r="CZ30" s="183" t="str">
-        <f t="shared" si="6"/>
+      <c r="CX30" s="185"/>
+      <c r="CY30" s="186"/>
+      <c r="CZ30" s="187" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="DA30" s="181"/>
-      <c r="DB30" s="184"/>
-      <c r="DC30" s="183" t="str">
-        <f t="shared" si="7"/>
+      <c r="DA30" s="185"/>
+      <c r="DB30" s="188"/>
+      <c r="DC30" s="187" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="DD30" s="181"/>
-      <c r="DE30" s="184"/>
+      <c r="DD30" s="185"/>
+      <c r="DE30" s="188"/>
       <c r="DF30" s="52"/>
-      <c r="DG30" s="168"/>
-      <c r="DH30" s="169"/>
-      <c r="DI30" s="168"/>
-      <c r="DJ30" s="169"/>
+      <c r="DG30" s="172"/>
+      <c r="DH30" s="173"/>
+      <c r="DI30" s="172"/>
+      <c r="DJ30" s="173"/>
       <c r="DK30" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:115" ht="15" customHeight="1">
-      <c r="B31" s="215"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="212"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="170" t="s">
+      <c r="B31" s="219"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
       <c r="J31" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="175"/>
       <c r="N31" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="172"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="175"/>
-      <c r="T31" s="173"/>
-      <c r="U31" s="173"/>
-      <c r="V31" s="174"/>
-      <c r="W31" s="175"/>
-      <c r="X31" s="173"/>
-      <c r="Y31" s="173"/>
-      <c r="Z31" s="174"/>
-      <c r="AA31" s="175"/>
-      <c r="AB31" s="173"/>
-      <c r="AC31" s="173"/>
-      <c r="AD31" s="174"/>
-      <c r="AE31" s="175"/>
-      <c r="AF31" s="173"/>
-      <c r="AG31" s="173"/>
-      <c r="AH31" s="176"/>
-      <c r="AI31" s="177"/>
-      <c r="AJ31" s="173"/>
-      <c r="AK31" s="173"/>
-      <c r="AL31" s="174"/>
-      <c r="AM31" s="175"/>
-      <c r="AN31" s="173"/>
-      <c r="AO31" s="173"/>
-      <c r="AP31" s="174"/>
-      <c r="AQ31" s="175"/>
-      <c r="AR31" s="173"/>
-      <c r="AS31" s="173"/>
-      <c r="AT31" s="174"/>
-      <c r="AU31" s="175"/>
-      <c r="AV31" s="173"/>
-      <c r="AW31" s="173"/>
-      <c r="AX31" s="174"/>
-      <c r="AY31" s="175"/>
-      <c r="AZ31" s="173"/>
-      <c r="BA31" s="173"/>
-      <c r="BB31" s="178"/>
-      <c r="BC31" s="172"/>
-      <c r="BD31" s="173"/>
-      <c r="BE31" s="173"/>
-      <c r="BF31" s="174"/>
-      <c r="BG31" s="175"/>
-      <c r="BH31" s="173"/>
-      <c r="BI31" s="173"/>
-      <c r="BJ31" s="174"/>
-      <c r="BK31" s="175"/>
-      <c r="BL31" s="173"/>
-      <c r="BM31" s="173"/>
-      <c r="BN31" s="174"/>
-      <c r="BO31" s="175"/>
-      <c r="BP31" s="173"/>
-      <c r="BQ31" s="173"/>
-      <c r="BR31" s="174"/>
-      <c r="BS31" s="175"/>
-      <c r="BT31" s="173"/>
-      <c r="BU31" s="173"/>
-      <c r="BV31" s="176"/>
-      <c r="BW31" s="177"/>
-      <c r="BX31" s="173"/>
-      <c r="BY31" s="173"/>
-      <c r="BZ31" s="174"/>
-      <c r="CA31" s="175"/>
-      <c r="CB31" s="173"/>
-      <c r="CC31" s="173"/>
-      <c r="CD31" s="174"/>
-      <c r="CE31" s="175"/>
-      <c r="CF31" s="173"/>
-      <c r="CG31" s="173"/>
-      <c r="CH31" s="174"/>
-      <c r="CI31" s="175"/>
-      <c r="CJ31" s="173"/>
-      <c r="CK31" s="173"/>
-      <c r="CL31" s="174"/>
-      <c r="CM31" s="175"/>
-      <c r="CN31" s="173"/>
-      <c r="CO31" s="173"/>
-      <c r="CP31" s="197"/>
-      <c r="CQ31" s="164" t="s">
+      <c r="O31" s="176"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="178"/>
+      <c r="S31" s="179"/>
+      <c r="T31" s="177"/>
+      <c r="U31" s="177"/>
+      <c r="V31" s="178"/>
+      <c r="W31" s="179"/>
+      <c r="X31" s="177"/>
+      <c r="Y31" s="177"/>
+      <c r="Z31" s="178"/>
+      <c r="AA31" s="179"/>
+      <c r="AB31" s="177"/>
+      <c r="AC31" s="177"/>
+      <c r="AD31" s="178"/>
+      <c r="AE31" s="179"/>
+      <c r="AF31" s="177"/>
+      <c r="AG31" s="177"/>
+      <c r="AH31" s="180"/>
+      <c r="AI31" s="181"/>
+      <c r="AJ31" s="177"/>
+      <c r="AK31" s="177"/>
+      <c r="AL31" s="178"/>
+      <c r="AM31" s="179"/>
+      <c r="AN31" s="177"/>
+      <c r="AO31" s="177"/>
+      <c r="AP31" s="178"/>
+      <c r="AQ31" s="179"/>
+      <c r="AR31" s="177"/>
+      <c r="AS31" s="177"/>
+      <c r="AT31" s="178"/>
+      <c r="AU31" s="179"/>
+      <c r="AV31" s="177"/>
+      <c r="AW31" s="177"/>
+      <c r="AX31" s="178"/>
+      <c r="AY31" s="179"/>
+      <c r="AZ31" s="177"/>
+      <c r="BA31" s="177"/>
+      <c r="BB31" s="182"/>
+      <c r="BC31" s="176"/>
+      <c r="BD31" s="177"/>
+      <c r="BE31" s="177"/>
+      <c r="BF31" s="178"/>
+      <c r="BG31" s="179"/>
+      <c r="BH31" s="177"/>
+      <c r="BI31" s="177"/>
+      <c r="BJ31" s="178"/>
+      <c r="BK31" s="179"/>
+      <c r="BL31" s="177"/>
+      <c r="BM31" s="177"/>
+      <c r="BN31" s="178"/>
+      <c r="BO31" s="179"/>
+      <c r="BP31" s="177"/>
+      <c r="BQ31" s="177"/>
+      <c r="BR31" s="178"/>
+      <c r="BS31" s="179"/>
+      <c r="BT31" s="177"/>
+      <c r="BU31" s="177"/>
+      <c r="BV31" s="180"/>
+      <c r="BW31" s="181"/>
+      <c r="BX31" s="177"/>
+      <c r="BY31" s="177"/>
+      <c r="BZ31" s="178"/>
+      <c r="CA31" s="179"/>
+      <c r="CB31" s="177"/>
+      <c r="CC31" s="177"/>
+      <c r="CD31" s="178"/>
+      <c r="CE31" s="179"/>
+      <c r="CF31" s="177"/>
+      <c r="CG31" s="177"/>
+      <c r="CH31" s="178"/>
+      <c r="CI31" s="179"/>
+      <c r="CJ31" s="177"/>
+      <c r="CK31" s="177"/>
+      <c r="CL31" s="178"/>
+      <c r="CM31" s="179"/>
+      <c r="CN31" s="177"/>
+      <c r="CO31" s="177"/>
+      <c r="CP31" s="201"/>
+      <c r="CQ31" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR31" s="165"/>
-      <c r="CS31" s="166"/>
-      <c r="CT31" s="198" t="str">
-        <f t="shared" si="4"/>
+      <c r="CR31" s="169"/>
+      <c r="CS31" s="170"/>
+      <c r="CT31" s="202" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CU31" s="199"/>
-      <c r="CV31" s="200"/>
-      <c r="CW31" s="201" t="str">
-        <f t="shared" si="5"/>
+      <c r="CU31" s="203"/>
+      <c r="CV31" s="204"/>
+      <c r="CW31" s="205" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="CX31" s="199"/>
-      <c r="CY31" s="200"/>
-      <c r="CZ31" s="201" t="str">
-        <f t="shared" si="6"/>
+      <c r="CX31" s="203"/>
+      <c r="CY31" s="204"/>
+      <c r="CZ31" s="205" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="DA31" s="199"/>
-      <c r="DB31" s="202"/>
-      <c r="DC31" s="201" t="str">
-        <f t="shared" si="7"/>
+      <c r="DA31" s="203"/>
+      <c r="DB31" s="206"/>
+      <c r="DC31" s="205" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="DD31" s="199"/>
-      <c r="DE31" s="202"/>
+      <c r="DD31" s="203"/>
+      <c r="DE31" s="206"/>
       <c r="DF31" s="52"/>
-      <c r="DG31" s="185"/>
-      <c r="DH31" s="186"/>
-      <c r="DI31" s="185"/>
-      <c r="DJ31" s="186"/>
+      <c r="DG31" s="189"/>
+      <c r="DH31" s="190"/>
+      <c r="DI31" s="189"/>
+      <c r="DJ31" s="190"/>
       <c r="DK31" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:115" ht="15" customHeight="1">
-      <c r="B32" s="215"/>
-      <c r="C32" s="212"/>
-      <c r="D32" s="212"/>
-      <c r="E32" s="212"/>
-      <c r="F32" s="170" t="s">
+      <c r="B32" s="219"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
       <c r="J32" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="171"/>
-      <c r="L32" s="171"/>
-      <c r="M32" s="171"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
       <c r="N32" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="172"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="175"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="173"/>
-      <c r="V32" s="174"/>
-      <c r="W32" s="175"/>
-      <c r="X32" s="173"/>
-      <c r="Y32" s="173"/>
-      <c r="Z32" s="174"/>
-      <c r="AA32" s="175"/>
-      <c r="AB32" s="173"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="174"/>
-      <c r="AE32" s="175"/>
-      <c r="AF32" s="173"/>
-      <c r="AG32" s="173"/>
-      <c r="AH32" s="176"/>
-      <c r="AI32" s="177"/>
-      <c r="AJ32" s="173"/>
-      <c r="AK32" s="173"/>
-      <c r="AL32" s="174"/>
-      <c r="AM32" s="175"/>
-      <c r="AN32" s="173"/>
-      <c r="AO32" s="173"/>
-      <c r="AP32" s="174"/>
-      <c r="AQ32" s="175"/>
-      <c r="AR32" s="173"/>
-      <c r="AS32" s="173"/>
-      <c r="AT32" s="174"/>
-      <c r="AU32" s="175"/>
-      <c r="AV32" s="173"/>
-      <c r="AW32" s="173"/>
-      <c r="AX32" s="174"/>
-      <c r="AY32" s="175"/>
-      <c r="AZ32" s="173"/>
-      <c r="BA32" s="173"/>
-      <c r="BB32" s="178"/>
-      <c r="BC32" s="172"/>
-      <c r="BD32" s="173"/>
-      <c r="BE32" s="173"/>
-      <c r="BF32" s="174"/>
-      <c r="BG32" s="175"/>
-      <c r="BH32" s="173"/>
-      <c r="BI32" s="173"/>
-      <c r="BJ32" s="174"/>
-      <c r="BK32" s="175"/>
-      <c r="BL32" s="173"/>
-      <c r="BM32" s="173"/>
-      <c r="BN32" s="174"/>
-      <c r="BO32" s="175"/>
-      <c r="BP32" s="173"/>
-      <c r="BQ32" s="173"/>
-      <c r="BR32" s="174"/>
-      <c r="BS32" s="175"/>
-      <c r="BT32" s="173"/>
-      <c r="BU32" s="173"/>
-      <c r="BV32" s="176"/>
-      <c r="BW32" s="177"/>
-      <c r="BX32" s="173"/>
-      <c r="BY32" s="173"/>
-      <c r="BZ32" s="174"/>
-      <c r="CA32" s="175"/>
-      <c r="CB32" s="173"/>
-      <c r="CC32" s="173"/>
-      <c r="CD32" s="174"/>
-      <c r="CE32" s="175"/>
-      <c r="CF32" s="173"/>
-      <c r="CG32" s="173"/>
-      <c r="CH32" s="174"/>
-      <c r="CI32" s="175"/>
-      <c r="CJ32" s="173"/>
-      <c r="CK32" s="173"/>
-      <c r="CL32" s="174"/>
-      <c r="CM32" s="175"/>
-      <c r="CN32" s="173"/>
-      <c r="CO32" s="173"/>
-      <c r="CP32" s="197"/>
-      <c r="CQ32" s="164" t="s">
+      <c r="O32" s="176"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="178"/>
+      <c r="S32" s="179"/>
+      <c r="T32" s="177"/>
+      <c r="U32" s="177"/>
+      <c r="V32" s="178"/>
+      <c r="W32" s="179"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="177"/>
+      <c r="Z32" s="178"/>
+      <c r="AA32" s="179"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="177"/>
+      <c r="AD32" s="178"/>
+      <c r="AE32" s="179"/>
+      <c r="AF32" s="177"/>
+      <c r="AG32" s="177"/>
+      <c r="AH32" s="180"/>
+      <c r="AI32" s="181"/>
+      <c r="AJ32" s="177"/>
+      <c r="AK32" s="177"/>
+      <c r="AL32" s="178"/>
+      <c r="AM32" s="179"/>
+      <c r="AN32" s="177"/>
+      <c r="AO32" s="177"/>
+      <c r="AP32" s="178"/>
+      <c r="AQ32" s="179"/>
+      <c r="AR32" s="177"/>
+      <c r="AS32" s="177"/>
+      <c r="AT32" s="178"/>
+      <c r="AU32" s="179"/>
+      <c r="AV32" s="177"/>
+      <c r="AW32" s="177"/>
+      <c r="AX32" s="178"/>
+      <c r="AY32" s="179"/>
+      <c r="AZ32" s="177"/>
+      <c r="BA32" s="177"/>
+      <c r="BB32" s="182"/>
+      <c r="BC32" s="176"/>
+      <c r="BD32" s="177"/>
+      <c r="BE32" s="177"/>
+      <c r="BF32" s="178"/>
+      <c r="BG32" s="179"/>
+      <c r="BH32" s="177"/>
+      <c r="BI32" s="177"/>
+      <c r="BJ32" s="178"/>
+      <c r="BK32" s="179"/>
+      <c r="BL32" s="177"/>
+      <c r="BM32" s="177"/>
+      <c r="BN32" s="178"/>
+      <c r="BO32" s="179"/>
+      <c r="BP32" s="177"/>
+      <c r="BQ32" s="177"/>
+      <c r="BR32" s="178"/>
+      <c r="BS32" s="179"/>
+      <c r="BT32" s="177"/>
+      <c r="BU32" s="177"/>
+      <c r="BV32" s="180"/>
+      <c r="BW32" s="181"/>
+      <c r="BX32" s="177"/>
+      <c r="BY32" s="177"/>
+      <c r="BZ32" s="178"/>
+      <c r="CA32" s="179"/>
+      <c r="CB32" s="177"/>
+      <c r="CC32" s="177"/>
+      <c r="CD32" s="178"/>
+      <c r="CE32" s="179"/>
+      <c r="CF32" s="177"/>
+      <c r="CG32" s="177"/>
+      <c r="CH32" s="178"/>
+      <c r="CI32" s="179"/>
+      <c r="CJ32" s="177"/>
+      <c r="CK32" s="177"/>
+      <c r="CL32" s="178"/>
+      <c r="CM32" s="179"/>
+      <c r="CN32" s="177"/>
+      <c r="CO32" s="177"/>
+      <c r="CP32" s="201"/>
+      <c r="CQ32" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR32" s="165"/>
-      <c r="CS32" s="166"/>
-      <c r="CT32" s="198" t="str">
-        <f t="shared" si="4"/>
+      <c r="CR32" s="169"/>
+      <c r="CS32" s="170"/>
+      <c r="CT32" s="202" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CU32" s="199"/>
-      <c r="CV32" s="200"/>
-      <c r="CW32" s="201" t="str">
-        <f t="shared" si="5"/>
+      <c r="CU32" s="203"/>
+      <c r="CV32" s="204"/>
+      <c r="CW32" s="205" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="CX32" s="199"/>
-      <c r="CY32" s="200"/>
-      <c r="CZ32" s="201" t="str">
-        <f t="shared" si="6"/>
+      <c r="CX32" s="203"/>
+      <c r="CY32" s="204"/>
+      <c r="CZ32" s="205" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="DA32" s="199"/>
-      <c r="DB32" s="202"/>
-      <c r="DC32" s="201" t="str">
-        <f t="shared" si="7"/>
+      <c r="DA32" s="203"/>
+      <c r="DB32" s="206"/>
+      <c r="DC32" s="205" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="DD32" s="199"/>
-      <c r="DE32" s="202"/>
+      <c r="DD32" s="203"/>
+      <c r="DE32" s="206"/>
       <c r="DF32" s="52"/>
-      <c r="DG32" s="185"/>
-      <c r="DH32" s="186"/>
-      <c r="DI32" s="185"/>
-      <c r="DJ32" s="186"/>
+      <c r="DG32" s="189"/>
+      <c r="DH32" s="190"/>
+      <c r="DI32" s="189"/>
+      <c r="DJ32" s="190"/>
       <c r="DK32" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:116" ht="15" customHeight="1">
-      <c r="B33" s="215"/>
-      <c r="C33" s="212"/>
-      <c r="D33" s="212"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="170" t="s">
+      <c r="B33" s="219"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
       <c r="J33" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="171"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+      <c r="M33" s="175"/>
       <c r="N33" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="172"/>
-      <c r="P33" s="173"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="174"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="173"/>
-      <c r="U33" s="173"/>
-      <c r="V33" s="174"/>
-      <c r="W33" s="175"/>
-      <c r="X33" s="173"/>
-      <c r="Y33" s="173"/>
-      <c r="Z33" s="174"/>
-      <c r="AA33" s="175"/>
-      <c r="AB33" s="173"/>
-      <c r="AC33" s="173"/>
-      <c r="AD33" s="174"/>
-      <c r="AE33" s="175"/>
-      <c r="AF33" s="173"/>
-      <c r="AG33" s="173"/>
-      <c r="AH33" s="176"/>
-      <c r="AI33" s="177"/>
-      <c r="AJ33" s="173"/>
-      <c r="AK33" s="173"/>
-      <c r="AL33" s="174"/>
-      <c r="AM33" s="175"/>
-      <c r="AN33" s="173"/>
-      <c r="AO33" s="173"/>
-      <c r="AP33" s="174"/>
-      <c r="AQ33" s="175"/>
-      <c r="AR33" s="173"/>
-      <c r="AS33" s="173"/>
-      <c r="AT33" s="174"/>
-      <c r="AU33" s="175"/>
-      <c r="AV33" s="173"/>
-      <c r="AW33" s="173"/>
-      <c r="AX33" s="174"/>
-      <c r="AY33" s="175"/>
-      <c r="AZ33" s="173"/>
-      <c r="BA33" s="173"/>
-      <c r="BB33" s="178"/>
-      <c r="BC33" s="172"/>
-      <c r="BD33" s="173"/>
-      <c r="BE33" s="173"/>
-      <c r="BF33" s="174"/>
-      <c r="BG33" s="175"/>
-      <c r="BH33" s="173"/>
-      <c r="BI33" s="173"/>
-      <c r="BJ33" s="174"/>
-      <c r="BK33" s="175"/>
-      <c r="BL33" s="173"/>
-      <c r="BM33" s="173"/>
-      <c r="BN33" s="174"/>
-      <c r="BO33" s="175"/>
-      <c r="BP33" s="173"/>
-      <c r="BQ33" s="173"/>
-      <c r="BR33" s="174"/>
-      <c r="BS33" s="175"/>
-      <c r="BT33" s="173"/>
-      <c r="BU33" s="173"/>
-      <c r="BV33" s="176"/>
-      <c r="BW33" s="177"/>
-      <c r="BX33" s="173"/>
-      <c r="BY33" s="173"/>
-      <c r="BZ33" s="174"/>
-      <c r="CA33" s="175"/>
-      <c r="CB33" s="173"/>
-      <c r="CC33" s="173"/>
-      <c r="CD33" s="174"/>
-      <c r="CE33" s="175"/>
-      <c r="CF33" s="173"/>
-      <c r="CG33" s="173"/>
-      <c r="CH33" s="174"/>
-      <c r="CI33" s="175"/>
-      <c r="CJ33" s="173"/>
-      <c r="CK33" s="173"/>
-      <c r="CL33" s="174"/>
-      <c r="CM33" s="175"/>
-      <c r="CN33" s="173"/>
-      <c r="CO33" s="173"/>
-      <c r="CP33" s="197"/>
-      <c r="CQ33" s="164" t="s">
+      <c r="O33" s="176"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="178"/>
+      <c r="S33" s="179"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="177"/>
+      <c r="V33" s="178"/>
+      <c r="W33" s="179"/>
+      <c r="X33" s="177"/>
+      <c r="Y33" s="177"/>
+      <c r="Z33" s="178"/>
+      <c r="AA33" s="179"/>
+      <c r="AB33" s="177"/>
+      <c r="AC33" s="177"/>
+      <c r="AD33" s="178"/>
+      <c r="AE33" s="179"/>
+      <c r="AF33" s="177"/>
+      <c r="AG33" s="177"/>
+      <c r="AH33" s="180"/>
+      <c r="AI33" s="181"/>
+      <c r="AJ33" s="177"/>
+      <c r="AK33" s="177"/>
+      <c r="AL33" s="178"/>
+      <c r="AM33" s="179"/>
+      <c r="AN33" s="177"/>
+      <c r="AO33" s="177"/>
+      <c r="AP33" s="178"/>
+      <c r="AQ33" s="179"/>
+      <c r="AR33" s="177"/>
+      <c r="AS33" s="177"/>
+      <c r="AT33" s="178"/>
+      <c r="AU33" s="179"/>
+      <c r="AV33" s="177"/>
+      <c r="AW33" s="177"/>
+      <c r="AX33" s="178"/>
+      <c r="AY33" s="179"/>
+      <c r="AZ33" s="177"/>
+      <c r="BA33" s="177"/>
+      <c r="BB33" s="182"/>
+      <c r="BC33" s="176"/>
+      <c r="BD33" s="177"/>
+      <c r="BE33" s="177"/>
+      <c r="BF33" s="178"/>
+      <c r="BG33" s="179"/>
+      <c r="BH33" s="177"/>
+      <c r="BI33" s="177"/>
+      <c r="BJ33" s="178"/>
+      <c r="BK33" s="179"/>
+      <c r="BL33" s="177"/>
+      <c r="BM33" s="177"/>
+      <c r="BN33" s="178"/>
+      <c r="BO33" s="179"/>
+      <c r="BP33" s="177"/>
+      <c r="BQ33" s="177"/>
+      <c r="BR33" s="178"/>
+      <c r="BS33" s="179"/>
+      <c r="BT33" s="177"/>
+      <c r="BU33" s="177"/>
+      <c r="BV33" s="180"/>
+      <c r="BW33" s="181"/>
+      <c r="BX33" s="177"/>
+      <c r="BY33" s="177"/>
+      <c r="BZ33" s="178"/>
+      <c r="CA33" s="179"/>
+      <c r="CB33" s="177"/>
+      <c r="CC33" s="177"/>
+      <c r="CD33" s="178"/>
+      <c r="CE33" s="179"/>
+      <c r="CF33" s="177"/>
+      <c r="CG33" s="177"/>
+      <c r="CH33" s="178"/>
+      <c r="CI33" s="179"/>
+      <c r="CJ33" s="177"/>
+      <c r="CK33" s="177"/>
+      <c r="CL33" s="178"/>
+      <c r="CM33" s="179"/>
+      <c r="CN33" s="177"/>
+      <c r="CO33" s="177"/>
+      <c r="CP33" s="201"/>
+      <c r="CQ33" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR33" s="165"/>
-      <c r="CS33" s="166"/>
-      <c r="CT33" s="198" t="str">
-        <f t="shared" si="4"/>
+      <c r="CR33" s="169"/>
+      <c r="CS33" s="170"/>
+      <c r="CT33" s="202" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CU33" s="199"/>
-      <c r="CV33" s="200"/>
-      <c r="CW33" s="201" t="str">
-        <f t="shared" si="5"/>
+      <c r="CU33" s="203"/>
+      <c r="CV33" s="204"/>
+      <c r="CW33" s="205" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="CX33" s="199"/>
-      <c r="CY33" s="200"/>
-      <c r="CZ33" s="201" t="str">
-        <f t="shared" si="6"/>
+      <c r="CX33" s="203"/>
+      <c r="CY33" s="204"/>
+      <c r="CZ33" s="205" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="DA33" s="199"/>
-      <c r="DB33" s="202"/>
-      <c r="DC33" s="201" t="str">
-        <f t="shared" si="7"/>
+      <c r="DA33" s="203"/>
+      <c r="DB33" s="206"/>
+      <c r="DC33" s="205" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="DD33" s="199"/>
-      <c r="DE33" s="202"/>
+      <c r="DD33" s="203"/>
+      <c r="DE33" s="206"/>
       <c r="DF33" s="52"/>
-      <c r="DG33" s="185"/>
-      <c r="DH33" s="186"/>
-      <c r="DI33" s="185"/>
-      <c r="DJ33" s="186"/>
+      <c r="DG33" s="189"/>
+      <c r="DH33" s="190"/>
+      <c r="DI33" s="189"/>
+      <c r="DJ33" s="190"/>
       <c r="DK33" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:116" ht="15" customHeight="1">
-      <c r="B34" s="216"/>
-      <c r="C34" s="213"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="187" t="s">
+      <c r="B34" s="220"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="187"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="191"/>
       <c r="J34" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K34" s="188"/>
-      <c r="L34" s="188"/>
-      <c r="M34" s="188"/>
+      <c r="K34" s="192"/>
+      <c r="L34" s="192"/>
+      <c r="M34" s="192"/>
       <c r="N34" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="O34" s="189"/>
-      <c r="P34" s="190"/>
-      <c r="Q34" s="190"/>
-      <c r="R34" s="191"/>
-      <c r="S34" s="192"/>
-      <c r="T34" s="190"/>
-      <c r="U34" s="190"/>
-      <c r="V34" s="191"/>
-      <c r="W34" s="192"/>
-      <c r="X34" s="190"/>
-      <c r="Y34" s="190"/>
-      <c r="Z34" s="191"/>
-      <c r="AA34" s="192"/>
-      <c r="AB34" s="190"/>
-      <c r="AC34" s="190"/>
-      <c r="AD34" s="191"/>
-      <c r="AE34" s="192"/>
-      <c r="AF34" s="190"/>
-      <c r="AG34" s="190"/>
-      <c r="AH34" s="193"/>
-      <c r="AI34" s="194"/>
-      <c r="AJ34" s="190"/>
-      <c r="AK34" s="190"/>
-      <c r="AL34" s="191"/>
-      <c r="AM34" s="192"/>
-      <c r="AN34" s="190"/>
-      <c r="AO34" s="190"/>
-      <c r="AP34" s="191"/>
-      <c r="AQ34" s="192"/>
-      <c r="AR34" s="190"/>
-      <c r="AS34" s="190"/>
-      <c r="AT34" s="191"/>
-      <c r="AU34" s="192"/>
-      <c r="AV34" s="190"/>
-      <c r="AW34" s="190"/>
-      <c r="AX34" s="191"/>
-      <c r="AY34" s="192"/>
-      <c r="AZ34" s="190"/>
-      <c r="BA34" s="190"/>
-      <c r="BB34" s="195"/>
-      <c r="BC34" s="189"/>
-      <c r="BD34" s="190"/>
-      <c r="BE34" s="190"/>
-      <c r="BF34" s="191"/>
-      <c r="BG34" s="192"/>
-      <c r="BH34" s="190"/>
-      <c r="BI34" s="190"/>
-      <c r="BJ34" s="191"/>
-      <c r="BK34" s="192"/>
-      <c r="BL34" s="190"/>
-      <c r="BM34" s="190"/>
-      <c r="BN34" s="191"/>
-      <c r="BO34" s="192"/>
-      <c r="BP34" s="190"/>
-      <c r="BQ34" s="190"/>
-      <c r="BR34" s="191"/>
-      <c r="BS34" s="192"/>
-      <c r="BT34" s="190"/>
-      <c r="BU34" s="190"/>
-      <c r="BV34" s="193"/>
-      <c r="BW34" s="194"/>
-      <c r="BX34" s="190"/>
-      <c r="BY34" s="190"/>
-      <c r="BZ34" s="191"/>
-      <c r="CA34" s="192"/>
-      <c r="CB34" s="190"/>
-      <c r="CC34" s="190"/>
-      <c r="CD34" s="191"/>
-      <c r="CE34" s="192"/>
-      <c r="CF34" s="190"/>
-      <c r="CG34" s="190"/>
-      <c r="CH34" s="191"/>
-      <c r="CI34" s="192"/>
-      <c r="CJ34" s="190"/>
-      <c r="CK34" s="190"/>
-      <c r="CL34" s="191"/>
-      <c r="CM34" s="192"/>
-      <c r="CN34" s="190"/>
-      <c r="CO34" s="190"/>
-      <c r="CP34" s="196"/>
-      <c r="CQ34" s="164" t="s">
+      <c r="O34" s="193"/>
+      <c r="P34" s="194"/>
+      <c r="Q34" s="194"/>
+      <c r="R34" s="195"/>
+      <c r="S34" s="196"/>
+      <c r="T34" s="194"/>
+      <c r="U34" s="194"/>
+      <c r="V34" s="195"/>
+      <c r="W34" s="196"/>
+      <c r="X34" s="194"/>
+      <c r="Y34" s="194"/>
+      <c r="Z34" s="195"/>
+      <c r="AA34" s="196"/>
+      <c r="AB34" s="194"/>
+      <c r="AC34" s="194"/>
+      <c r="AD34" s="195"/>
+      <c r="AE34" s="196"/>
+      <c r="AF34" s="194"/>
+      <c r="AG34" s="194"/>
+      <c r="AH34" s="197"/>
+      <c r="AI34" s="198"/>
+      <c r="AJ34" s="194"/>
+      <c r="AK34" s="194"/>
+      <c r="AL34" s="195"/>
+      <c r="AM34" s="196"/>
+      <c r="AN34" s="194"/>
+      <c r="AO34" s="194"/>
+      <c r="AP34" s="195"/>
+      <c r="AQ34" s="196"/>
+      <c r="AR34" s="194"/>
+      <c r="AS34" s="194"/>
+      <c r="AT34" s="195"/>
+      <c r="AU34" s="196"/>
+      <c r="AV34" s="194"/>
+      <c r="AW34" s="194"/>
+      <c r="AX34" s="195"/>
+      <c r="AY34" s="196"/>
+      <c r="AZ34" s="194"/>
+      <c r="BA34" s="194"/>
+      <c r="BB34" s="199"/>
+      <c r="BC34" s="193"/>
+      <c r="BD34" s="194"/>
+      <c r="BE34" s="194"/>
+      <c r="BF34" s="195"/>
+      <c r="BG34" s="196"/>
+      <c r="BH34" s="194"/>
+      <c r="BI34" s="194"/>
+      <c r="BJ34" s="195"/>
+      <c r="BK34" s="196"/>
+      <c r="BL34" s="194"/>
+      <c r="BM34" s="194"/>
+      <c r="BN34" s="195"/>
+      <c r="BO34" s="196"/>
+      <c r="BP34" s="194"/>
+      <c r="BQ34" s="194"/>
+      <c r="BR34" s="195"/>
+      <c r="BS34" s="196"/>
+      <c r="BT34" s="194"/>
+      <c r="BU34" s="194"/>
+      <c r="BV34" s="197"/>
+      <c r="BW34" s="198"/>
+      <c r="BX34" s="194"/>
+      <c r="BY34" s="194"/>
+      <c r="BZ34" s="195"/>
+      <c r="CA34" s="196"/>
+      <c r="CB34" s="194"/>
+      <c r="CC34" s="194"/>
+      <c r="CD34" s="195"/>
+      <c r="CE34" s="196"/>
+      <c r="CF34" s="194"/>
+      <c r="CG34" s="194"/>
+      <c r="CH34" s="195"/>
+      <c r="CI34" s="196"/>
+      <c r="CJ34" s="194"/>
+      <c r="CK34" s="194"/>
+      <c r="CL34" s="195"/>
+      <c r="CM34" s="196"/>
+      <c r="CN34" s="194"/>
+      <c r="CO34" s="194"/>
+      <c r="CP34" s="200"/>
+      <c r="CQ34" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="CR34" s="165"/>
-      <c r="CS34" s="166"/>
-      <c r="CT34" s="203" t="str">
-        <f t="shared" si="4"/>
+      <c r="CR34" s="169"/>
+      <c r="CS34" s="170"/>
+      <c r="CT34" s="207" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CU34" s="204"/>
-      <c r="CV34" s="205"/>
-      <c r="CW34" s="206" t="str">
-        <f t="shared" si="5"/>
+      <c r="CU34" s="208"/>
+      <c r="CV34" s="209"/>
+      <c r="CW34" s="210" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="CX34" s="204"/>
-      <c r="CY34" s="205"/>
-      <c r="CZ34" s="206" t="str">
-        <f t="shared" si="6"/>
+      <c r="CX34" s="208"/>
+      <c r="CY34" s="209"/>
+      <c r="CZ34" s="210" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="DA34" s="204"/>
-      <c r="DB34" s="207"/>
-      <c r="DC34" s="206" t="str">
-        <f t="shared" si="7"/>
+      <c r="DA34" s="208"/>
+      <c r="DB34" s="211"/>
+      <c r="DC34" s="210" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="DD34" s="204"/>
-      <c r="DE34" s="207"/>
+      <c r="DD34" s="208"/>
+      <c r="DE34" s="211"/>
       <c r="DF34" s="52"/>
-      <c r="DG34" s="185"/>
-      <c r="DH34" s="186"/>
-      <c r="DI34" s="185"/>
-      <c r="DJ34" s="186"/>
+      <c r="DG34" s="189"/>
+      <c r="DH34" s="190"/>
+      <c r="DI34" s="189"/>
+      <c r="DJ34" s="190"/>
       <c r="DK34" s="72" t="s">
         <v>4</v>
       </c>
@@ -7210,350 +7298,350 @@
     </row>
     <row r="37" spans="2:116" ht="15" customHeight="1">
       <c r="B37" s="20"/>
-      <c r="C37" s="209"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="209"/>
-      <c r="F37" s="209"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
-      <c r="O37" s="209"/>
-      <c r="P37" s="209"/>
-      <c r="Q37" s="209"/>
-      <c r="R37" s="209"/>
-      <c r="S37" s="209"/>
-      <c r="T37" s="209"/>
-      <c r="U37" s="209"/>
-      <c r="V37" s="209"/>
-      <c r="W37" s="209"/>
-      <c r="X37" s="209"/>
-      <c r="Y37" s="209"/>
-      <c r="Z37" s="209"/>
-      <c r="AA37" s="209"/>
-      <c r="AB37" s="209"/>
-      <c r="AC37" s="209"/>
-      <c r="AD37" s="209"/>
-      <c r="AE37" s="209"/>
-      <c r="AF37" s="209"/>
-      <c r="AG37" s="209"/>
-      <c r="AH37" s="209"/>
-      <c r="AI37" s="209"/>
-      <c r="AJ37" s="209"/>
-      <c r="AK37" s="209"/>
-      <c r="AL37" s="209"/>
-      <c r="AM37" s="209"/>
-      <c r="AN37" s="209"/>
-      <c r="AO37" s="209"/>
-      <c r="AP37" s="209"/>
-      <c r="AQ37" s="209"/>
-      <c r="AR37" s="209"/>
-      <c r="AS37" s="209"/>
-      <c r="AT37" s="209"/>
-      <c r="AU37" s="209"/>
-      <c r="AV37" s="209"/>
-      <c r="AW37" s="209"/>
-      <c r="AX37" s="209"/>
-      <c r="AY37" s="209"/>
-      <c r="AZ37" s="209"/>
-      <c r="BA37" s="209"/>
-      <c r="BB37" s="209"/>
-      <c r="BC37" s="209"/>
-      <c r="BD37" s="209"/>
-      <c r="BE37" s="209"/>
-      <c r="BF37" s="209"/>
-      <c r="BG37" s="209"/>
-      <c r="BH37" s="209"/>
-      <c r="BI37" s="209"/>
-      <c r="BJ37" s="209"/>
-      <c r="BK37" s="209"/>
-      <c r="BL37" s="209"/>
-      <c r="BM37" s="209"/>
-      <c r="BN37" s="209"/>
-      <c r="BO37" s="209"/>
-      <c r="BP37" s="209"/>
-      <c r="BQ37" s="209"/>
-      <c r="BR37" s="209"/>
-      <c r="BS37" s="209"/>
-      <c r="BT37" s="209"/>
-      <c r="BU37" s="209"/>
-      <c r="BV37" s="209"/>
-      <c r="BW37" s="209"/>
-      <c r="BX37" s="209"/>
-      <c r="BY37" s="209"/>
-      <c r="BZ37" s="209"/>
-      <c r="CA37" s="209"/>
-      <c r="CB37" s="209"/>
-      <c r="CC37" s="209"/>
-      <c r="CD37" s="209"/>
-      <c r="CE37" s="209"/>
-      <c r="CF37" s="209"/>
-      <c r="CG37" s="209"/>
-      <c r="CH37" s="209"/>
-      <c r="CI37" s="209"/>
-      <c r="CJ37" s="209"/>
-      <c r="CK37" s="209"/>
-      <c r="CL37" s="209"/>
-      <c r="CM37" s="209"/>
-      <c r="CN37" s="209"/>
-      <c r="CO37" s="209"/>
-      <c r="CP37" s="209"/>
-      <c r="CQ37" s="209"/>
-      <c r="CR37" s="209"/>
-      <c r="CS37" s="209"/>
-      <c r="CT37" s="209"/>
-      <c r="CU37" s="209"/>
-      <c r="CV37" s="209"/>
-      <c r="CW37" s="209"/>
-      <c r="CX37" s="209"/>
-      <c r="CY37" s="209"/>
-      <c r="CZ37" s="209"/>
-      <c r="DA37" s="209"/>
-      <c r="DB37" s="209"/>
-      <c r="DC37" s="209"/>
-      <c r="DD37" s="209"/>
-      <c r="DE37" s="209"/>
-      <c r="DF37" s="209"/>
-      <c r="DG37" s="209"/>
-      <c r="DH37" s="209"/>
-      <c r="DI37" s="209"/>
-      <c r="DJ37" s="209"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="213"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="213"/>
+      <c r="M37" s="213"/>
+      <c r="N37" s="213"/>
+      <c r="O37" s="213"/>
+      <c r="P37" s="213"/>
+      <c r="Q37" s="213"/>
+      <c r="R37" s="213"/>
+      <c r="S37" s="213"/>
+      <c r="T37" s="213"/>
+      <c r="U37" s="213"/>
+      <c r="V37" s="213"/>
+      <c r="W37" s="213"/>
+      <c r="X37" s="213"/>
+      <c r="Y37" s="213"/>
+      <c r="Z37" s="213"/>
+      <c r="AA37" s="213"/>
+      <c r="AB37" s="213"/>
+      <c r="AC37" s="213"/>
+      <c r="AD37" s="213"/>
+      <c r="AE37" s="213"/>
+      <c r="AF37" s="213"/>
+      <c r="AG37" s="213"/>
+      <c r="AH37" s="213"/>
+      <c r="AI37" s="213"/>
+      <c r="AJ37" s="213"/>
+      <c r="AK37" s="213"/>
+      <c r="AL37" s="213"/>
+      <c r="AM37" s="213"/>
+      <c r="AN37" s="213"/>
+      <c r="AO37" s="213"/>
+      <c r="AP37" s="213"/>
+      <c r="AQ37" s="213"/>
+      <c r="AR37" s="213"/>
+      <c r="AS37" s="213"/>
+      <c r="AT37" s="213"/>
+      <c r="AU37" s="213"/>
+      <c r="AV37" s="213"/>
+      <c r="AW37" s="213"/>
+      <c r="AX37" s="213"/>
+      <c r="AY37" s="213"/>
+      <c r="AZ37" s="213"/>
+      <c r="BA37" s="213"/>
+      <c r="BB37" s="213"/>
+      <c r="BC37" s="213"/>
+      <c r="BD37" s="213"/>
+      <c r="BE37" s="213"/>
+      <c r="BF37" s="213"/>
+      <c r="BG37" s="213"/>
+      <c r="BH37" s="213"/>
+      <c r="BI37" s="213"/>
+      <c r="BJ37" s="213"/>
+      <c r="BK37" s="213"/>
+      <c r="BL37" s="213"/>
+      <c r="BM37" s="213"/>
+      <c r="BN37" s="213"/>
+      <c r="BO37" s="213"/>
+      <c r="BP37" s="213"/>
+      <c r="BQ37" s="213"/>
+      <c r="BR37" s="213"/>
+      <c r="BS37" s="213"/>
+      <c r="BT37" s="213"/>
+      <c r="BU37" s="213"/>
+      <c r="BV37" s="213"/>
+      <c r="BW37" s="213"/>
+      <c r="BX37" s="213"/>
+      <c r="BY37" s="213"/>
+      <c r="BZ37" s="213"/>
+      <c r="CA37" s="213"/>
+      <c r="CB37" s="213"/>
+      <c r="CC37" s="213"/>
+      <c r="CD37" s="213"/>
+      <c r="CE37" s="213"/>
+      <c r="CF37" s="213"/>
+      <c r="CG37" s="213"/>
+      <c r="CH37" s="213"/>
+      <c r="CI37" s="213"/>
+      <c r="CJ37" s="213"/>
+      <c r="CK37" s="213"/>
+      <c r="CL37" s="213"/>
+      <c r="CM37" s="213"/>
+      <c r="CN37" s="213"/>
+      <c r="CO37" s="213"/>
+      <c r="CP37" s="213"/>
+      <c r="CQ37" s="213"/>
+      <c r="CR37" s="213"/>
+      <c r="CS37" s="213"/>
+      <c r="CT37" s="213"/>
+      <c r="CU37" s="213"/>
+      <c r="CV37" s="213"/>
+      <c r="CW37" s="213"/>
+      <c r="CX37" s="213"/>
+      <c r="CY37" s="213"/>
+      <c r="CZ37" s="213"/>
+      <c r="DA37" s="213"/>
+      <c r="DB37" s="213"/>
+      <c r="DC37" s="213"/>
+      <c r="DD37" s="213"/>
+      <c r="DE37" s="213"/>
+      <c r="DF37" s="213"/>
+      <c r="DG37" s="213"/>
+      <c r="DH37" s="213"/>
+      <c r="DI37" s="213"/>
+      <c r="DJ37" s="213"/>
       <c r="DK37" s="75"/>
     </row>
     <row r="38" spans="2:116" ht="15" customHeight="1">
       <c r="B38" s="20"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="209"/>
-      <c r="J38" s="209"/>
-      <c r="K38" s="209"/>
-      <c r="L38" s="209"/>
-      <c r="M38" s="209"/>
-      <c r="N38" s="209"/>
-      <c r="O38" s="209"/>
-      <c r="P38" s="209"/>
-      <c r="Q38" s="209"/>
-      <c r="R38" s="209"/>
-      <c r="S38" s="209"/>
-      <c r="T38" s="209"/>
-      <c r="U38" s="209"/>
-      <c r="V38" s="209"/>
-      <c r="W38" s="209"/>
-      <c r="X38" s="209"/>
-      <c r="Y38" s="209"/>
-      <c r="Z38" s="209"/>
-      <c r="AA38" s="209"/>
-      <c r="AB38" s="209"/>
-      <c r="AC38" s="209"/>
-      <c r="AD38" s="209"/>
-      <c r="AE38" s="209"/>
-      <c r="AF38" s="209"/>
-      <c r="AG38" s="209"/>
-      <c r="AH38" s="209"/>
-      <c r="AI38" s="209"/>
-      <c r="AJ38" s="209"/>
-      <c r="AK38" s="209"/>
-      <c r="AL38" s="209"/>
-      <c r="AM38" s="209"/>
-      <c r="AN38" s="209"/>
-      <c r="AO38" s="209"/>
-      <c r="AP38" s="209"/>
-      <c r="AQ38" s="209"/>
-      <c r="AR38" s="209"/>
-      <c r="AS38" s="209"/>
-      <c r="AT38" s="209"/>
-      <c r="AU38" s="209"/>
-      <c r="AV38" s="209"/>
-      <c r="AW38" s="209"/>
-      <c r="AX38" s="209"/>
-      <c r="AY38" s="209"/>
-      <c r="AZ38" s="209"/>
-      <c r="BA38" s="209"/>
-      <c r="BB38" s="209"/>
-      <c r="BC38" s="209"/>
-      <c r="BD38" s="209"/>
-      <c r="BE38" s="209"/>
-      <c r="BF38" s="209"/>
-      <c r="BG38" s="209"/>
-      <c r="BH38" s="209"/>
-      <c r="BI38" s="209"/>
-      <c r="BJ38" s="209"/>
-      <c r="BK38" s="209"/>
-      <c r="BL38" s="209"/>
-      <c r="BM38" s="209"/>
-      <c r="BN38" s="209"/>
-      <c r="BO38" s="209"/>
-      <c r="BP38" s="209"/>
-      <c r="BQ38" s="209"/>
-      <c r="BR38" s="209"/>
-      <c r="BS38" s="209"/>
-      <c r="BT38" s="209"/>
-      <c r="BU38" s="209"/>
-      <c r="BV38" s="209"/>
-      <c r="BW38" s="209"/>
-      <c r="BX38" s="209"/>
-      <c r="BY38" s="209"/>
-      <c r="BZ38" s="209"/>
-      <c r="CA38" s="209"/>
-      <c r="CB38" s="209"/>
-      <c r="CC38" s="209"/>
-      <c r="CD38" s="209"/>
-      <c r="CE38" s="209"/>
-      <c r="CF38" s="209"/>
-      <c r="CG38" s="209"/>
-      <c r="CH38" s="209"/>
-      <c r="CI38" s="209"/>
-      <c r="CJ38" s="209"/>
-      <c r="CK38" s="209"/>
-      <c r="CL38" s="209"/>
-      <c r="CM38" s="209"/>
-      <c r="CN38" s="209"/>
-      <c r="CO38" s="209"/>
-      <c r="CP38" s="209"/>
-      <c r="CQ38" s="209"/>
-      <c r="CR38" s="209"/>
-      <c r="CS38" s="209"/>
-      <c r="CT38" s="209"/>
-      <c r="CU38" s="209"/>
-      <c r="CV38" s="209"/>
-      <c r="CW38" s="209"/>
-      <c r="CX38" s="209"/>
-      <c r="CY38" s="209"/>
-      <c r="CZ38" s="209"/>
-      <c r="DA38" s="209"/>
-      <c r="DB38" s="209"/>
-      <c r="DC38" s="209"/>
-      <c r="DD38" s="209"/>
-      <c r="DE38" s="209"/>
-      <c r="DF38" s="209"/>
-      <c r="DG38" s="209"/>
-      <c r="DH38" s="209"/>
-      <c r="DI38" s="209"/>
-      <c r="DJ38" s="209"/>
+      <c r="C38" s="213"/>
+      <c r="D38" s="213"/>
+      <c r="E38" s="213"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="213"/>
+      <c r="K38" s="213"/>
+      <c r="L38" s="213"/>
+      <c r="M38" s="213"/>
+      <c r="N38" s="213"/>
+      <c r="O38" s="213"/>
+      <c r="P38" s="213"/>
+      <c r="Q38" s="213"/>
+      <c r="R38" s="213"/>
+      <c r="S38" s="213"/>
+      <c r="T38" s="213"/>
+      <c r="U38" s="213"/>
+      <c r="V38" s="213"/>
+      <c r="W38" s="213"/>
+      <c r="X38" s="213"/>
+      <c r="Y38" s="213"/>
+      <c r="Z38" s="213"/>
+      <c r="AA38" s="213"/>
+      <c r="AB38" s="213"/>
+      <c r="AC38" s="213"/>
+      <c r="AD38" s="213"/>
+      <c r="AE38" s="213"/>
+      <c r="AF38" s="213"/>
+      <c r="AG38" s="213"/>
+      <c r="AH38" s="213"/>
+      <c r="AI38" s="213"/>
+      <c r="AJ38" s="213"/>
+      <c r="AK38" s="213"/>
+      <c r="AL38" s="213"/>
+      <c r="AM38" s="213"/>
+      <c r="AN38" s="213"/>
+      <c r="AO38" s="213"/>
+      <c r="AP38" s="213"/>
+      <c r="AQ38" s="213"/>
+      <c r="AR38" s="213"/>
+      <c r="AS38" s="213"/>
+      <c r="AT38" s="213"/>
+      <c r="AU38" s="213"/>
+      <c r="AV38" s="213"/>
+      <c r="AW38" s="213"/>
+      <c r="AX38" s="213"/>
+      <c r="AY38" s="213"/>
+      <c r="AZ38" s="213"/>
+      <c r="BA38" s="213"/>
+      <c r="BB38" s="213"/>
+      <c r="BC38" s="213"/>
+      <c r="BD38" s="213"/>
+      <c r="BE38" s="213"/>
+      <c r="BF38" s="213"/>
+      <c r="BG38" s="213"/>
+      <c r="BH38" s="213"/>
+      <c r="BI38" s="213"/>
+      <c r="BJ38" s="213"/>
+      <c r="BK38" s="213"/>
+      <c r="BL38" s="213"/>
+      <c r="BM38" s="213"/>
+      <c r="BN38" s="213"/>
+      <c r="BO38" s="213"/>
+      <c r="BP38" s="213"/>
+      <c r="BQ38" s="213"/>
+      <c r="BR38" s="213"/>
+      <c r="BS38" s="213"/>
+      <c r="BT38" s="213"/>
+      <c r="BU38" s="213"/>
+      <c r="BV38" s="213"/>
+      <c r="BW38" s="213"/>
+      <c r="BX38" s="213"/>
+      <c r="BY38" s="213"/>
+      <c r="BZ38" s="213"/>
+      <c r="CA38" s="213"/>
+      <c r="CB38" s="213"/>
+      <c r="CC38" s="213"/>
+      <c r="CD38" s="213"/>
+      <c r="CE38" s="213"/>
+      <c r="CF38" s="213"/>
+      <c r="CG38" s="213"/>
+      <c r="CH38" s="213"/>
+      <c r="CI38" s="213"/>
+      <c r="CJ38" s="213"/>
+      <c r="CK38" s="213"/>
+      <c r="CL38" s="213"/>
+      <c r="CM38" s="213"/>
+      <c r="CN38" s="213"/>
+      <c r="CO38" s="213"/>
+      <c r="CP38" s="213"/>
+      <c r="CQ38" s="213"/>
+      <c r="CR38" s="213"/>
+      <c r="CS38" s="213"/>
+      <c r="CT38" s="213"/>
+      <c r="CU38" s="213"/>
+      <c r="CV38" s="213"/>
+      <c r="CW38" s="213"/>
+      <c r="CX38" s="213"/>
+      <c r="CY38" s="213"/>
+      <c r="CZ38" s="213"/>
+      <c r="DA38" s="213"/>
+      <c r="DB38" s="213"/>
+      <c r="DC38" s="213"/>
+      <c r="DD38" s="213"/>
+      <c r="DE38" s="213"/>
+      <c r="DF38" s="213"/>
+      <c r="DG38" s="213"/>
+      <c r="DH38" s="213"/>
+      <c r="DI38" s="213"/>
+      <c r="DJ38" s="213"/>
       <c r="DK38" s="75"/>
     </row>
     <row r="39" spans="2:116" ht="12.75" customHeight="1">
       <c r="B39" s="21"/>
-      <c r="C39" s="210"/>
-      <c r="D39" s="210"/>
-      <c r="E39" s="210"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="210"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="210"/>
-      <c r="K39" s="210"/>
-      <c r="L39" s="210"/>
-      <c r="M39" s="210"/>
-      <c r="N39" s="210"/>
-      <c r="O39" s="210"/>
-      <c r="P39" s="210"/>
-      <c r="Q39" s="210"/>
-      <c r="R39" s="210"/>
-      <c r="S39" s="210"/>
-      <c r="T39" s="210"/>
-      <c r="U39" s="210"/>
-      <c r="V39" s="210"/>
-      <c r="W39" s="210"/>
-      <c r="X39" s="210"/>
-      <c r="Y39" s="210"/>
-      <c r="Z39" s="210"/>
-      <c r="AA39" s="210"/>
-      <c r="AB39" s="210"/>
-      <c r="AC39" s="210"/>
-      <c r="AD39" s="210"/>
-      <c r="AE39" s="210"/>
-      <c r="AF39" s="210"/>
-      <c r="AG39" s="210"/>
-      <c r="AH39" s="210"/>
-      <c r="AI39" s="210"/>
-      <c r="AJ39" s="210"/>
-      <c r="AK39" s="210"/>
-      <c r="AL39" s="210"/>
-      <c r="AM39" s="210"/>
-      <c r="AN39" s="210"/>
-      <c r="AO39" s="210"/>
-      <c r="AP39" s="210"/>
-      <c r="AQ39" s="210"/>
-      <c r="AR39" s="210"/>
-      <c r="AS39" s="210"/>
-      <c r="AT39" s="210"/>
-      <c r="AU39" s="210"/>
-      <c r="AV39" s="210"/>
-      <c r="AW39" s="210"/>
-      <c r="AX39" s="210"/>
-      <c r="AY39" s="210"/>
-      <c r="AZ39" s="210"/>
-      <c r="BA39" s="210"/>
-      <c r="BB39" s="210"/>
-      <c r="BC39" s="210"/>
-      <c r="BD39" s="210"/>
-      <c r="BE39" s="210"/>
-      <c r="BF39" s="210"/>
-      <c r="BG39" s="210"/>
-      <c r="BH39" s="210"/>
-      <c r="BI39" s="210"/>
-      <c r="BJ39" s="210"/>
-      <c r="BK39" s="210"/>
-      <c r="BL39" s="210"/>
-      <c r="BM39" s="210"/>
-      <c r="BN39" s="210"/>
-      <c r="BO39" s="210"/>
-      <c r="BP39" s="210"/>
-      <c r="BQ39" s="210"/>
-      <c r="BR39" s="210"/>
-      <c r="BS39" s="210"/>
-      <c r="BT39" s="210"/>
-      <c r="BU39" s="210"/>
-      <c r="BV39" s="210"/>
-      <c r="BW39" s="210"/>
-      <c r="BX39" s="210"/>
-      <c r="BY39" s="210"/>
-      <c r="BZ39" s="210"/>
-      <c r="CA39" s="210"/>
-      <c r="CB39" s="210"/>
-      <c r="CC39" s="210"/>
-      <c r="CD39" s="210"/>
-      <c r="CE39" s="210"/>
-      <c r="CF39" s="210"/>
-      <c r="CG39" s="210"/>
-      <c r="CH39" s="210"/>
-      <c r="CI39" s="210"/>
-      <c r="CJ39" s="210"/>
-      <c r="CK39" s="210"/>
-      <c r="CL39" s="210"/>
-      <c r="CM39" s="210"/>
-      <c r="CN39" s="210"/>
-      <c r="CO39" s="210"/>
-      <c r="CP39" s="210"/>
-      <c r="CQ39" s="210"/>
-      <c r="CR39" s="210"/>
-      <c r="CS39" s="210"/>
-      <c r="CT39" s="210"/>
-      <c r="CU39" s="210"/>
-      <c r="CV39" s="210"/>
-      <c r="CW39" s="210"/>
-      <c r="CX39" s="210"/>
-      <c r="CY39" s="210"/>
-      <c r="CZ39" s="210"/>
-      <c r="DA39" s="210"/>
-      <c r="DB39" s="210"/>
-      <c r="DC39" s="210"/>
-      <c r="DD39" s="210"/>
-      <c r="DE39" s="210"/>
-      <c r="DF39" s="210"/>
-      <c r="DG39" s="210"/>
-      <c r="DH39" s="210"/>
-      <c r="DI39" s="210"/>
-      <c r="DJ39" s="210"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="214"/>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="214"/>
+      <c r="I39" s="214"/>
+      <c r="J39" s="214"/>
+      <c r="K39" s="214"/>
+      <c r="L39" s="214"/>
+      <c r="M39" s="214"/>
+      <c r="N39" s="214"/>
+      <c r="O39" s="214"/>
+      <c r="P39" s="214"/>
+      <c r="Q39" s="214"/>
+      <c r="R39" s="214"/>
+      <c r="S39" s="214"/>
+      <c r="T39" s="214"/>
+      <c r="U39" s="214"/>
+      <c r="V39" s="214"/>
+      <c r="W39" s="214"/>
+      <c r="X39" s="214"/>
+      <c r="Y39" s="214"/>
+      <c r="Z39" s="214"/>
+      <c r="AA39" s="214"/>
+      <c r="AB39" s="214"/>
+      <c r="AC39" s="214"/>
+      <c r="AD39" s="214"/>
+      <c r="AE39" s="214"/>
+      <c r="AF39" s="214"/>
+      <c r="AG39" s="214"/>
+      <c r="AH39" s="214"/>
+      <c r="AI39" s="214"/>
+      <c r="AJ39" s="214"/>
+      <c r="AK39" s="214"/>
+      <c r="AL39" s="214"/>
+      <c r="AM39" s="214"/>
+      <c r="AN39" s="214"/>
+      <c r="AO39" s="214"/>
+      <c r="AP39" s="214"/>
+      <c r="AQ39" s="214"/>
+      <c r="AR39" s="214"/>
+      <c r="AS39" s="214"/>
+      <c r="AT39" s="214"/>
+      <c r="AU39" s="214"/>
+      <c r="AV39" s="214"/>
+      <c r="AW39" s="214"/>
+      <c r="AX39" s="214"/>
+      <c r="AY39" s="214"/>
+      <c r="AZ39" s="214"/>
+      <c r="BA39" s="214"/>
+      <c r="BB39" s="214"/>
+      <c r="BC39" s="214"/>
+      <c r="BD39" s="214"/>
+      <c r="BE39" s="214"/>
+      <c r="BF39" s="214"/>
+      <c r="BG39" s="214"/>
+      <c r="BH39" s="214"/>
+      <c r="BI39" s="214"/>
+      <c r="BJ39" s="214"/>
+      <c r="BK39" s="214"/>
+      <c r="BL39" s="214"/>
+      <c r="BM39" s="214"/>
+      <c r="BN39" s="214"/>
+      <c r="BO39" s="214"/>
+      <c r="BP39" s="214"/>
+      <c r="BQ39" s="214"/>
+      <c r="BR39" s="214"/>
+      <c r="BS39" s="214"/>
+      <c r="BT39" s="214"/>
+      <c r="BU39" s="214"/>
+      <c r="BV39" s="214"/>
+      <c r="BW39" s="214"/>
+      <c r="BX39" s="214"/>
+      <c r="BY39" s="214"/>
+      <c r="BZ39" s="214"/>
+      <c r="CA39" s="214"/>
+      <c r="CB39" s="214"/>
+      <c r="CC39" s="214"/>
+      <c r="CD39" s="214"/>
+      <c r="CE39" s="214"/>
+      <c r="CF39" s="214"/>
+      <c r="CG39" s="214"/>
+      <c r="CH39" s="214"/>
+      <c r="CI39" s="214"/>
+      <c r="CJ39" s="214"/>
+      <c r="CK39" s="214"/>
+      <c r="CL39" s="214"/>
+      <c r="CM39" s="214"/>
+      <c r="CN39" s="214"/>
+      <c r="CO39" s="214"/>
+      <c r="CP39" s="214"/>
+      <c r="CQ39" s="214"/>
+      <c r="CR39" s="214"/>
+      <c r="CS39" s="214"/>
+      <c r="CT39" s="214"/>
+      <c r="CU39" s="214"/>
+      <c r="CV39" s="214"/>
+      <c r="CW39" s="214"/>
+      <c r="CX39" s="214"/>
+      <c r="CY39" s="214"/>
+      <c r="CZ39" s="214"/>
+      <c r="DA39" s="214"/>
+      <c r="DB39" s="214"/>
+      <c r="DC39" s="214"/>
+      <c r="DD39" s="214"/>
+      <c r="DE39" s="214"/>
+      <c r="DF39" s="214"/>
+      <c r="DG39" s="214"/>
+      <c r="DH39" s="214"/>
+      <c r="DI39" s="214"/>
+      <c r="DJ39" s="214"/>
       <c r="DK39" s="76"/>
     </row>
     <row r="40" spans="2:116" ht="3" customHeight="1">
@@ -7675,18 +7763,36 @@
     </row>
   </sheetData>
   <mergeCells count="594">
+    <mergeCell ref="CQ34:CS34"/>
+    <mergeCell ref="BW32:BZ32"/>
+    <mergeCell ref="CA32:CD32"/>
     <mergeCell ref="AD24:AK24"/>
     <mergeCell ref="AL24:AM24"/>
     <mergeCell ref="AX24:BE24"/>
     <mergeCell ref="BF24:BG24"/>
     <mergeCell ref="BR24:BY24"/>
     <mergeCell ref="BZ24:CA24"/>
-    <mergeCell ref="D27:E29"/>
-    <mergeCell ref="B26:C34"/>
-    <mergeCell ref="CT24:CV25"/>
-    <mergeCell ref="CW24:CY25"/>
-    <mergeCell ref="CZ24:DB25"/>
-    <mergeCell ref="DC24:DE25"/>
+    <mergeCell ref="CE32:CH32"/>
+    <mergeCell ref="CI32:CL32"/>
+    <mergeCell ref="CM32:CP32"/>
+    <mergeCell ref="CQ32:CS32"/>
+    <mergeCell ref="CA33:CD33"/>
+    <mergeCell ref="CE33:CH33"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AE32:AH32"/>
+    <mergeCell ref="AI32:AL32"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="AQ32:AT32"/>
+    <mergeCell ref="AU32:AX32"/>
+    <mergeCell ref="AM34:AP34"/>
+    <mergeCell ref="AQ34:AT34"/>
+    <mergeCell ref="AU34:AX34"/>
+    <mergeCell ref="AY34:BB34"/>
+    <mergeCell ref="BC34:BF34"/>
+    <mergeCell ref="BG34:BJ34"/>
+    <mergeCell ref="BK34:BN34"/>
+    <mergeCell ref="BO34:BR34"/>
+    <mergeCell ref="BS34:BV34"/>
     <mergeCell ref="D14:E16"/>
     <mergeCell ref="B13:C21"/>
     <mergeCell ref="D17:E21"/>
@@ -7696,15 +7802,11 @@
     <mergeCell ref="AA34:AD34"/>
     <mergeCell ref="AE34:AH34"/>
     <mergeCell ref="AI34:AL34"/>
-    <mergeCell ref="AM34:AP34"/>
-    <mergeCell ref="AQ34:AT34"/>
-    <mergeCell ref="AU34:AX34"/>
-    <mergeCell ref="AY34:BB34"/>
-    <mergeCell ref="BC34:BF34"/>
-    <mergeCell ref="BG34:BJ34"/>
-    <mergeCell ref="BK34:BN34"/>
-    <mergeCell ref="BO34:BR34"/>
-    <mergeCell ref="BS34:BV34"/>
+    <mergeCell ref="D27:E29"/>
+    <mergeCell ref="B26:C34"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
     <mergeCell ref="C37:DJ39"/>
     <mergeCell ref="CT34:CV34"/>
     <mergeCell ref="CW34:CY34"/>
@@ -7729,16 +7831,6 @@
     <mergeCell ref="CE34:CH34"/>
     <mergeCell ref="CI34:CL34"/>
     <mergeCell ref="CM34:CP34"/>
-    <mergeCell ref="CQ34:CS34"/>
-    <mergeCell ref="BW32:BZ32"/>
-    <mergeCell ref="CA32:CD32"/>
-    <mergeCell ref="CE32:CH32"/>
-    <mergeCell ref="CI32:CL32"/>
-    <mergeCell ref="CM32:CP32"/>
-    <mergeCell ref="CQ32:CS32"/>
-    <mergeCell ref="CA33:CD33"/>
-    <mergeCell ref="CE33:CH33"/>
-    <mergeCell ref="CZ32:DB32"/>
     <mergeCell ref="DC32:DE32"/>
     <mergeCell ref="DG32:DH32"/>
     <mergeCell ref="DI32:DJ32"/>
@@ -7762,15 +7854,6 @@
     <mergeCell ref="BW33:BZ33"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AE32:AH32"/>
-    <mergeCell ref="AI32:AL32"/>
-    <mergeCell ref="AM32:AP32"/>
-    <mergeCell ref="AQ32:AT32"/>
-    <mergeCell ref="AU32:AX32"/>
     <mergeCell ref="AY32:BB32"/>
     <mergeCell ref="BC32:BF32"/>
     <mergeCell ref="BG32:BJ32"/>
@@ -7794,6 +7877,7 @@
     <mergeCell ref="DC30:DE30"/>
     <mergeCell ref="CT32:CV32"/>
     <mergeCell ref="CW32:CY32"/>
+    <mergeCell ref="CZ32:DB32"/>
     <mergeCell ref="DI30:DJ30"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="K31:M31"/>
@@ -7962,6 +8046,7 @@
     <mergeCell ref="CM26:CP26"/>
     <mergeCell ref="CQ26:CS26"/>
     <mergeCell ref="CT26:CV26"/>
+    <mergeCell ref="CW24:CY25"/>
     <mergeCell ref="CZ21:DB21"/>
     <mergeCell ref="DC21:DE21"/>
     <mergeCell ref="DG21:DH21"/>
@@ -7983,6 +8068,9 @@
     <mergeCell ref="BO21:BR21"/>
     <mergeCell ref="BS21:BV21"/>
     <mergeCell ref="BW21:BZ21"/>
+    <mergeCell ref="CZ24:DB25"/>
+    <mergeCell ref="DC24:DE25"/>
+    <mergeCell ref="CT24:CV25"/>
     <mergeCell ref="CI20:CL20"/>
     <mergeCell ref="CM20:CP20"/>
     <mergeCell ref="CQ20:CS20"/>
